--- a/Assets/Data/System.xlsx
+++ b/Assets/Data/System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="711" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="711" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TacticsComand" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="459">
   <si>
     <t>Id</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>弱点倍率</t>
+  </si>
+  <si>
+    <t>StartStageId</t>
   </si>
   <si>
     <t>Text</t>
@@ -1407,10 +1410,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1427,24 +1430,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1457,6 +1466,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1465,15 +1482,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1495,25 +1504,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1533,7 +1543,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1542,7 +1552,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1551,21 +1569,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1580,19 +1583,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1604,13 +1631,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1622,97 +1655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1730,7 +1673,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1742,25 +1763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1771,6 +1774,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1799,30 +1835,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1833,6 +1845,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1851,26 +1874,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1879,145 +1882,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2424,8 +2427,8 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -4570,10 +4573,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="2"/>
@@ -4674,6 +4677,14 @@
       </c>
       <c r="C10" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4702,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4713,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:7">
@@ -4724,10 +4735,10 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -4739,7 +4750,7 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4747,10 +4758,10 @@
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4758,10 +4769,10 @@
         <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4772,7 +4783,7 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4783,7 +4794,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4794,7 +4805,7 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4802,10 +4813,10 @@
         <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4813,10 +4824,10 @@
         <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4824,10 +4835,10 @@
         <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4835,10 +4846,10 @@
         <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4846,10 +4857,10 @@
         <v>160</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4857,10 +4868,10 @@
         <v>170</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4868,10 +4879,10 @@
         <v>180</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4882,7 +4893,7 @@
         <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4890,10 +4901,10 @@
         <v>200</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4901,10 +4912,10 @@
         <v>210</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4912,10 +4923,10 @@
         <v>220</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4923,10 +4934,10 @@
         <v>230</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4934,10 +4945,10 @@
         <v>240</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4945,10 +4956,10 @@
         <v>250</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4956,10 +4967,10 @@
         <v>260</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4967,10 +4978,10 @@
         <v>270</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4978,10 +4989,10 @@
         <v>312</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4989,10 +5000,10 @@
         <v>313</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5000,10 +5011,10 @@
         <v>314</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5011,10 +5022,10 @@
         <v>315</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5022,10 +5033,10 @@
         <v>341</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5033,10 +5044,10 @@
         <v>342</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5044,13 +5055,13 @@
         <v>371</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5058,13 +5069,13 @@
         <v>380</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5072,13 +5083,13 @@
         <v>381</v>
       </c>
       <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" t="s">
         <v>126</v>
-      </c>
-      <c r="C34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5086,13 +5097,13 @@
         <v>390</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5100,13 +5111,13 @@
         <v>391</v>
       </c>
       <c r="B36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" t="s">
         <v>129</v>
-      </c>
-      <c r="C36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5114,13 +5125,13 @@
         <v>400</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5128,10 +5139,10 @@
         <v>401</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5139,10 +5150,10 @@
         <v>402</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5150,10 +5161,10 @@
         <v>403</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5161,10 +5172,10 @@
         <v>404</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5172,10 +5183,10 @@
         <v>405</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5183,10 +5194,10 @@
         <v>420</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5194,10 +5205,10 @@
         <v>421</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5205,10 +5216,10 @@
         <v>422</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5216,10 +5227,10 @@
         <v>600</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5227,10 +5238,10 @@
         <v>601</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5238,10 +5249,10 @@
         <v>602</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -5249,10 +5260,10 @@
         <v>603</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -5260,10 +5271,10 @@
         <v>606</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -5271,10 +5282,10 @@
         <v>611</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -5282,10 +5293,10 @@
         <v>620</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5293,10 +5304,10 @@
         <v>621</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -5304,10 +5315,10 @@
         <v>622</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5315,10 +5326,10 @@
         <v>623</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -5326,10 +5337,10 @@
         <v>624</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -5337,10 +5348,10 @@
         <v>625</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5348,10 +5359,10 @@
         <v>651</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -5359,10 +5370,10 @@
         <v>652</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5370,10 +5381,10 @@
         <v>702</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C60" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5381,10 +5392,10 @@
         <v>706</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5392,10 +5403,10 @@
         <v>800</v>
       </c>
       <c r="B62" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5403,10 +5414,10 @@
         <v>801</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -5417,7 +5428,7 @@
         <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5428,7 +5439,7 @@
         <v>33</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5439,7 +5450,7 @@
         <v>40</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5447,10 +5458,10 @@
         <v>805</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5458,10 +5469,10 @@
         <v>806</v>
       </c>
       <c r="B68" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5469,10 +5480,10 @@
         <v>807</v>
       </c>
       <c r="B69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5480,10 +5491,10 @@
         <v>808</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C70" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5491,10 +5502,10 @@
         <v>810</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -5502,10 +5513,10 @@
         <v>811</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C72" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5513,10 +5524,10 @@
         <v>812</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C73" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5524,10 +5535,10 @@
         <v>813</v>
       </c>
       <c r="B74" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C74" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -5535,10 +5546,10 @@
         <v>814</v>
       </c>
       <c r="B75" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5546,10 +5557,10 @@
         <v>815</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5557,10 +5568,10 @@
         <v>816</v>
       </c>
       <c r="B77" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -5568,10 +5579,10 @@
         <v>817</v>
       </c>
       <c r="B78" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -5579,10 +5590,10 @@
         <v>818</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -5590,10 +5601,10 @@
         <v>819</v>
       </c>
       <c r="B80" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -5601,10 +5612,10 @@
         <v>820</v>
       </c>
       <c r="B81" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C81" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -5612,10 +5623,10 @@
         <v>821</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C82" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -5623,10 +5634,10 @@
         <v>822</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -5634,10 +5645,10 @@
         <v>823</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -5645,10 +5656,10 @@
         <v>824</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -5656,10 +5667,10 @@
         <v>825</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -5667,10 +5678,10 @@
         <v>826</v>
       </c>
       <c r="B87" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C87" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -5678,10 +5689,10 @@
         <v>827</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C88" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -5689,10 +5700,10 @@
         <v>1000</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -5700,10 +5711,10 @@
         <v>1001</v>
       </c>
       <c r="B90" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -5711,10 +5722,10 @@
         <v>1010</v>
       </c>
       <c r="B91" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C91" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -5722,10 +5733,10 @@
         <v>1020</v>
       </c>
       <c r="B92" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C92" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" customFormat="1" spans="1:3">
@@ -5733,10 +5744,10 @@
         <v>1060</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C93" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" customFormat="1" spans="1:3">
@@ -5744,10 +5755,10 @@
         <v>1110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" customFormat="1" spans="1:3">
@@ -5755,10 +5766,10 @@
         <v>1120</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C95" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -5766,13 +5777,13 @@
         <v>2000</v>
       </c>
       <c r="B96" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C96" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D96" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -5780,10 +5791,10 @@
         <v>2001</v>
       </c>
       <c r="B97" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C97" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -5791,10 +5802,10 @@
         <v>2002</v>
       </c>
       <c r="B98" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -5802,10 +5813,10 @@
         <v>2003</v>
       </c>
       <c r="B99" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -5813,10 +5824,10 @@
         <v>2004</v>
       </c>
       <c r="B100" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C100" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -5824,10 +5835,10 @@
         <v>2005</v>
       </c>
       <c r="B101" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C101" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -5835,10 +5846,10 @@
         <v>2006</v>
       </c>
       <c r="B102" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C102" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -5846,10 +5857,10 @@
         <v>2007</v>
       </c>
       <c r="B103" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C103" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -5857,13 +5868,13 @@
         <v>2010</v>
       </c>
       <c r="B104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C104" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D104" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -5871,13 +5882,13 @@
         <v>2011</v>
       </c>
       <c r="B105" t="s">
+        <v>193</v>
+      </c>
+      <c r="C105" t="s">
+        <v>98</v>
+      </c>
+      <c r="D105" t="s">
         <v>192</v>
-      </c>
-      <c r="C105" t="s">
-        <v>97</v>
-      </c>
-      <c r="D105" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -5885,13 +5896,13 @@
         <v>2012</v>
       </c>
       <c r="B106" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C106" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D106" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -5899,13 +5910,13 @@
         <v>2013</v>
       </c>
       <c r="B107" t="s">
+        <v>193</v>
+      </c>
+      <c r="C107" t="s">
+        <v>98</v>
+      </c>
+      <c r="D107" t="s">
         <v>192</v>
-      </c>
-      <c r="C107" t="s">
-        <v>97</v>
-      </c>
-      <c r="D107" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="108" customFormat="1" spans="1:4">
@@ -5913,13 +5924,13 @@
         <v>2100</v>
       </c>
       <c r="B108" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C108" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D108" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -5927,10 +5938,10 @@
         <v>2101</v>
       </c>
       <c r="B109" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C109" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -5938,10 +5949,10 @@
         <v>2102</v>
       </c>
       <c r="B110" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C110" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -5949,10 +5960,10 @@
         <v>2103</v>
       </c>
       <c r="B111" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C111" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -5960,10 +5971,10 @@
         <v>2104</v>
       </c>
       <c r="B112" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C112" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -5971,13 +5982,13 @@
         <v>2200</v>
       </c>
       <c r="B113" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C113" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D113" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -5985,13 +5996,13 @@
         <v>2210</v>
       </c>
       <c r="B114" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C114" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D114" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115" ht="29" customHeight="1" spans="1:4">
@@ -5999,13 +6010,13 @@
         <v>2220</v>
       </c>
       <c r="B115" t="s">
+        <v>202</v>
+      </c>
+      <c r="C115" t="s">
+        <v>98</v>
+      </c>
+      <c r="D115" t="s">
         <v>201</v>
-      </c>
-      <c r="C115" t="s">
-        <v>97</v>
-      </c>
-      <c r="D115" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -6013,13 +6024,13 @@
         <v>2300</v>
       </c>
       <c r="B116" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C116" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D116" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -6027,13 +6038,13 @@
         <v>2310</v>
       </c>
       <c r="B117" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C117" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D117" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -6041,13 +6052,13 @@
         <v>2320</v>
       </c>
       <c r="B118" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C118" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D118" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -6055,13 +6066,13 @@
         <v>2330</v>
       </c>
       <c r="B119" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C119" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D119" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -6069,13 +6080,13 @@
         <v>2340</v>
       </c>
       <c r="B120" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C120" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D120" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -6083,13 +6094,13 @@
         <v>2400</v>
       </c>
       <c r="B121" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C121" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D121" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -6097,10 +6108,10 @@
         <v>3000</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C122" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -6108,10 +6119,10 @@
         <v>3010</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C123" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -6119,10 +6130,10 @@
         <v>3011</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C124" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -6130,10 +6141,10 @@
         <v>3040</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C125" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -6144,7 +6155,7 @@
         <v>31</v>
       </c>
       <c r="C126" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -6152,10 +6163,10 @@
         <v>3051</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C127" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -6163,10 +6174,10 @@
         <v>3052</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C128" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -6174,10 +6185,10 @@
         <v>3053</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C129" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -6185,10 +6196,10 @@
         <v>3054</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C130" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -6196,10 +6207,10 @@
         <v>3070</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C131" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -6207,10 +6218,10 @@
         <v>3071</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C132" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -6218,10 +6229,10 @@
         <v>3072</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C133" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -6229,10 +6240,10 @@
         <v>3073</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C134" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -6240,10 +6251,10 @@
         <v>3090</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C135" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -6251,10 +6262,10 @@
         <v>3211</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C136" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -6262,10 +6273,10 @@
         <v>3230</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C137" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -6273,10 +6284,10 @@
         <v>5000</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C138" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -6284,10 +6295,10 @@
         <v>5001</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C139" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -6295,10 +6306,10 @@
         <v>5002</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C140" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -6306,10 +6317,10 @@
         <v>6001</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C141" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -6317,10 +6328,10 @@
         <v>6002</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C142" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -6328,10 +6339,10 @@
         <v>6100</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C143" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -6339,10 +6350,10 @@
         <v>6101</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C144" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -6350,10 +6361,10 @@
         <v>6102</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C145" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -6361,10 +6372,10 @@
         <v>6103</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C146" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -6372,10 +6383,10 @@
         <v>6104</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C147" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -6383,10 +6394,10 @@
         <v>6105</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C148" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -6394,10 +6405,10 @@
         <v>6106</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C149" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -6405,10 +6416,10 @@
         <v>6107</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C150" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -6416,10 +6427,10 @@
         <v>6108</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C151" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -6427,10 +6438,10 @@
         <v>6109</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C152" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -6438,10 +6449,10 @@
         <v>6110</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C153" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -6449,10 +6460,10 @@
         <v>6111</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C154" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -6460,10 +6471,10 @@
         <v>6201</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C155" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -6471,10 +6482,10 @@
         <v>6202</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C156" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -6482,10 +6493,10 @@
         <v>6211</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C157" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -6493,10 +6504,10 @@
         <v>6212</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C158" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -6504,10 +6515,10 @@
         <v>6221</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C159" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -6515,10 +6526,10 @@
         <v>6222</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C160" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -6526,10 +6537,10 @@
         <v>6223</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C161" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -6537,10 +6548,10 @@
         <v>6231</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C162" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -6548,10 +6559,10 @@
         <v>6232</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C163" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="164" ht="130" spans="1:4">
@@ -6559,13 +6570,13 @@
         <v>12010</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C164" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D164" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -6573,13 +6584,13 @@
         <v>13010</v>
       </c>
       <c r="B165" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C165" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D165" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -6587,7 +6598,7 @@
         <v>13020</v>
       </c>
       <c r="C166" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -6595,10 +6606,10 @@
         <v>13110</v>
       </c>
       <c r="B167" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C167" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -6606,10 +6617,10 @@
         <v>13120</v>
       </c>
       <c r="B168" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C168" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -6617,10 +6628,10 @@
         <v>13130</v>
       </c>
       <c r="B169" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C169" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -6628,10 +6639,10 @@
         <v>13140</v>
       </c>
       <c r="B170" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C170" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -6639,10 +6650,10 @@
         <v>13210</v>
       </c>
       <c r="B171" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C171" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -6650,10 +6661,10 @@
         <v>13220</v>
       </c>
       <c r="B172" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C172" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -6661,10 +6672,10 @@
         <v>13230</v>
       </c>
       <c r="B173" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C173" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -6672,10 +6683,10 @@
         <v>13300</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C174" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -6683,10 +6694,10 @@
         <v>13301</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C175" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -6694,10 +6705,10 @@
         <v>13310</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C176" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -6705,10 +6716,10 @@
         <v>13320</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C177" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="178" ht="26" spans="1:3">
@@ -6716,10 +6727,10 @@
         <v>13330</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C178" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -6727,10 +6738,10 @@
         <v>13400</v>
       </c>
       <c r="B179" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C179" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -6741,7 +6752,7 @@
         <v>33</v>
       </c>
       <c r="C180" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -6749,10 +6760,10 @@
         <v>13420</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C181" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -6760,10 +6771,10 @@
         <v>13421</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C182" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -6771,10 +6782,10 @@
         <v>13430</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C183" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -6782,10 +6793,10 @@
         <v>14090</v>
       </c>
       <c r="B184" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C184" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -6793,10 +6804,10 @@
         <v>14110</v>
       </c>
       <c r="B185" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C185" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="186" ht="15" spans="1:7">
@@ -6804,13 +6815,13 @@
         <v>15010</v>
       </c>
       <c r="B186" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C186" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D186" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G186" s="1"/>
     </row>
@@ -6819,13 +6830,13 @@
         <v>16010</v>
       </c>
       <c r="B187" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C187" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D187" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G187" s="1"/>
     </row>
@@ -6834,10 +6845,10 @@
         <v>16020</v>
       </c>
       <c r="B188" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C188" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G188" s="1"/>
     </row>
@@ -6846,10 +6857,10 @@
         <v>16100</v>
       </c>
       <c r="B189" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C189" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -6857,10 +6868,10 @@
         <v>16110</v>
       </c>
       <c r="B190" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C190" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -6868,10 +6879,10 @@
         <v>16200</v>
       </c>
       <c r="B191" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C191" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -6879,10 +6890,10 @@
         <v>16210</v>
       </c>
       <c r="B192" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C192" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -6890,10 +6901,10 @@
         <v>16220</v>
       </c>
       <c r="B193" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C193" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -6901,10 +6912,10 @@
         <v>16230</v>
       </c>
       <c r="B194" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C194" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -6912,10 +6923,10 @@
         <v>16300</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C195" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -6923,10 +6934,10 @@
         <v>16310</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C196" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -6934,10 +6945,10 @@
         <v>16320</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C197" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -6945,10 +6956,10 @@
         <v>16400</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C198" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -6956,10 +6967,10 @@
         <v>16410</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C199" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -6967,13 +6978,13 @@
         <v>16800</v>
       </c>
       <c r="B200" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C200" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D200" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -6981,13 +6992,13 @@
         <v>16801</v>
       </c>
       <c r="B201" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C201" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D201" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -6995,13 +7006,13 @@
         <v>16802</v>
       </c>
       <c r="B202" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C202" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D202" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -7009,13 +7020,13 @@
         <v>16803</v>
       </c>
       <c r="B203" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C203" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D203" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -7023,13 +7034,13 @@
         <v>16804</v>
       </c>
       <c r="B204" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C204" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D204" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -7037,13 +7048,13 @@
         <v>16805</v>
       </c>
       <c r="B205" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C205" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D205" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -7051,13 +7062,13 @@
         <v>16806</v>
       </c>
       <c r="B206" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C206" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D206" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -7065,10 +7076,10 @@
         <v>17010</v>
       </c>
       <c r="B207" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C207" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -7076,13 +7087,13 @@
         <v>18010</v>
       </c>
       <c r="B208" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C208" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D208" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -7090,10 +7101,10 @@
         <v>18020</v>
       </c>
       <c r="B209" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C209" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -7101,10 +7112,10 @@
         <v>18100</v>
       </c>
       <c r="B210" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C210" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -7112,10 +7123,10 @@
         <v>18110</v>
       </c>
       <c r="B211" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C211" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -7123,10 +7134,10 @@
         <v>18120</v>
       </c>
       <c r="B212" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C212" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -7134,10 +7145,10 @@
         <v>18130</v>
       </c>
       <c r="B213" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C213" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -7145,10 +7156,10 @@
         <v>18200</v>
       </c>
       <c r="B214" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C214" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -7156,10 +7167,10 @@
         <v>18210</v>
       </c>
       <c r="B215" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C215" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -7167,10 +7178,10 @@
         <v>18220</v>
       </c>
       <c r="B216" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C216" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -7178,10 +7189,10 @@
         <v>18300</v>
       </c>
       <c r="B217" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C217" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -7189,10 +7200,10 @@
         <v>18310</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C218" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -7200,10 +7211,10 @@
         <v>18320</v>
       </c>
       <c r="B219" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C219" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -7211,10 +7222,10 @@
         <v>18340</v>
       </c>
       <c r="B220" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C220" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -7222,10 +7233,10 @@
         <v>18400</v>
       </c>
       <c r="B221" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C221" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -7233,10 +7244,10 @@
         <v>18410</v>
       </c>
       <c r="B222" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C222" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -7244,10 +7255,10 @@
         <v>18420</v>
       </c>
       <c r="B223" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C223" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -7255,10 +7266,10 @@
         <v>18430</v>
       </c>
       <c r="B224" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C224" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -7266,10 +7277,10 @@
         <v>18440</v>
       </c>
       <c r="B225" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C225" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -7277,10 +7288,10 @@
         <v>18450</v>
       </c>
       <c r="B226" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C226" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -7288,10 +7299,10 @@
         <v>18500</v>
       </c>
       <c r="B227" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C227" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -7299,10 +7310,10 @@
         <v>18510</v>
       </c>
       <c r="B228" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C228" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -7310,10 +7321,10 @@
         <v>18800</v>
       </c>
       <c r="B229" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C229" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -7321,10 +7332,10 @@
         <v>18801</v>
       </c>
       <c r="B230" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C230" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -7332,10 +7343,10 @@
         <v>18802</v>
       </c>
       <c r="B231" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C231" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -7343,10 +7354,10 @@
         <v>18803</v>
       </c>
       <c r="B232" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C232" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -7354,10 +7365,10 @@
         <v>18804</v>
       </c>
       <c r="B233" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C233" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -7365,10 +7376,10 @@
         <v>18805</v>
       </c>
       <c r="B234" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C234" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -7376,10 +7387,10 @@
         <v>18806</v>
       </c>
       <c r="B235" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C235" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -7387,10 +7398,10 @@
         <v>18811</v>
       </c>
       <c r="B236" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C236" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -7398,10 +7409,10 @@
         <v>18812</v>
       </c>
       <c r="B237" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C237" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="238" ht="15" spans="1:7">
@@ -7409,13 +7420,13 @@
         <v>19010</v>
       </c>
       <c r="B238" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C238" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D238" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G238" s="1"/>
     </row>
@@ -7424,10 +7435,10 @@
         <v>19011</v>
       </c>
       <c r="B239" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C239" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G239" s="1"/>
     </row>
@@ -7436,10 +7447,10 @@
         <v>19020</v>
       </c>
       <c r="B240" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C240" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -7447,10 +7458,10 @@
         <v>19030</v>
       </c>
       <c r="B241" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C241" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -7458,10 +7469,10 @@
         <v>19040</v>
       </c>
       <c r="B242" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C242" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -7469,10 +7480,10 @@
         <v>19050</v>
       </c>
       <c r="B243" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C243" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -7480,10 +7491,10 @@
         <v>19060</v>
       </c>
       <c r="B244" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C244" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -7491,10 +7502,10 @@
         <v>19100</v>
       </c>
       <c r="B245" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C245" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -7502,10 +7513,10 @@
         <v>19110</v>
       </c>
       <c r="B246" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C246" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -7513,10 +7524,10 @@
         <v>19200</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C247" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -7524,10 +7535,10 @@
         <v>19210</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C248" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -7535,10 +7546,10 @@
         <v>19220</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C249" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -7546,10 +7557,10 @@
         <v>19230</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C250" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -7557,10 +7568,10 @@
         <v>19240</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C251" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -7568,10 +7579,10 @@
         <v>19250</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C252" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -7579,10 +7590,10 @@
         <v>19260</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C253" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -7590,10 +7601,10 @@
         <v>19270</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C254" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -7601,10 +7612,10 @@
         <v>19280</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C255" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -7612,10 +7623,10 @@
         <v>19300</v>
       </c>
       <c r="B256" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C256" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="257" ht="26" spans="1:3">
@@ -7623,10 +7634,10 @@
         <v>19310</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C257" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -7634,10 +7645,10 @@
         <v>19320</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C258" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -7645,10 +7656,10 @@
         <v>19330</v>
       </c>
       <c r="B259" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C259" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -7656,10 +7667,10 @@
         <v>19340</v>
       </c>
       <c r="B260" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C260" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -7667,10 +7678,10 @@
         <v>19350</v>
       </c>
       <c r="B261" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C261" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -7678,10 +7689,10 @@
         <v>19360</v>
       </c>
       <c r="B262" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C262" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -7689,10 +7700,10 @@
         <v>19400</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C263" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -7700,10 +7711,10 @@
         <v>19401</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C264" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -7711,10 +7722,10 @@
         <v>19410</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C265" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -7722,10 +7733,10 @@
         <v>19420</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C266" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -7733,10 +7744,10 @@
         <v>19500</v>
       </c>
       <c r="B267" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C267" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -7744,10 +7755,10 @@
         <v>19510</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C268" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -7755,10 +7766,10 @@
         <v>19520</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C269" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -7766,10 +7777,10 @@
         <v>19600</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C270" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -7777,10 +7788,10 @@
         <v>19601</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C271" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -7788,10 +7799,10 @@
         <v>19602</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C272" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -7799,10 +7810,10 @@
         <v>19603</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C273" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -7810,10 +7821,10 @@
         <v>19604</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C274" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="275" ht="15" spans="1:7">
@@ -7821,13 +7832,13 @@
         <v>19611</v>
       </c>
       <c r="B275" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C275" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D275" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G275" s="1"/>
     </row>
@@ -7836,10 +7847,10 @@
         <v>19612</v>
       </c>
       <c r="B276" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C276" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G276" s="1"/>
     </row>
@@ -7848,10 +7859,10 @@
         <v>19613</v>
       </c>
       <c r="B277" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C277" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G277" s="1"/>
     </row>
@@ -7860,10 +7871,10 @@
         <v>19614</v>
       </c>
       <c r="B278" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C278" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G278" s="1"/>
     </row>
@@ -7872,10 +7883,10 @@
         <v>19615</v>
       </c>
       <c r="B279" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C279" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G279" s="1"/>
     </row>
@@ -7884,10 +7895,10 @@
         <v>19616</v>
       </c>
       <c r="B280" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C280" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G280" s="1"/>
     </row>
@@ -7896,10 +7907,10 @@
         <v>19617</v>
       </c>
       <c r="B281" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C281" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G281" s="1"/>
     </row>
@@ -7908,10 +7919,10 @@
         <v>19618</v>
       </c>
       <c r="B282" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C282" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G282" s="1"/>
     </row>
@@ -7920,10 +7931,10 @@
         <v>19619</v>
       </c>
       <c r="B283" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C283" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G283" s="1"/>
     </row>
@@ -7932,13 +7943,13 @@
         <v>19631</v>
       </c>
       <c r="B284" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C284" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D284" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -7946,10 +7957,10 @@
         <v>19632</v>
       </c>
       <c r="B285" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C285" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -7957,10 +7968,10 @@
         <v>19633</v>
       </c>
       <c r="B286" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C286" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -7968,10 +7979,10 @@
         <v>19634</v>
       </c>
       <c r="B287" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C287" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -7979,10 +7990,10 @@
         <v>19700</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C288" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -7990,10 +8001,10 @@
         <v>19710</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C289" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -8001,10 +8012,10 @@
         <v>19720</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C290" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -8012,10 +8023,10 @@
         <v>19730</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C291" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -8023,10 +8034,10 @@
         <v>19800</v>
       </c>
       <c r="B292" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C292" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -8034,10 +8045,10 @@
         <v>19810</v>
       </c>
       <c r="B293" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C293" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -8045,13 +8056,13 @@
         <v>20010</v>
       </c>
       <c r="B294" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C294" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D294" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -8059,10 +8070,10 @@
         <v>20020</v>
       </c>
       <c r="B295" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C295" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -8070,10 +8081,10 @@
         <v>20030</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C296" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -8081,10 +8092,10 @@
         <v>20040</v>
       </c>
       <c r="B297" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C297" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -8092,10 +8103,10 @@
         <v>20050</v>
       </c>
       <c r="B298" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C298" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -8103,10 +8114,10 @@
         <v>20100</v>
       </c>
       <c r="B299" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C299" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -8114,10 +8125,10 @@
         <v>20110</v>
       </c>
       <c r="B300" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C300" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -8125,10 +8136,10 @@
         <v>20120</v>
       </c>
       <c r="B301" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C301" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -8136,10 +8147,10 @@
         <v>20200</v>
       </c>
       <c r="B302" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C302" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -8147,10 +8158,10 @@
         <v>20201</v>
       </c>
       <c r="B303" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C303" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -8158,10 +8169,10 @@
         <v>20210</v>
       </c>
       <c r="B304" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C304" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -8169,10 +8180,10 @@
         <v>20220</v>
       </c>
       <c r="B305" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C305" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -8180,10 +8191,10 @@
         <v>20230</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C306" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -8191,10 +8202,10 @@
         <v>20240</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C307" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -8202,10 +8213,10 @@
         <v>20250</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C308" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -8213,10 +8224,10 @@
         <v>20260</v>
       </c>
       <c r="B309" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C309" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -8224,10 +8235,10 @@
         <v>20270</v>
       </c>
       <c r="B310" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C310" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -8235,10 +8246,10 @@
         <v>20280</v>
       </c>
       <c r="B311" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C311" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -8246,10 +8257,10 @@
         <v>20290</v>
       </c>
       <c r="B312" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C312" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -8257,10 +8268,10 @@
         <v>20300</v>
       </c>
       <c r="B313" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C313" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -8268,10 +8279,10 @@
         <v>20310</v>
       </c>
       <c r="B314" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C314" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -8279,10 +8290,10 @@
         <v>20320</v>
       </c>
       <c r="B315" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C315" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -8290,10 +8301,10 @@
         <v>20330</v>
       </c>
       <c r="B316" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C316" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -8301,10 +8312,10 @@
         <v>20340</v>
       </c>
       <c r="B317" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C317" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -8312,10 +8323,10 @@
         <v>20350</v>
       </c>
       <c r="B318" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C318" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -8323,10 +8334,10 @@
         <v>23010</v>
       </c>
       <c r="B319" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C319" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -8334,10 +8345,10 @@
         <v>23020</v>
       </c>
       <c r="B320" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C320" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -8345,10 +8356,10 @@
         <v>23030</v>
       </c>
       <c r="B321" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C321" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -8356,10 +8367,10 @@
         <v>23031</v>
       </c>
       <c r="B322" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C322" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -8367,10 +8378,10 @@
         <v>23032</v>
       </c>
       <c r="B323" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C323" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -8378,10 +8389,10 @@
         <v>23040</v>
       </c>
       <c r="B324" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C324" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -8389,10 +8400,10 @@
         <v>24010</v>
       </c>
       <c r="B325" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C325" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -8400,10 +8411,10 @@
         <v>24020</v>
       </c>
       <c r="B326" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C326" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -8411,10 +8422,10 @@
         <v>24030</v>
       </c>
       <c r="B327" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C327" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -8422,10 +8433,10 @@
         <v>24040</v>
       </c>
       <c r="B328" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C328" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -8433,10 +8444,10 @@
         <v>24110</v>
       </c>
       <c r="B329" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C329" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -8444,10 +8455,10 @@
         <v>24111</v>
       </c>
       <c r="B330" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C330" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -8455,10 +8466,10 @@
         <v>24112</v>
       </c>
       <c r="B331" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C331" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -8466,10 +8477,10 @@
         <v>24113</v>
       </c>
       <c r="B332" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C332" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -8477,10 +8488,10 @@
         <v>24114</v>
       </c>
       <c r="B333" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C333" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -8488,10 +8499,10 @@
         <v>24115</v>
       </c>
       <c r="B334" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C334" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -8499,10 +8510,10 @@
         <v>24116</v>
       </c>
       <c r="B335" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C335" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -8510,10 +8521,10 @@
         <v>24117</v>
       </c>
       <c r="B336" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C336" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -8521,10 +8532,10 @@
         <v>24118</v>
       </c>
       <c r="B337" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C337" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -8532,10 +8543,10 @@
         <v>24119</v>
       </c>
       <c r="B338" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C338" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -8543,10 +8554,10 @@
         <v>24120</v>
       </c>
       <c r="B339" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C339" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -8554,10 +8565,10 @@
         <v>24121</v>
       </c>
       <c r="B340" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C340" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -8565,10 +8576,10 @@
         <v>24122</v>
       </c>
       <c r="B341" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C341" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -8576,10 +8587,10 @@
         <v>30000</v>
       </c>
       <c r="B342" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C342" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -8587,10 +8598,10 @@
         <v>30010</v>
       </c>
       <c r="B343" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C343" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -8598,10 +8609,10 @@
         <v>30020</v>
       </c>
       <c r="B344" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C344" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -8609,10 +8620,10 @@
         <v>30030</v>
       </c>
       <c r="B345" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C345" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -8620,10 +8631,10 @@
         <v>30040</v>
       </c>
       <c r="B346" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C346" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -8631,13 +8642,13 @@
         <v>102000</v>
       </c>
       <c r="B347" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C347" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D347" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -8645,10 +8656,10 @@
         <v>102010</v>
       </c>
       <c r="B348" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C348" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -8656,10 +8667,10 @@
         <v>102020</v>
       </c>
       <c r="B349" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C349" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -8667,10 +8678,10 @@
         <v>102030</v>
       </c>
       <c r="B350" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C350" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -8678,13 +8689,13 @@
         <v>113000</v>
       </c>
       <c r="B351" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C351" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D351" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -8692,10 +8703,10 @@
         <v>113010</v>
       </c>
       <c r="B352" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C352" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -8703,10 +8714,10 @@
         <v>113020</v>
       </c>
       <c r="B353" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C353" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -8714,10 +8725,10 @@
         <v>113030</v>
       </c>
       <c r="B354" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C354" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -8725,10 +8736,10 @@
         <v>113040</v>
       </c>
       <c r="B355" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C355" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8736,13 +8747,13 @@
         <v>121010</v>
       </c>
       <c r="B356" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C356" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D356" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -8750,10 +8761,10 @@
         <v>121011</v>
       </c>
       <c r="B357" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C357" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -8761,10 +8772,10 @@
         <v>121012</v>
       </c>
       <c r="B358" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C358" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -8772,10 +8783,10 @@
         <v>121013</v>
       </c>
       <c r="B359" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C359" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -8783,10 +8794,10 @@
         <v>121014</v>
       </c>
       <c r="B360" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C360" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -8794,10 +8805,10 @@
         <v>121015</v>
       </c>
       <c r="B361" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C361" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -8805,10 +8816,10 @@
         <v>121016</v>
       </c>
       <c r="B362" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C362" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -8816,10 +8827,10 @@
         <v>121017</v>
       </c>
       <c r="B363" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C363" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -8827,10 +8838,10 @@
         <v>121018</v>
       </c>
       <c r="B364" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C364" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -8838,10 +8849,10 @@
         <v>121019</v>
       </c>
       <c r="B365" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C365" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -8849,10 +8860,10 @@
         <v>121020</v>
       </c>
       <c r="B366" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C366" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -8860,10 +8871,10 @@
         <v>121030</v>
       </c>
       <c r="B367" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C367" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/System.xlsx
+++ b/Assets/Data/System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="711" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="711" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TacticsComand" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="463">
   <si>
     <t>Id</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>PARADIGM</t>
+  </si>
+  <si>
+    <t>SAVE</t>
   </si>
   <si>
     <t>NEWGAME</t>
@@ -1041,6 +1044,12 @@
     <t>ステージの構成を確認します</t>
   </si>
   <si>
+    <t>セーブ</t>
+  </si>
+  <si>
+    <t>ゲームの進行状態を保存します</t>
+  </si>
+  <si>
     <t>バトル評価値</t>
   </si>
   <si>
@@ -1177,9 +1186,6 @@
     <t>ヘルプ</t>
   </si>
   <si>
-    <t>セーブ</t>
-  </si>
-  <si>
     <t>タイトルへ</t>
   </si>
   <si>
@@ -1340,6 +1346,12 @@
   </si>
   <si>
     <t>このバトルにリプレイ保存データはありません</t>
+  </si>
+  <si>
+    <t>プレイ時間</t>
+  </si>
+  <si>
+    <t>新規データ</t>
   </si>
   <si>
     <t>すべて</t>
@@ -1410,9 +1422,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -1431,6 +1443,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -1438,7 +1473,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1453,14 +1503,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1474,79 +1547,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1573,6 +1578,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1583,7 +1595,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1601,31 +1745,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1637,103 +1763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1745,25 +1775,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,8 +1792,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1789,8 +1801,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1806,15 +1818,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1845,6 +1848,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1882,145 +1894,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2385,13 +2397,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="11.3636363636364" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -2413,6 +2428,17 @@
       </c>
       <c r="C2">
         <v>19010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>19070</v>
       </c>
     </row>
   </sheetData>
@@ -2427,7 +2453,7 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2452,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>13210</v>
@@ -2463,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>13220</v>
@@ -2474,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>13230</v>
@@ -2516,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>18100</v>
@@ -2527,7 +2553,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>18110</v>
@@ -2538,7 +2564,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>18120</v>
@@ -2549,7 +2575,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>18130</v>
@@ -2587,22 +2613,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2610,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>6101</v>
@@ -2639,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>6102</v>
@@ -2668,7 +2694,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>6103</v>
@@ -2697,7 +2723,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>6104</v>
@@ -2726,7 +2752,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>6105</v>
@@ -2755,7 +2781,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>6106</v>
@@ -2784,7 +2810,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>6107</v>
@@ -2813,7 +2839,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>6108</v>
@@ -2842,7 +2868,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>6109</v>
@@ -2871,7 +2897,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>6110</v>
@@ -2900,7 +2926,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>6111</v>
@@ -2949,15 +2975,15 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -2966,12 +2992,12 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -2980,12 +3006,12 @@
         <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -2994,12 +3020,12 @@
         <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3008,12 +3034,12 @@
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3022,12 +3048,12 @@
         <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3036,12 +3062,12 @@
         <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3050,12 +3076,12 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -3064,12 +3090,12 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -3078,12 +3104,12 @@
         <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3092,12 +3118,12 @@
         <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3106,12 +3132,12 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -3120,12 +3146,12 @@
         <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -3134,12 +3160,12 @@
         <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -3148,12 +3174,12 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -3162,12 +3188,12 @@
         <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3176,12 +3202,12 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -3190,12 +3216,12 @@
         <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -3204,12 +3230,12 @@
         <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -3218,12 +3244,12 @@
         <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -3232,12 +3258,12 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -3246,12 +3272,12 @@
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -3260,12 +3286,12 @@
         <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -3274,12 +3300,12 @@
         <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -3288,12 +3314,12 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -3302,12 +3328,12 @@
         <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3316,12 +3342,12 @@
         <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3330,12 +3356,12 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -3344,12 +3370,12 @@
         <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -3358,12 +3384,12 @@
         <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -3372,12 +3398,12 @@
         <v>190</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -3386,12 +3412,12 @@
         <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -3400,12 +3426,12 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -3414,12 +3440,12 @@
         <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -3428,12 +3454,12 @@
         <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3442,12 +3468,12 @@
         <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3456,12 +3482,12 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38">
         <v>12</v>
@@ -3470,12 +3496,12 @@
         <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -3484,12 +3510,12 @@
         <v>200</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40">
         <v>9</v>
@@ -3498,12 +3524,12 @@
         <v>230</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>8</v>
@@ -3512,12 +3538,12 @@
         <v>240</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42">
         <v>11</v>
@@ -3526,12 +3552,12 @@
         <v>210</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>7</v>
@@ -3540,12 +3566,12 @@
         <v>170</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -3554,12 +3580,12 @@
         <v>160</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -3568,12 +3594,12 @@
         <v>200</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46">
         <v>9</v>
@@ -3582,12 +3608,12 @@
         <v>230</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47">
         <v>11</v>
@@ -3596,12 +3622,12 @@
         <v>240</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -3610,12 +3636,12 @@
         <v>210</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -3624,12 +3650,12 @@
         <v>170</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -3638,12 +3664,12 @@
         <v>160</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -3652,12 +3678,12 @@
         <v>802</v>
       </c>
       <c r="D51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -3666,12 +3692,12 @@
         <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -3680,12 +3706,12 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54">
         <v>7</v>
@@ -3694,12 +3720,12 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -3708,12 +3734,12 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3722,12 +3748,12 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -3736,12 +3762,12 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -3750,12 +3776,12 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -3764,12 +3790,12 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3778,12 +3804,12 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3792,12 +3818,12 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -3806,12 +3832,12 @@
         <v>802</v>
       </c>
       <c r="D62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63">
         <v>4</v>
@@ -3822,7 +3848,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -3831,12 +3857,12 @@
         <v>250</v>
       </c>
       <c r="D64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -3845,12 +3871,12 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -3861,7 +3887,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -3872,7 +3898,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3883,7 +3909,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3894,7 +3920,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B70">
         <v>12</v>
@@ -3903,12 +3929,12 @@
         <v>260</v>
       </c>
       <c r="D70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -3917,12 +3943,12 @@
         <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B72">
         <v>9</v>
@@ -3931,12 +3957,12 @@
         <v>150</v>
       </c>
       <c r="D72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -3945,12 +3971,12 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -3959,12 +3985,12 @@
         <v>140</v>
       </c>
       <c r="D74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -3973,12 +3999,12 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B76">
         <v>11</v>
@@ -3987,12 +4013,12 @@
         <v>180</v>
       </c>
       <c r="D76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B77">
         <v>7</v>
@@ -4001,12 +4027,12 @@
         <v>170</v>
       </c>
       <c r="D77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -4015,12 +4041,12 @@
         <v>160</v>
       </c>
       <c r="D78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -4029,12 +4055,12 @@
         <v>111</v>
       </c>
       <c r="D79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4043,12 +4069,12 @@
         <v>140</v>
       </c>
       <c r="D80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -4057,12 +4083,12 @@
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -4071,12 +4097,12 @@
         <v>170</v>
       </c>
       <c r="D82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B83">
         <v>12</v>
@@ -4085,12 +4111,12 @@
         <v>100</v>
       </c>
       <c r="D83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B84">
         <v>9</v>
@@ -4099,12 +4125,12 @@
         <v>150</v>
       </c>
       <c r="D84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B85">
         <v>8</v>
@@ -4113,12 +4139,12 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -4127,12 +4153,12 @@
         <v>140</v>
       </c>
       <c r="D86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -4141,12 +4167,12 @@
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B88">
         <v>11</v>
@@ -4155,12 +4181,12 @@
         <v>180</v>
       </c>
       <c r="D88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4169,12 +4195,12 @@
         <v>804</v>
       </c>
       <c r="D89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B90">
         <v>9</v>
@@ -4183,12 +4209,12 @@
         <v>813</v>
       </c>
       <c r="D90" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B91">
         <v>8</v>
@@ -4197,12 +4223,12 @@
         <v>800</v>
       </c>
       <c r="D91" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -4211,12 +4237,12 @@
         <v>801</v>
       </c>
       <c r="D92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4225,12 +4251,12 @@
         <v>800</v>
       </c>
       <c r="D93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4239,12 +4265,12 @@
         <v>804</v>
       </c>
       <c r="D94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B95">
         <v>9</v>
@@ -4253,12 +4279,12 @@
         <v>814</v>
       </c>
       <c r="D95" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B96">
         <v>8</v>
@@ -4267,12 +4293,12 @@
         <v>800</v>
       </c>
       <c r="D96" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -4281,12 +4307,12 @@
         <v>801</v>
       </c>
       <c r="D97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4295,12 +4321,12 @@
         <v>800</v>
       </c>
       <c r="D98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4309,12 +4335,12 @@
         <v>804</v>
       </c>
       <c r="D99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -4323,12 +4349,12 @@
         <v>801</v>
       </c>
       <c r="D100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4337,12 +4363,12 @@
         <v>800</v>
       </c>
       <c r="D101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -4351,12 +4377,12 @@
         <v>818</v>
       </c>
       <c r="D102" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B103">
         <v>4</v>
@@ -4365,12 +4391,12 @@
         <v>800</v>
       </c>
       <c r="D103" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B104">
         <v>6</v>
@@ -4379,12 +4405,12 @@
         <v>825</v>
       </c>
       <c r="D104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B105">
         <v>9</v>
@@ -4393,12 +4419,12 @@
         <v>817</v>
       </c>
       <c r="D105" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B106">
         <v>8</v>
@@ -4407,12 +4433,12 @@
         <v>816</v>
       </c>
       <c r="D106" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B107">
         <v>8</v>
@@ -4421,12 +4447,12 @@
         <v>817</v>
       </c>
       <c r="D107" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B108">
         <v>4</v>
@@ -4435,12 +4461,12 @@
         <v>802</v>
       </c>
       <c r="D108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -4449,12 +4475,12 @@
         <v>801</v>
       </c>
       <c r="D109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -4463,12 +4489,12 @@
         <v>800</v>
       </c>
       <c r="D110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B111">
         <v>5</v>
@@ -4477,12 +4503,12 @@
         <v>804</v>
       </c>
       <c r="D111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -4491,12 +4517,12 @@
         <v>801</v>
       </c>
       <c r="D112" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -4505,12 +4531,12 @@
         <v>800</v>
       </c>
       <c r="D113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -4519,12 +4545,12 @@
         <v>804</v>
       </c>
       <c r="D114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -4533,12 +4559,12 @@
         <v>802</v>
       </c>
       <c r="D115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -4547,12 +4573,12 @@
         <v>801</v>
       </c>
       <c r="D116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4561,7 +4587,7 @@
         <v>800</v>
       </c>
       <c r="D117" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4589,34 +4615,34 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4624,7 +4650,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4632,7 +4658,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4640,7 +4666,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -4648,40 +4674,40 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10">
         <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4696,10 +4722,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G367"/>
+  <dimension ref="A1:G370"/>
   <sheetViews>
-    <sheetView topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="A303" sqref="A303"/>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="B350" sqref="B350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -4713,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4724,10 +4750,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:7">
@@ -4735,10 +4761,10 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -4747,10 +4773,10 @@
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4758,10 +4784,10 @@
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4769,10 +4795,10 @@
         <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4780,10 +4806,10 @@
         <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4791,10 +4817,10 @@
         <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4802,10 +4828,10 @@
         <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4813,10 +4839,10 @@
         <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4824,10 +4850,10 @@
         <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4835,10 +4861,10 @@
         <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4846,10 +4872,10 @@
         <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4857,10 +4883,10 @@
         <v>160</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4868,10 +4894,10 @@
         <v>170</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4879,10 +4905,10 @@
         <v>180</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4890,10 +4916,10 @@
         <v>190</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4901,10 +4927,10 @@
         <v>200</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4912,10 +4938,10 @@
         <v>210</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4923,10 +4949,10 @@
         <v>220</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4934,10 +4960,10 @@
         <v>230</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4945,10 +4971,10 @@
         <v>240</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4956,10 +4982,10 @@
         <v>250</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4967,10 +4993,10 @@
         <v>260</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4978,10 +5004,10 @@
         <v>270</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4989,10 +5015,10 @@
         <v>312</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5000,10 +5026,10 @@
         <v>313</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5011,10 +5037,10 @@
         <v>314</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5022,10 +5048,10 @@
         <v>315</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5033,10 +5059,10 @@
         <v>341</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5044,10 +5070,10 @@
         <v>342</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5055,13 +5081,13 @@
         <v>371</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5069,13 +5095,13 @@
         <v>380</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5083,13 +5109,13 @@
         <v>381</v>
       </c>
       <c r="B34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
         <v>127</v>
-      </c>
-      <c r="C34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5097,13 +5123,13 @@
         <v>390</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5111,13 +5137,13 @@
         <v>391</v>
       </c>
       <c r="B36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
         <v>130</v>
-      </c>
-      <c r="C36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5125,13 +5151,13 @@
         <v>400</v>
       </c>
       <c r="B37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5139,10 +5165,10 @@
         <v>401</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5150,10 +5176,10 @@
         <v>402</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5161,10 +5187,10 @@
         <v>403</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5172,10 +5198,10 @@
         <v>404</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5183,10 +5209,10 @@
         <v>405</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5194,10 +5220,10 @@
         <v>420</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5205,10 +5231,10 @@
         <v>421</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5216,10 +5242,10 @@
         <v>422</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5227,10 +5253,10 @@
         <v>600</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5238,10 +5264,10 @@
         <v>601</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5249,10 +5275,10 @@
         <v>602</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -5260,10 +5286,10 @@
         <v>603</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -5271,10 +5297,10 @@
         <v>606</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -5282,10 +5308,10 @@
         <v>611</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -5293,10 +5319,10 @@
         <v>620</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5304,10 +5330,10 @@
         <v>621</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -5315,10 +5341,10 @@
         <v>622</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5326,10 +5352,10 @@
         <v>623</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -5337,10 +5363,10 @@
         <v>624</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -5348,10 +5374,10 @@
         <v>625</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5359,10 +5385,10 @@
         <v>651</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -5370,10 +5396,10 @@
         <v>652</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5381,10 +5407,10 @@
         <v>702</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5392,10 +5418,10 @@
         <v>706</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5403,10 +5429,10 @@
         <v>800</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5414,10 +5440,10 @@
         <v>801</v>
       </c>
       <c r="B63" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -5425,10 +5451,10 @@
         <v>802</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5436,10 +5462,10 @@
         <v>803</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5447,10 +5473,10 @@
         <v>804</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5458,10 +5484,10 @@
         <v>805</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5469,10 +5495,10 @@
         <v>806</v>
       </c>
       <c r="B68" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5480,10 +5506,10 @@
         <v>807</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5491,10 +5517,10 @@
         <v>808</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5502,10 +5528,10 @@
         <v>810</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -5513,10 +5539,10 @@
         <v>811</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5524,10 +5550,10 @@
         <v>812</v>
       </c>
       <c r="B73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5535,10 +5561,10 @@
         <v>813</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -5546,10 +5572,10 @@
         <v>814</v>
       </c>
       <c r="B75" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C75" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5557,10 +5583,10 @@
         <v>815</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5568,10 +5594,10 @@
         <v>816</v>
       </c>
       <c r="B77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -5579,10 +5605,10 @@
         <v>817</v>
       </c>
       <c r="B78" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C78" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -5590,10 +5616,10 @@
         <v>818</v>
       </c>
       <c r="B79" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -5601,10 +5627,10 @@
         <v>819</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C80" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -5612,10 +5638,10 @@
         <v>820</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -5623,10 +5649,10 @@
         <v>821</v>
       </c>
       <c r="B82" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C82" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -5634,10 +5660,10 @@
         <v>822</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -5645,10 +5671,10 @@
         <v>823</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C84" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -5656,10 +5682,10 @@
         <v>824</v>
       </c>
       <c r="B85" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -5667,10 +5693,10 @@
         <v>825</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -5678,10 +5704,10 @@
         <v>826</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C87" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -5689,10 +5715,10 @@
         <v>827</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C88" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -5700,10 +5726,10 @@
         <v>1000</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C89" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -5711,10 +5737,10 @@
         <v>1001</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C90" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -5722,10 +5748,10 @@
         <v>1010</v>
       </c>
       <c r="B91" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C91" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -5733,10 +5759,10 @@
         <v>1020</v>
       </c>
       <c r="B92" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C92" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" customFormat="1" spans="1:3">
@@ -5744,10 +5770,10 @@
         <v>1060</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C93" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" customFormat="1" spans="1:3">
@@ -5755,10 +5781,10 @@
         <v>1110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C94" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" customFormat="1" spans="1:3">
@@ -5766,10 +5792,10 @@
         <v>1120</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C95" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -5777,13 +5803,13 @@
         <v>2000</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C96" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D96" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -5791,10 +5817,10 @@
         <v>2001</v>
       </c>
       <c r="B97" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C97" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -5802,10 +5828,10 @@
         <v>2002</v>
       </c>
       <c r="B98" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C98" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -5813,10 +5839,10 @@
         <v>2003</v>
       </c>
       <c r="B99" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C99" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -5824,10 +5850,10 @@
         <v>2004</v>
       </c>
       <c r="B100" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C100" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -5835,10 +5861,10 @@
         <v>2005</v>
       </c>
       <c r="B101" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C101" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -5846,10 +5872,10 @@
         <v>2006</v>
       </c>
       <c r="B102" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C102" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -5857,10 +5883,10 @@
         <v>2007</v>
       </c>
       <c r="B103" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C103" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -5868,13 +5894,13 @@
         <v>2010</v>
       </c>
       <c r="B104" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C104" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D104" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -5882,13 +5908,13 @@
         <v>2011</v>
       </c>
       <c r="B105" t="s">
+        <v>194</v>
+      </c>
+      <c r="C105" t="s">
+        <v>99</v>
+      </c>
+      <c r="D105" t="s">
         <v>193</v>
-      </c>
-      <c r="C105" t="s">
-        <v>98</v>
-      </c>
-      <c r="D105" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -5896,13 +5922,13 @@
         <v>2012</v>
       </c>
       <c r="B106" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C106" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D106" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -5910,13 +5936,13 @@
         <v>2013</v>
       </c>
       <c r="B107" t="s">
+        <v>194</v>
+      </c>
+      <c r="C107" t="s">
+        <v>99</v>
+      </c>
+      <c r="D107" t="s">
         <v>193</v>
-      </c>
-      <c r="C107" t="s">
-        <v>98</v>
-      </c>
-      <c r="D107" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="108" customFormat="1" spans="1:4">
@@ -5924,13 +5950,13 @@
         <v>2100</v>
       </c>
       <c r="B108" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C108" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D108" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -5938,10 +5964,10 @@
         <v>2101</v>
       </c>
       <c r="B109" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C109" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -5949,10 +5975,10 @@
         <v>2102</v>
       </c>
       <c r="B110" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C110" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -5960,10 +5986,10 @@
         <v>2103</v>
       </c>
       <c r="B111" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C111" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -5971,10 +5997,10 @@
         <v>2104</v>
       </c>
       <c r="B112" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C112" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -5982,13 +6008,13 @@
         <v>2200</v>
       </c>
       <c r="B113" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C113" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D113" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -5996,13 +6022,13 @@
         <v>2210</v>
       </c>
       <c r="B114" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C114" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D114" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115" ht="29" customHeight="1" spans="1:4">
@@ -6010,13 +6036,13 @@
         <v>2220</v>
       </c>
       <c r="B115" t="s">
+        <v>203</v>
+      </c>
+      <c r="C115" t="s">
+        <v>99</v>
+      </c>
+      <c r="D115" t="s">
         <v>202</v>
-      </c>
-      <c r="C115" t="s">
-        <v>98</v>
-      </c>
-      <c r="D115" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -6024,13 +6050,13 @@
         <v>2300</v>
       </c>
       <c r="B116" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C116" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D116" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -6038,13 +6064,13 @@
         <v>2310</v>
       </c>
       <c r="B117" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C117" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D117" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -6052,13 +6078,13 @@
         <v>2320</v>
       </c>
       <c r="B118" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C118" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D118" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -6066,13 +6092,13 @@
         <v>2330</v>
       </c>
       <c r="B119" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C119" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D119" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -6080,13 +6106,13 @@
         <v>2340</v>
       </c>
       <c r="B120" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C120" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D120" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -6094,13 +6120,13 @@
         <v>2400</v>
       </c>
       <c r="B121" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C121" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D121" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -6108,10 +6134,10 @@
         <v>3000</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C122" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -6119,10 +6145,10 @@
         <v>3010</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C123" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -6130,10 +6156,10 @@
         <v>3011</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C124" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -6141,10 +6167,10 @@
         <v>3040</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C125" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -6152,10 +6178,10 @@
         <v>3050</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C126" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -6163,10 +6189,10 @@
         <v>3051</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C127" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -6174,10 +6200,10 @@
         <v>3052</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C128" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -6185,10 +6211,10 @@
         <v>3053</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C129" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -6196,10 +6222,10 @@
         <v>3054</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C130" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -6207,10 +6233,10 @@
         <v>3070</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C131" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -6218,10 +6244,10 @@
         <v>3071</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C132" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -6229,10 +6255,10 @@
         <v>3072</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C133" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -6240,10 +6266,10 @@
         <v>3073</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C134" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -6251,10 +6277,10 @@
         <v>3090</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C135" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -6262,10 +6288,10 @@
         <v>3211</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C136" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -6273,10 +6299,10 @@
         <v>3230</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C137" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -6284,10 +6310,10 @@
         <v>5000</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C138" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -6295,10 +6321,10 @@
         <v>5001</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C139" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -6306,10 +6332,10 @@
         <v>5002</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C140" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -6317,10 +6343,10 @@
         <v>6001</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C141" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -6328,10 +6354,10 @@
         <v>6002</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C142" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -6339,10 +6365,10 @@
         <v>6100</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C143" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -6350,10 +6376,10 @@
         <v>6101</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C144" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -6361,10 +6387,10 @@
         <v>6102</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C145" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -6372,10 +6398,10 @@
         <v>6103</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C146" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -6383,10 +6409,10 @@
         <v>6104</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C147" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -6394,10 +6420,10 @@
         <v>6105</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C148" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -6405,10 +6431,10 @@
         <v>6106</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C149" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -6416,10 +6442,10 @@
         <v>6107</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C150" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -6427,10 +6453,10 @@
         <v>6108</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C151" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -6438,10 +6464,10 @@
         <v>6109</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C152" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -6449,10 +6475,10 @@
         <v>6110</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C153" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -6460,10 +6486,10 @@
         <v>6111</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C154" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -6471,10 +6497,10 @@
         <v>6201</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C155" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -6482,10 +6508,10 @@
         <v>6202</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C156" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -6493,10 +6519,10 @@
         <v>6211</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C157" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -6504,10 +6530,10 @@
         <v>6212</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C158" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -6515,10 +6541,10 @@
         <v>6221</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C159" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -6526,10 +6552,10 @@
         <v>6222</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C160" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -6537,10 +6563,10 @@
         <v>6223</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C161" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -6548,10 +6574,10 @@
         <v>6231</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C162" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -6559,10 +6585,10 @@
         <v>6232</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C163" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="164" ht="130" spans="1:4">
@@ -6570,13 +6596,13 @@
         <v>12010</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C164" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D164" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -6584,13 +6610,13 @@
         <v>13010</v>
       </c>
       <c r="B165" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C165" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D165" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -6598,7 +6624,7 @@
         <v>13020</v>
       </c>
       <c r="C166" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -6606,10 +6632,10 @@
         <v>13110</v>
       </c>
       <c r="B167" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C167" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -6617,10 +6643,10 @@
         <v>13120</v>
       </c>
       <c r="B168" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C168" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -6628,10 +6654,10 @@
         <v>13130</v>
       </c>
       <c r="B169" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C169" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -6639,10 +6665,10 @@
         <v>13140</v>
       </c>
       <c r="B170" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C170" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -6650,10 +6676,10 @@
         <v>13210</v>
       </c>
       <c r="B171" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C171" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -6661,10 +6687,10 @@
         <v>13220</v>
       </c>
       <c r="B172" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C172" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -6672,10 +6698,10 @@
         <v>13230</v>
       </c>
       <c r="B173" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C173" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -6683,10 +6709,10 @@
         <v>13300</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C174" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -6694,10 +6720,10 @@
         <v>13301</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C175" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -6705,10 +6731,10 @@
         <v>13310</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C176" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -6716,10 +6742,10 @@
         <v>13320</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C177" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="178" ht="26" spans="1:3">
@@ -6727,10 +6753,10 @@
         <v>13330</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C178" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -6738,10 +6764,10 @@
         <v>13400</v>
       </c>
       <c r="B179" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C179" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -6749,10 +6775,10 @@
         <v>13410</v>
       </c>
       <c r="B180" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C180" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -6760,10 +6786,10 @@
         <v>13420</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C181" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -6771,10 +6797,10 @@
         <v>13421</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C182" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -6782,10 +6808,10 @@
         <v>13430</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C183" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -6793,10 +6819,10 @@
         <v>14090</v>
       </c>
       <c r="B184" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C184" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -6804,10 +6830,10 @@
         <v>14110</v>
       </c>
       <c r="B185" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C185" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="186" ht="15" spans="1:7">
@@ -6815,13 +6841,13 @@
         <v>15010</v>
       </c>
       <c r="B186" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C186" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D186" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G186" s="1"/>
     </row>
@@ -6830,13 +6856,13 @@
         <v>16010</v>
       </c>
       <c r="B187" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C187" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D187" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G187" s="1"/>
     </row>
@@ -6845,10 +6871,10 @@
         <v>16020</v>
       </c>
       <c r="B188" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C188" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G188" s="1"/>
     </row>
@@ -6857,10 +6883,10 @@
         <v>16100</v>
       </c>
       <c r="B189" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C189" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -6868,10 +6894,10 @@
         <v>16110</v>
       </c>
       <c r="B190" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C190" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -6879,10 +6905,10 @@
         <v>16200</v>
       </c>
       <c r="B191" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C191" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -6890,10 +6916,10 @@
         <v>16210</v>
       </c>
       <c r="B192" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C192" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -6901,10 +6927,10 @@
         <v>16220</v>
       </c>
       <c r="B193" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C193" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -6912,10 +6938,10 @@
         <v>16230</v>
       </c>
       <c r="B194" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C194" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -6923,10 +6949,10 @@
         <v>16300</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C195" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -6934,10 +6960,10 @@
         <v>16310</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C196" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -6945,10 +6971,10 @@
         <v>16320</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C197" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -6956,10 +6982,10 @@
         <v>16400</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C198" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -6967,10 +6993,10 @@
         <v>16410</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C199" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -6978,13 +7004,13 @@
         <v>16800</v>
       </c>
       <c r="B200" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C200" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D200" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -6992,13 +7018,13 @@
         <v>16801</v>
       </c>
       <c r="B201" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C201" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D201" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -7006,13 +7032,13 @@
         <v>16802</v>
       </c>
       <c r="B202" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C202" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D202" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -7020,13 +7046,13 @@
         <v>16803</v>
       </c>
       <c r="B203" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C203" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D203" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -7034,13 +7060,13 @@
         <v>16804</v>
       </c>
       <c r="B204" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C204" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D204" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -7048,13 +7074,13 @@
         <v>16805</v>
       </c>
       <c r="B205" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C205" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D205" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -7062,13 +7088,13 @@
         <v>16806</v>
       </c>
       <c r="B206" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C206" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D206" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -7076,10 +7102,10 @@
         <v>17010</v>
       </c>
       <c r="B207" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C207" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -7087,13 +7113,13 @@
         <v>18010</v>
       </c>
       <c r="B208" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C208" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D208" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -7101,10 +7127,10 @@
         <v>18020</v>
       </c>
       <c r="B209" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C209" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -7112,10 +7138,10 @@
         <v>18100</v>
       </c>
       <c r="B210" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C210" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -7123,10 +7149,10 @@
         <v>18110</v>
       </c>
       <c r="B211" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C211" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -7134,10 +7160,10 @@
         <v>18120</v>
       </c>
       <c r="B212" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C212" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -7145,10 +7171,10 @@
         <v>18130</v>
       </c>
       <c r="B213" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C213" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -7156,10 +7182,10 @@
         <v>18200</v>
       </c>
       <c r="B214" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C214" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -7167,10 +7193,10 @@
         <v>18210</v>
       </c>
       <c r="B215" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C215" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -7178,10 +7204,10 @@
         <v>18220</v>
       </c>
       <c r="B216" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C216" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -7189,10 +7215,10 @@
         <v>18300</v>
       </c>
       <c r="B217" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C217" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -7200,10 +7226,10 @@
         <v>18310</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C218" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -7211,10 +7237,10 @@
         <v>18320</v>
       </c>
       <c r="B219" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C219" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -7222,10 +7248,10 @@
         <v>18340</v>
       </c>
       <c r="B220" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C220" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -7233,10 +7259,10 @@
         <v>18400</v>
       </c>
       <c r="B221" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C221" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -7244,10 +7270,10 @@
         <v>18410</v>
       </c>
       <c r="B222" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C222" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -7255,10 +7281,10 @@
         <v>18420</v>
       </c>
       <c r="B223" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C223" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -7266,10 +7292,10 @@
         <v>18430</v>
       </c>
       <c r="B224" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C224" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -7277,10 +7303,10 @@
         <v>18440</v>
       </c>
       <c r="B225" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C225" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -7288,10 +7314,10 @@
         <v>18450</v>
       </c>
       <c r="B226" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C226" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -7299,10 +7325,10 @@
         <v>18500</v>
       </c>
       <c r="B227" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C227" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -7310,10 +7336,10 @@
         <v>18510</v>
       </c>
       <c r="B228" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C228" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -7321,10 +7347,10 @@
         <v>18800</v>
       </c>
       <c r="B229" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C229" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -7332,10 +7358,10 @@
         <v>18801</v>
       </c>
       <c r="B230" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C230" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -7343,10 +7369,10 @@
         <v>18802</v>
       </c>
       <c r="B231" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C231" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -7354,10 +7380,10 @@
         <v>18803</v>
       </c>
       <c r="B232" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C232" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -7365,10 +7391,10 @@
         <v>18804</v>
       </c>
       <c r="B233" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C233" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -7376,10 +7402,10 @@
         <v>18805</v>
       </c>
       <c r="B234" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C234" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -7387,10 +7413,10 @@
         <v>18806</v>
       </c>
       <c r="B235" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C235" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -7398,10 +7424,10 @@
         <v>18811</v>
       </c>
       <c r="B236" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C236" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -7409,10 +7435,10 @@
         <v>18812</v>
       </c>
       <c r="B237" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C237" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="238" ht="15" spans="1:7">
@@ -7420,13 +7446,13 @@
         <v>19010</v>
       </c>
       <c r="B238" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C238" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D238" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G238" s="1"/>
     </row>
@@ -7435,10 +7461,10 @@
         <v>19011</v>
       </c>
       <c r="B239" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C239" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G239" s="1"/>
     </row>
@@ -7447,10 +7473,10 @@
         <v>19020</v>
       </c>
       <c r="B240" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C240" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -7458,10 +7484,10 @@
         <v>19030</v>
       </c>
       <c r="B241" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C241" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -7469,10 +7495,10 @@
         <v>19040</v>
       </c>
       <c r="B242" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C242" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -7480,10 +7506,10 @@
         <v>19050</v>
       </c>
       <c r="B243" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C243" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -7491,1390 +7517,1423 @@
         <v>19060</v>
       </c>
       <c r="B244" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C244" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
-        <v>19100</v>
+        <v>19070</v>
       </c>
       <c r="B245" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C245" t="s">
-        <v>98</v>
+        <v>340</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246">
-        <v>19110</v>
+        <v>19100</v>
       </c>
       <c r="B246" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C246" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247">
-        <v>19200</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>340</v>
+        <v>19110</v>
+      </c>
+      <c r="B247" t="s">
+        <v>342</v>
       </c>
       <c r="C247" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248">
-        <v>19210</v>
+        <v>19200</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C248" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249">
-        <v>19220</v>
+        <v>19210</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C249" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250">
-        <v>19230</v>
+        <v>19220</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C250" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251">
-        <v>19240</v>
+        <v>19230</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C251" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252">
-        <v>19250</v>
+        <v>19240</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C252" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
-        <v>19260</v>
+        <v>19250</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C253" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254">
-        <v>19270</v>
+        <v>19260</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C254" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>19280</v>
+        <v>19270</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C255" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
+        <v>19280</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C256" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257">
         <v>19300</v>
       </c>
-      <c r="B256" t="s">
-        <v>349</v>
-      </c>
-      <c r="C256" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="257" ht="26" spans="1:3">
-      <c r="A257">
+      <c r="B257" t="s">
+        <v>352</v>
+      </c>
+      <c r="C257" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="258" ht="26" spans="1:3">
+      <c r="A258">
         <v>19310</v>
       </c>
-      <c r="B257" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C257" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258">
-        <v>19320</v>
-      </c>
       <c r="B258" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C258" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>19330</v>
-      </c>
-      <c r="B259" t="s">
-        <v>352</v>
+        <v>19320</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="C259" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>19340</v>
+        <v>19330</v>
       </c>
       <c r="B260" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C260" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>19350</v>
+        <v>19340</v>
       </c>
       <c r="B261" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C261" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262">
-        <v>19360</v>
+        <v>19350</v>
       </c>
       <c r="B262" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C262" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>19400</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>356</v>
+        <v>19360</v>
+      </c>
+      <c r="B263" t="s">
+        <v>358</v>
       </c>
       <c r="C263" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>19401</v>
+        <v>19400</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C264" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
-        <v>19410</v>
+        <v>19401</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C265" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>19420</v>
+        <v>19410</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C266" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>19500</v>
-      </c>
-      <c r="B267" t="s">
-        <v>360</v>
+        <v>19420</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="C267" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>19510</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>346</v>
+        <v>19500</v>
+      </c>
+      <c r="B268" t="s">
+        <v>363</v>
       </c>
       <c r="C268" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>19520</v>
+        <v>19510</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C269" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>19600</v>
+        <v>19520</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C270" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271">
-        <v>19601</v>
+        <v>19600</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C271" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272">
-        <v>19602</v>
+        <v>19601</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C272" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>19603</v>
+        <v>19602</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C273" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274">
+        <v>19603</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C274" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275">
         <v>19604</v>
       </c>
-      <c r="B274" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C274" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="275" ht="15" spans="1:7">
-      <c r="A275">
-        <v>19611</v>
-      </c>
-      <c r="B275" t="s">
-        <v>367</v>
+      <c r="B275" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="C275" t="s">
-        <v>98</v>
-      </c>
-      <c r="D275" t="s">
-        <v>368</v>
-      </c>
-      <c r="G275" s="1"/>
+        <v>99</v>
+      </c>
     </row>
     <row r="276" ht="15" spans="1:7">
       <c r="A276">
-        <v>19612</v>
+        <v>19611</v>
       </c>
       <c r="B276" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C276" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="D276" t="s">
+        <v>371</v>
       </c>
       <c r="G276" s="1"/>
     </row>
     <row r="277" ht="15" spans="1:7">
       <c r="A277">
-        <v>19613</v>
+        <v>19612</v>
       </c>
       <c r="B277" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C277" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G277" s="1"/>
     </row>
     <row r="278" ht="15" spans="1:7">
       <c r="A278">
-        <v>19614</v>
+        <v>19613</v>
       </c>
       <c r="B278" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C278" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G278" s="1"/>
     </row>
     <row r="279" ht="15" spans="1:7">
       <c r="A279">
-        <v>19615</v>
+        <v>19614</v>
       </c>
       <c r="B279" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C279" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G279" s="1"/>
     </row>
     <row r="280" ht="15" spans="1:7">
       <c r="A280">
-        <v>19616</v>
+        <v>19615</v>
       </c>
       <c r="B280" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C280" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G280" s="1"/>
     </row>
     <row r="281" ht="15" spans="1:7">
       <c r="A281">
-        <v>19617</v>
+        <v>19616</v>
       </c>
       <c r="B281" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C281" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G281" s="1"/>
     </row>
     <row r="282" ht="15" spans="1:7">
       <c r="A282">
-        <v>19618</v>
+        <v>19617</v>
       </c>
       <c r="B282" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C282" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G282" s="1"/>
     </row>
     <row r="283" ht="15" spans="1:7">
       <c r="A283">
+        <v>19618</v>
+      </c>
+      <c r="B283" t="s">
+        <v>378</v>
+      </c>
+      <c r="C283" t="s">
+        <v>99</v>
+      </c>
+      <c r="G283" s="1"/>
+    </row>
+    <row r="284" ht="15" spans="1:7">
+      <c r="A284">
         <v>19619</v>
       </c>
-      <c r="B283" t="s">
-        <v>376</v>
-      </c>
-      <c r="C283" t="s">
-        <v>98</v>
-      </c>
-      <c r="G283" s="1"/>
-    </row>
-    <row r="284" spans="1:4">
-      <c r="A284">
+      <c r="B284" t="s">
+        <v>379</v>
+      </c>
+      <c r="C284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G284" s="1"/>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285">
         <v>19631</v>
       </c>
-      <c r="B284" t="s">
-        <v>377</v>
-      </c>
-      <c r="C284" t="s">
-        <v>98</v>
-      </c>
-      <c r="D284" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
-      <c r="A285">
-        <v>19632</v>
-      </c>
       <c r="B285" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C285" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="D285" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286">
-        <v>19633</v>
+        <v>19632</v>
       </c>
       <c r="B286" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C286" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287">
-        <v>19634</v>
+        <v>19633</v>
       </c>
       <c r="B287" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C287" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288">
-        <v>19700</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>382</v>
+        <v>19634</v>
+      </c>
+      <c r="B288" t="s">
+        <v>384</v>
       </c>
       <c r="C288" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289">
-        <v>19710</v>
+        <v>19700</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C289" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290">
-        <v>19720</v>
+        <v>19710</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="C290" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291">
-        <v>19730</v>
+        <v>19720</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C291" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292">
-        <v>19800</v>
-      </c>
-      <c r="B292" t="s">
-        <v>386</v>
+        <v>19730</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="C292" t="s">
-        <v>387</v>
+        <v>99</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293">
-        <v>19810</v>
+        <v>19800</v>
       </c>
       <c r="B293" t="s">
         <v>388</v>
       </c>
       <c r="C293" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
       <c r="A294">
+        <v>19810</v>
+      </c>
+      <c r="B294" t="s">
+        <v>390</v>
+      </c>
+      <c r="C294" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295">
         <v>20010</v>
-      </c>
-      <c r="B294" t="s">
-        <v>389</v>
-      </c>
-      <c r="C294" t="s">
-        <v>98</v>
-      </c>
-      <c r="D294" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
-      <c r="A295">
-        <v>20020</v>
       </c>
       <c r="B295" t="s">
         <v>391</v>
       </c>
       <c r="C295" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="D295" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
-        <v>20030</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>392</v>
+        <v>20020</v>
+      </c>
+      <c r="B296" t="s">
+        <v>393</v>
       </c>
       <c r="C296" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
-        <v>20040</v>
-      </c>
-      <c r="B297" t="s">
-        <v>393</v>
+        <v>20030</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="C297" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298">
-        <v>20050</v>
+        <v>20040</v>
       </c>
       <c r="B298" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C298" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299">
-        <v>20100</v>
+        <v>20050</v>
       </c>
       <c r="B299" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C299" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300">
-        <v>20110</v>
+        <v>20100</v>
       </c>
       <c r="B300" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C300" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301">
-        <v>20120</v>
+        <v>20110</v>
       </c>
       <c r="B301" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C301" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302">
-        <v>20200</v>
+        <v>20120</v>
       </c>
       <c r="B302" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C302" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>20201</v>
+        <v>20200</v>
       </c>
       <c r="B303" t="s">
-        <v>314</v>
+        <v>400</v>
       </c>
       <c r="C303" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304">
-        <v>20210</v>
+        <v>20201</v>
       </c>
       <c r="B304" t="s">
-        <v>399</v>
+        <v>315</v>
       </c>
       <c r="C304" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305">
-        <v>20220</v>
+        <v>20210</v>
       </c>
       <c r="B305" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C305" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306">
-        <v>20230</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>401</v>
+        <v>20220</v>
+      </c>
+      <c r="B306" t="s">
+        <v>402</v>
       </c>
       <c r="C306" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307">
-        <v>20240</v>
+        <v>20230</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C307" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308">
-        <v>20250</v>
+        <v>20240</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C308" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309">
-        <v>20260</v>
-      </c>
-      <c r="B309" t="s">
-        <v>404</v>
+        <v>20250</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>405</v>
       </c>
       <c r="C309" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310">
-        <v>20270</v>
+        <v>20260</v>
       </c>
       <c r="B310" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C310" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311">
-        <v>20280</v>
+        <v>20270</v>
       </c>
       <c r="B311" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C311" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312">
-        <v>20290</v>
+        <v>20280</v>
       </c>
       <c r="B312" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C312" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313">
-        <v>20300</v>
+        <v>20290</v>
       </c>
       <c r="B313" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C313" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314">
-        <v>20310</v>
+        <v>20300</v>
       </c>
       <c r="B314" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C314" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315">
-        <v>20320</v>
+        <v>20310</v>
       </c>
       <c r="B315" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C315" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316">
-        <v>20330</v>
+        <v>20320</v>
       </c>
       <c r="B316" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C316" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317">
-        <v>20340</v>
+        <v>20330</v>
       </c>
       <c r="B317" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C317" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318">
-        <v>20350</v>
+        <v>20340</v>
       </c>
       <c r="B318" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C318" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319">
-        <v>23010</v>
+        <v>20350</v>
       </c>
       <c r="B319" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C319" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320">
-        <v>23020</v>
+        <v>23010</v>
       </c>
       <c r="B320" t="s">
-        <v>102</v>
+        <v>416</v>
       </c>
       <c r="C320" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321">
-        <v>23030</v>
+        <v>23020</v>
       </c>
       <c r="B321" t="s">
-        <v>415</v>
+        <v>103</v>
       </c>
       <c r="C321" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322">
-        <v>23031</v>
+        <v>23030</v>
       </c>
       <c r="B322" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C322" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323">
-        <v>23032</v>
+        <v>23031</v>
       </c>
       <c r="B323" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C323" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324">
-        <v>23040</v>
+        <v>23032</v>
       </c>
       <c r="B324" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C324" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325">
-        <v>24010</v>
+        <v>23040</v>
       </c>
       <c r="B325" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C325" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326">
-        <v>24020</v>
+        <v>24010</v>
       </c>
       <c r="B326" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C326" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327">
-        <v>24030</v>
+        <v>24020</v>
       </c>
       <c r="B327" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C327" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328">
-        <v>24040</v>
+        <v>24030</v>
       </c>
       <c r="B328" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C328" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329">
-        <v>24110</v>
+        <v>24040</v>
       </c>
       <c r="B329" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C329" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330">
-        <v>24111</v>
+        <v>24110</v>
       </c>
       <c r="B330" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C330" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331">
-        <v>24112</v>
+        <v>24111</v>
       </c>
       <c r="B331" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C331" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332">
-        <v>24113</v>
+        <v>24112</v>
       </c>
       <c r="B332" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C332" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333">
-        <v>24114</v>
+        <v>24113</v>
       </c>
       <c r="B333" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C333" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334">
-        <v>24115</v>
+        <v>24114</v>
       </c>
       <c r="B334" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C334" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335">
-        <v>24116</v>
+        <v>24115</v>
       </c>
       <c r="B335" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C335" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336">
-        <v>24117</v>
+        <v>24116</v>
       </c>
       <c r="B336" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C336" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337">
-        <v>24118</v>
+        <v>24117</v>
       </c>
       <c r="B337" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C337" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338">
-        <v>24119</v>
+        <v>24118</v>
       </c>
       <c r="B338" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C338" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339">
-        <v>24120</v>
+        <v>24119</v>
       </c>
       <c r="B339" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C339" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340">
-        <v>24121</v>
+        <v>24120</v>
       </c>
       <c r="B340" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C340" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341">
-        <v>24122</v>
+        <v>24121</v>
       </c>
       <c r="B341" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C341" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342">
-        <v>30000</v>
+        <v>24122</v>
       </c>
       <c r="B342" t="s">
-        <v>329</v>
+        <v>437</v>
       </c>
       <c r="C342" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343">
-        <v>30010</v>
+        <v>30000</v>
       </c>
       <c r="B343" t="s">
-        <v>436</v>
+        <v>330</v>
       </c>
       <c r="C343" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344">
-        <v>30020</v>
+        <v>30010</v>
       </c>
       <c r="B344" t="s">
-        <v>100</v>
+        <v>438</v>
       </c>
       <c r="C344" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345">
-        <v>30030</v>
+        <v>30020</v>
       </c>
       <c r="B345" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C345" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346">
+        <v>30030</v>
+      </c>
+      <c r="B346" t="s">
+        <v>124</v>
+      </c>
+      <c r="C346" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347">
         <v>30040</v>
       </c>
-      <c r="B346" t="s">
-        <v>437</v>
-      </c>
-      <c r="C346" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4">
-      <c r="A347">
-        <v>102000</v>
-      </c>
       <c r="B347" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C347" t="s">
-        <v>98</v>
-      </c>
-      <c r="D347" t="s">
-        <v>439</v>
+        <v>99</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348">
-        <v>102010</v>
+        <v>31010</v>
       </c>
       <c r="B348" t="s">
-        <v>336</v>
+        <v>440</v>
       </c>
       <c r="C348" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349">
-        <v>102020</v>
+        <v>31020</v>
       </c>
       <c r="B349" t="s">
-        <v>367</v>
+        <v>441</v>
       </c>
       <c r="C349" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
       <c r="A350">
-        <v>102030</v>
+        <v>102000</v>
       </c>
       <c r="B350" t="s">
-        <v>332</v>
+        <v>442</v>
       </c>
       <c r="C350" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4">
+        <v>99</v>
+      </c>
+      <c r="D350" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
       <c r="A351">
-        <v>113000</v>
+        <v>102010</v>
       </c>
       <c r="B351" t="s">
-        <v>440</v>
+        <v>337</v>
       </c>
       <c r="C351" t="s">
-        <v>98</v>
-      </c>
-      <c r="D351" t="s">
-        <v>441</v>
+        <v>99</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352">
-        <v>113010</v>
+        <v>102020</v>
       </c>
       <c r="B352" t="s">
-        <v>442</v>
+        <v>370</v>
       </c>
       <c r="C352" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353">
-        <v>113020</v>
+        <v>102030</v>
       </c>
       <c r="B353" t="s">
-        <v>443</v>
+        <v>333</v>
       </c>
       <c r="C353" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
       <c r="A354">
-        <v>113030</v>
+        <v>113000</v>
       </c>
       <c r="B354" t="s">
         <v>444</v>
       </c>
       <c r="C354" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="D354" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355">
-        <v>113040</v>
+        <v>113010</v>
       </c>
       <c r="B355" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C355" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
       <c r="A356">
-        <v>121010</v>
+        <v>113020</v>
       </c>
       <c r="B356" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C356" t="s">
-        <v>98</v>
-      </c>
-      <c r="D356" t="s">
-        <v>447</v>
+        <v>99</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357">
-        <v>121011</v>
+        <v>113030</v>
       </c>
       <c r="B357" t="s">
         <v>448</v>
       </c>
       <c r="C357" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358">
-        <v>121012</v>
+        <v>113040</v>
       </c>
       <c r="B358" t="s">
         <v>449</v>
       </c>
       <c r="C358" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
       <c r="A359">
-        <v>121013</v>
+        <v>121010</v>
       </c>
       <c r="B359" t="s">
         <v>450</v>
       </c>
       <c r="C359" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="D359" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360">
-        <v>121014</v>
+        <v>121011</v>
       </c>
       <c r="B360" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C360" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361">
-        <v>121015</v>
+        <v>121012</v>
       </c>
       <c r="B361" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C361" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362">
-        <v>121016</v>
+        <v>121013</v>
       </c>
       <c r="B362" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C362" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363">
-        <v>121017</v>
+        <v>121014</v>
       </c>
       <c r="B363" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C363" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364">
-        <v>121018</v>
+        <v>121015</v>
       </c>
       <c r="B364" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C364" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365">
-        <v>121019</v>
+        <v>121016</v>
       </c>
       <c r="B365" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C365" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366">
-        <v>121020</v>
+        <v>121017</v>
       </c>
       <c r="B366" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C366" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367">
+        <v>121018</v>
+      </c>
+      <c r="B367" t="s">
+        <v>459</v>
+      </c>
+      <c r="C367" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368">
+        <v>121019</v>
+      </c>
+      <c r="B368" t="s">
+        <v>460</v>
+      </c>
+      <c r="C368" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369">
+        <v>121020</v>
+      </c>
+      <c r="B369" t="s">
+        <v>461</v>
+      </c>
+      <c r="C369" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370">
         <v>121030</v>
       </c>
-      <c r="B367" t="s">
-        <v>458</v>
-      </c>
-      <c r="C367" t="s">
-        <v>98</v>
+      <c r="B370" t="s">
+        <v>462</v>
+      </c>
+      <c r="C370" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/System.xlsx
+++ b/Assets/Data/System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="711" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="711"/>
   </bookViews>
   <sheets>
     <sheet name="TacticsComand" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="464">
   <si>
     <t>Id</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>PARADIGM</t>
+  </si>
+  <si>
+    <t>EDIT</t>
   </si>
   <si>
     <t>SAVE</t>
@@ -1422,9 +1425,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -1449,24 +1452,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1479,16 +1466,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1509,6 +1505,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1517,7 +1521,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1540,7 +1544,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1549,23 +1561,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1585,6 +1581,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1595,7 +1598,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,7 +1616,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,31 +1634,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1661,25 +1658,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1691,25 +1682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1733,19 +1706,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1757,13 +1730,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,7 +1760,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1786,24 +1789,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1818,6 +1803,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1855,18 +1860,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1894,19 +1897,19 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1915,25 +1918,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1942,97 +1945,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2397,13 +2400,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="11.3636363636364" customWidth="1"/>
   </cols>
@@ -2438,6 +2441,17 @@
         <v>4</v>
       </c>
       <c r="C3">
+        <v>19011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
         <v>19070</v>
       </c>
     </row>
@@ -2478,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>13210</v>
@@ -2489,7 +2503,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>13220</v>
@@ -2500,7 +2514,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>13230</v>
@@ -2542,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>18100</v>
@@ -2553,7 +2567,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>18110</v>
@@ -2564,7 +2578,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>18120</v>
@@ -2575,7 +2589,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>18130</v>
@@ -2613,22 +2627,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2636,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>6101</v>
@@ -2665,7 +2679,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>6102</v>
@@ -2694,7 +2708,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>6103</v>
@@ -2723,7 +2737,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>6104</v>
@@ -2752,7 +2766,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>6105</v>
@@ -2781,7 +2795,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>6106</v>
@@ -2810,7 +2824,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>6107</v>
@@ -2839,7 +2853,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>6108</v>
@@ -2868,7 +2882,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>6109</v>
@@ -2897,7 +2911,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>6110</v>
@@ -2926,7 +2940,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>6111</v>
@@ -2975,15 +2989,15 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -2992,12 +3006,12 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -3006,12 +3020,12 @@
         <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -3020,12 +3034,12 @@
         <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3034,12 +3048,12 @@
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3048,12 +3062,12 @@
         <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3062,12 +3076,12 @@
         <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3076,12 +3090,12 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -3090,12 +3104,12 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -3104,12 +3118,12 @@
         <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3118,12 +3132,12 @@
         <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3132,12 +3146,12 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -3146,12 +3160,12 @@
         <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -3160,12 +3174,12 @@
         <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -3174,12 +3188,12 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -3188,12 +3202,12 @@
         <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3202,12 +3216,12 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -3216,12 +3230,12 @@
         <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -3230,12 +3244,12 @@
         <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -3244,12 +3258,12 @@
         <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -3258,12 +3272,12 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -3272,12 +3286,12 @@
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -3286,12 +3300,12 @@
         <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -3300,12 +3314,12 @@
         <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -3314,12 +3328,12 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -3328,12 +3342,12 @@
         <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3342,12 +3356,12 @@
         <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3356,12 +3370,12 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -3370,12 +3384,12 @@
         <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -3384,12 +3398,12 @@
         <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -3398,12 +3412,12 @@
         <v>190</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -3412,12 +3426,12 @@
         <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -3426,12 +3440,12 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -3440,12 +3454,12 @@
         <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -3454,12 +3468,12 @@
         <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3468,12 +3482,12 @@
         <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3482,12 +3496,12 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38">
         <v>12</v>
@@ -3496,12 +3510,12 @@
         <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -3510,12 +3524,12 @@
         <v>200</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B40">
         <v>9</v>
@@ -3524,12 +3538,12 @@
         <v>230</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B41">
         <v>8</v>
@@ -3538,12 +3552,12 @@
         <v>240</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42">
         <v>11</v>
@@ -3552,12 +3566,12 @@
         <v>210</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B43">
         <v>7</v>
@@ -3566,12 +3580,12 @@
         <v>170</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -3580,12 +3594,12 @@
         <v>160</v>
       </c>
       <c r="D44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -3594,12 +3608,12 @@
         <v>200</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B46">
         <v>9</v>
@@ -3608,12 +3622,12 @@
         <v>230</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47">
         <v>11</v>
@@ -3622,12 +3636,12 @@
         <v>240</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -3636,12 +3650,12 @@
         <v>210</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -3650,12 +3664,12 @@
         <v>170</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -3664,12 +3678,12 @@
         <v>160</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -3678,12 +3692,12 @@
         <v>802</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -3692,12 +3706,12 @@
         <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -3706,12 +3720,12 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54">
         <v>7</v>
@@ -3720,12 +3734,12 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -3734,12 +3748,12 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3748,12 +3762,12 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -3762,12 +3776,12 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -3776,12 +3790,12 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -3790,12 +3804,12 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3804,12 +3818,12 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3818,12 +3832,12 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -3832,12 +3846,12 @@
         <v>802</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
         <v>4</v>
@@ -3848,7 +3862,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -3857,12 +3871,12 @@
         <v>250</v>
       </c>
       <c r="D64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -3871,12 +3885,12 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -3887,7 +3901,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -3898,7 +3912,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3909,7 +3923,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3920,7 +3934,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B70">
         <v>12</v>
@@ -3929,12 +3943,12 @@
         <v>260</v>
       </c>
       <c r="D70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -3943,12 +3957,12 @@
         <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B72">
         <v>9</v>
@@ -3957,12 +3971,12 @@
         <v>150</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -3971,12 +3985,12 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -3985,12 +3999,12 @@
         <v>140</v>
       </c>
       <c r="D74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -3999,12 +4013,12 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B76">
         <v>11</v>
@@ -4013,12 +4027,12 @@
         <v>180</v>
       </c>
       <c r="D76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B77">
         <v>7</v>
@@ -4027,12 +4041,12 @@
         <v>170</v>
       </c>
       <c r="D77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -4041,12 +4055,12 @@
         <v>160</v>
       </c>
       <c r="D78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -4055,12 +4069,12 @@
         <v>111</v>
       </c>
       <c r="D79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4069,12 +4083,12 @@
         <v>140</v>
       </c>
       <c r="D80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -4083,12 +4097,12 @@
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -4097,12 +4111,12 @@
         <v>170</v>
       </c>
       <c r="D82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B83">
         <v>12</v>
@@ -4111,12 +4125,12 @@
         <v>100</v>
       </c>
       <c r="D83" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B84">
         <v>9</v>
@@ -4125,12 +4139,12 @@
         <v>150</v>
       </c>
       <c r="D84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B85">
         <v>8</v>
@@ -4139,12 +4153,12 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -4153,12 +4167,12 @@
         <v>140</v>
       </c>
       <c r="D86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -4167,12 +4181,12 @@
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B88">
         <v>11</v>
@@ -4181,12 +4195,12 @@
         <v>180</v>
       </c>
       <c r="D88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4195,12 +4209,12 @@
         <v>804</v>
       </c>
       <c r="D89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B90">
         <v>9</v>
@@ -4209,12 +4223,12 @@
         <v>813</v>
       </c>
       <c r="D90" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B91">
         <v>8</v>
@@ -4223,12 +4237,12 @@
         <v>800</v>
       </c>
       <c r="D91" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -4237,12 +4251,12 @@
         <v>801</v>
       </c>
       <c r="D92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4251,12 +4265,12 @@
         <v>800</v>
       </c>
       <c r="D93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4265,12 +4279,12 @@
         <v>804</v>
       </c>
       <c r="D94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B95">
         <v>9</v>
@@ -4279,12 +4293,12 @@
         <v>814</v>
       </c>
       <c r="D95" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B96">
         <v>8</v>
@@ -4293,12 +4307,12 @@
         <v>800</v>
       </c>
       <c r="D96" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -4307,12 +4321,12 @@
         <v>801</v>
       </c>
       <c r="D97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4321,12 +4335,12 @@
         <v>800</v>
       </c>
       <c r="D98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4335,12 +4349,12 @@
         <v>804</v>
       </c>
       <c r="D99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -4349,12 +4363,12 @@
         <v>801</v>
       </c>
       <c r="D100" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4363,12 +4377,12 @@
         <v>800</v>
       </c>
       <c r="D101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -4377,12 +4391,12 @@
         <v>818</v>
       </c>
       <c r="D102" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B103">
         <v>4</v>
@@ -4391,12 +4405,12 @@
         <v>800</v>
       </c>
       <c r="D103" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B104">
         <v>6</v>
@@ -4405,12 +4419,12 @@
         <v>825</v>
       </c>
       <c r="D104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B105">
         <v>9</v>
@@ -4419,12 +4433,12 @@
         <v>817</v>
       </c>
       <c r="D105" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B106">
         <v>8</v>
@@ -4433,12 +4447,12 @@
         <v>816</v>
       </c>
       <c r="D106" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B107">
         <v>8</v>
@@ -4447,12 +4461,12 @@
         <v>817</v>
       </c>
       <c r="D107" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B108">
         <v>4</v>
@@ -4461,12 +4475,12 @@
         <v>802</v>
       </c>
       <c r="D108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -4475,12 +4489,12 @@
         <v>801</v>
       </c>
       <c r="D109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -4489,12 +4503,12 @@
         <v>800</v>
       </c>
       <c r="D110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B111">
         <v>5</v>
@@ -4503,12 +4517,12 @@
         <v>804</v>
       </c>
       <c r="D111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -4517,12 +4531,12 @@
         <v>801</v>
       </c>
       <c r="D112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -4531,12 +4545,12 @@
         <v>800</v>
       </c>
       <c r="D113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -4545,12 +4559,12 @@
         <v>804</v>
       </c>
       <c r="D114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -4559,12 +4573,12 @@
         <v>802</v>
       </c>
       <c r="D115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -4573,12 +4587,12 @@
         <v>801</v>
       </c>
       <c r="D116" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4587,7 +4601,7 @@
         <v>800</v>
       </c>
       <c r="D117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4615,34 +4629,34 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4650,7 +4664,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4658,7 +4672,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4666,7 +4680,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -4674,40 +4688,40 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10">
         <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4724,8 +4738,8 @@
   <sheetPr/>
   <dimension ref="A1:G370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="B350" sqref="B350"/>
+    <sheetView topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="A239" sqref="A239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -4739,10 +4753,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4750,10 +4764,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:7">
@@ -4761,10 +4775,10 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -4773,10 +4787,10 @@
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4784,10 +4798,10 @@
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4795,10 +4809,10 @@
         <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4806,10 +4820,10 @@
         <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4817,10 +4831,10 @@
         <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4828,10 +4842,10 @@
         <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4839,10 +4853,10 @@
         <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4850,10 +4864,10 @@
         <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4861,10 +4875,10 @@
         <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4872,10 +4886,10 @@
         <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4883,10 +4897,10 @@
         <v>160</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4894,10 +4908,10 @@
         <v>170</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4905,10 +4919,10 @@
         <v>180</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4916,10 +4930,10 @@
         <v>190</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4927,10 +4941,10 @@
         <v>200</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4938,10 +4952,10 @@
         <v>210</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4949,10 +4963,10 @@
         <v>220</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4960,10 +4974,10 @@
         <v>230</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4971,10 +4985,10 @@
         <v>240</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4982,10 +4996,10 @@
         <v>250</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4993,10 +5007,10 @@
         <v>260</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5004,10 +5018,10 @@
         <v>270</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5015,10 +5029,10 @@
         <v>312</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5026,10 +5040,10 @@
         <v>313</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5037,10 +5051,10 @@
         <v>314</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5048,10 +5062,10 @@
         <v>315</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5059,10 +5073,10 @@
         <v>341</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5070,10 +5084,10 @@
         <v>342</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5081,13 +5095,13 @@
         <v>371</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5095,13 +5109,13 @@
         <v>380</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5109,13 +5123,13 @@
         <v>381</v>
       </c>
       <c r="B34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" t="s">
         <v>128</v>
-      </c>
-      <c r="C34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5123,13 +5137,13 @@
         <v>390</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5137,13 +5151,13 @@
         <v>391</v>
       </c>
       <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
         <v>131</v>
-      </c>
-      <c r="C36" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5151,13 +5165,13 @@
         <v>400</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5165,10 +5179,10 @@
         <v>401</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5176,10 +5190,10 @@
         <v>402</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5187,10 +5201,10 @@
         <v>403</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5198,10 +5212,10 @@
         <v>404</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5209,10 +5223,10 @@
         <v>405</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5220,10 +5234,10 @@
         <v>420</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5231,10 +5245,10 @@
         <v>421</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5242,10 +5256,10 @@
         <v>422</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5253,10 +5267,10 @@
         <v>600</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5264,10 +5278,10 @@
         <v>601</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5275,10 +5289,10 @@
         <v>602</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -5286,10 +5300,10 @@
         <v>603</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -5297,10 +5311,10 @@
         <v>606</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -5308,10 +5322,10 @@
         <v>611</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -5319,10 +5333,10 @@
         <v>620</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5330,10 +5344,10 @@
         <v>621</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -5341,10 +5355,10 @@
         <v>622</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5352,10 +5366,10 @@
         <v>623</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -5363,10 +5377,10 @@
         <v>624</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -5374,10 +5388,10 @@
         <v>625</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C57" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5385,10 +5399,10 @@
         <v>651</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -5396,10 +5410,10 @@
         <v>652</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5407,10 +5421,10 @@
         <v>702</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5418,10 +5432,10 @@
         <v>706</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5429,10 +5443,10 @@
         <v>800</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5440,10 +5454,10 @@
         <v>801</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -5451,10 +5465,10 @@
         <v>802</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5462,10 +5476,10 @@
         <v>803</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5473,10 +5487,10 @@
         <v>804</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5484,10 +5498,10 @@
         <v>805</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5495,10 +5509,10 @@
         <v>806</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C68" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5506,10 +5520,10 @@
         <v>807</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C69" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5517,10 +5531,10 @@
         <v>808</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5528,10 +5542,10 @@
         <v>810</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -5539,10 +5553,10 @@
         <v>811</v>
       </c>
       <c r="B72" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5550,10 +5564,10 @@
         <v>812</v>
       </c>
       <c r="B73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C73" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5561,10 +5575,10 @@
         <v>813</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -5572,10 +5586,10 @@
         <v>814</v>
       </c>
       <c r="B75" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C75" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5583,10 +5597,10 @@
         <v>815</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5594,10 +5608,10 @@
         <v>816</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -5605,10 +5619,10 @@
         <v>817</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -5616,10 +5630,10 @@
         <v>818</v>
       </c>
       <c r="B79" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C79" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -5627,10 +5641,10 @@
         <v>819</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -5638,10 +5652,10 @@
         <v>820</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C81" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -5649,10 +5663,10 @@
         <v>821</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C82" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -5660,10 +5674,10 @@
         <v>822</v>
       </c>
       <c r="B83" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C83" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -5671,10 +5685,10 @@
         <v>823</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C84" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -5682,10 +5696,10 @@
         <v>824</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C85" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -5693,10 +5707,10 @@
         <v>825</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -5704,10 +5718,10 @@
         <v>826</v>
       </c>
       <c r="B87" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -5715,10 +5729,10 @@
         <v>827</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C88" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -5726,10 +5740,10 @@
         <v>1000</v>
       </c>
       <c r="B89" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C89" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -5737,10 +5751,10 @@
         <v>1001</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C90" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -5748,10 +5762,10 @@
         <v>1010</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C91" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -5759,10 +5773,10 @@
         <v>1020</v>
       </c>
       <c r="B92" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" customFormat="1" spans="1:3">
@@ -5770,10 +5784,10 @@
         <v>1060</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C93" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" customFormat="1" spans="1:3">
@@ -5781,10 +5795,10 @@
         <v>1110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C94" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" customFormat="1" spans="1:3">
@@ -5792,10 +5806,10 @@
         <v>1120</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C95" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -5803,13 +5817,13 @@
         <v>2000</v>
       </c>
       <c r="B96" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -5817,10 +5831,10 @@
         <v>2001</v>
       </c>
       <c r="B97" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C97" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -5828,10 +5842,10 @@
         <v>2002</v>
       </c>
       <c r="B98" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C98" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -5839,10 +5853,10 @@
         <v>2003</v>
       </c>
       <c r="B99" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C99" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -5850,10 +5864,10 @@
         <v>2004</v>
       </c>
       <c r="B100" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -5861,10 +5875,10 @@
         <v>2005</v>
       </c>
       <c r="B101" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C101" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -5872,10 +5886,10 @@
         <v>2006</v>
       </c>
       <c r="B102" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C102" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -5883,10 +5897,10 @@
         <v>2007</v>
       </c>
       <c r="B103" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C103" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -5894,13 +5908,13 @@
         <v>2010</v>
       </c>
       <c r="B104" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C104" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D104" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -5908,13 +5922,13 @@
         <v>2011</v>
       </c>
       <c r="B105" t="s">
+        <v>195</v>
+      </c>
+      <c r="C105" t="s">
+        <v>100</v>
+      </c>
+      <c r="D105" t="s">
         <v>194</v>
-      </c>
-      <c r="C105" t="s">
-        <v>99</v>
-      </c>
-      <c r="D105" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -5922,13 +5936,13 @@
         <v>2012</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C106" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D106" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -5936,13 +5950,13 @@
         <v>2013</v>
       </c>
       <c r="B107" t="s">
+        <v>195</v>
+      </c>
+      <c r="C107" t="s">
+        <v>100</v>
+      </c>
+      <c r="D107" t="s">
         <v>194</v>
-      </c>
-      <c r="C107" t="s">
-        <v>99</v>
-      </c>
-      <c r="D107" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="108" customFormat="1" spans="1:4">
@@ -5950,13 +5964,13 @@
         <v>2100</v>
       </c>
       <c r="B108" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C108" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D108" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -5964,10 +5978,10 @@
         <v>2101</v>
       </c>
       <c r="B109" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C109" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -5975,10 +5989,10 @@
         <v>2102</v>
       </c>
       <c r="B110" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C110" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -5986,10 +6000,10 @@
         <v>2103</v>
       </c>
       <c r="B111" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C111" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -5997,10 +6011,10 @@
         <v>2104</v>
       </c>
       <c r="B112" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C112" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -6008,13 +6022,13 @@
         <v>2200</v>
       </c>
       <c r="B113" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C113" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D113" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -6022,13 +6036,13 @@
         <v>2210</v>
       </c>
       <c r="B114" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C114" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D114" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="115" ht="29" customHeight="1" spans="1:4">
@@ -6036,13 +6050,13 @@
         <v>2220</v>
       </c>
       <c r="B115" t="s">
+        <v>204</v>
+      </c>
+      <c r="C115" t="s">
+        <v>100</v>
+      </c>
+      <c r="D115" t="s">
         <v>203</v>
-      </c>
-      <c r="C115" t="s">
-        <v>99</v>
-      </c>
-      <c r="D115" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -6050,13 +6064,13 @@
         <v>2300</v>
       </c>
       <c r="B116" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C116" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D116" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -6064,13 +6078,13 @@
         <v>2310</v>
       </c>
       <c r="B117" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C117" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D117" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -6078,13 +6092,13 @@
         <v>2320</v>
       </c>
       <c r="B118" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C118" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D118" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -6092,13 +6106,13 @@
         <v>2330</v>
       </c>
       <c r="B119" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C119" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D119" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -6106,13 +6120,13 @@
         <v>2340</v>
       </c>
       <c r="B120" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C120" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D120" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -6120,13 +6134,13 @@
         <v>2400</v>
       </c>
       <c r="B121" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C121" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D121" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -6134,10 +6148,10 @@
         <v>3000</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C122" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -6145,10 +6159,10 @@
         <v>3010</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C123" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -6156,10 +6170,10 @@
         <v>3011</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C124" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -6167,10 +6181,10 @@
         <v>3040</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C125" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -6178,10 +6192,10 @@
         <v>3050</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C126" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -6189,10 +6203,10 @@
         <v>3051</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C127" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -6200,10 +6214,10 @@
         <v>3052</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C128" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -6211,10 +6225,10 @@
         <v>3053</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C129" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -6222,10 +6236,10 @@
         <v>3054</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C130" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -6233,10 +6247,10 @@
         <v>3070</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C131" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -6244,10 +6258,10 @@
         <v>3071</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C132" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -6255,10 +6269,10 @@
         <v>3072</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C133" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -6266,10 +6280,10 @@
         <v>3073</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C134" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -6277,10 +6291,10 @@
         <v>3090</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C135" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -6288,10 +6302,10 @@
         <v>3211</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C136" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -6299,10 +6313,10 @@
         <v>3230</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C137" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -6310,10 +6324,10 @@
         <v>5000</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C138" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -6321,10 +6335,10 @@
         <v>5001</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C139" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -6332,10 +6346,10 @@
         <v>5002</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C140" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -6343,10 +6357,10 @@
         <v>6001</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C141" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -6354,10 +6368,10 @@
         <v>6002</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C142" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -6365,10 +6379,10 @@
         <v>6100</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C143" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -6376,10 +6390,10 @@
         <v>6101</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C144" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -6387,10 +6401,10 @@
         <v>6102</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C145" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -6398,10 +6412,10 @@
         <v>6103</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C146" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -6409,10 +6423,10 @@
         <v>6104</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C147" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -6420,10 +6434,10 @@
         <v>6105</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C148" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -6431,10 +6445,10 @@
         <v>6106</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C149" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -6442,10 +6456,10 @@
         <v>6107</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C150" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -6453,10 +6467,10 @@
         <v>6108</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C151" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -6464,10 +6478,10 @@
         <v>6109</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C152" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -6475,10 +6489,10 @@
         <v>6110</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C153" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -6486,10 +6500,10 @@
         <v>6111</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C154" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -6497,10 +6511,10 @@
         <v>6201</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C155" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -6508,10 +6522,10 @@
         <v>6202</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C156" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -6519,10 +6533,10 @@
         <v>6211</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C157" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -6530,10 +6544,10 @@
         <v>6212</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C158" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -6541,10 +6555,10 @@
         <v>6221</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C159" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -6552,10 +6566,10 @@
         <v>6222</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C160" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -6563,10 +6577,10 @@
         <v>6223</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C161" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -6574,10 +6588,10 @@
         <v>6231</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C162" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -6585,10 +6599,10 @@
         <v>6232</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C163" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164" ht="130" spans="1:4">
@@ -6596,13 +6610,13 @@
         <v>12010</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C164" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D164" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -6610,13 +6624,13 @@
         <v>13010</v>
       </c>
       <c r="B165" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C165" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D165" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -6624,7 +6638,7 @@
         <v>13020</v>
       </c>
       <c r="C166" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -6632,10 +6646,10 @@
         <v>13110</v>
       </c>
       <c r="B167" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C167" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -6643,10 +6657,10 @@
         <v>13120</v>
       </c>
       <c r="B168" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C168" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -6654,10 +6668,10 @@
         <v>13130</v>
       </c>
       <c r="B169" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C169" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -6665,10 +6679,10 @@
         <v>13140</v>
       </c>
       <c r="B170" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C170" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -6676,10 +6690,10 @@
         <v>13210</v>
       </c>
       <c r="B171" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C171" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -6687,10 +6701,10 @@
         <v>13220</v>
       </c>
       <c r="B172" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C172" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -6698,10 +6712,10 @@
         <v>13230</v>
       </c>
       <c r="B173" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C173" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -6709,10 +6723,10 @@
         <v>13300</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C174" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -6720,10 +6734,10 @@
         <v>13301</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C175" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -6731,10 +6745,10 @@
         <v>13310</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C176" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -6742,10 +6756,10 @@
         <v>13320</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C177" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="178" ht="26" spans="1:3">
@@ -6753,10 +6767,10 @@
         <v>13330</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C178" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -6764,10 +6778,10 @@
         <v>13400</v>
       </c>
       <c r="B179" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C179" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -6775,10 +6789,10 @@
         <v>13410</v>
       </c>
       <c r="B180" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C180" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -6786,10 +6800,10 @@
         <v>13420</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C181" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -6797,10 +6811,10 @@
         <v>13421</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C182" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -6808,10 +6822,10 @@
         <v>13430</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C183" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -6819,10 +6833,10 @@
         <v>14090</v>
       </c>
       <c r="B184" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C184" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -6830,10 +6844,10 @@
         <v>14110</v>
       </c>
       <c r="B185" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C185" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="186" ht="15" spans="1:7">
@@ -6841,13 +6855,13 @@
         <v>15010</v>
       </c>
       <c r="B186" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C186" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D186" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G186" s="1"/>
     </row>
@@ -6856,13 +6870,13 @@
         <v>16010</v>
       </c>
       <c r="B187" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C187" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D187" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G187" s="1"/>
     </row>
@@ -6871,10 +6885,10 @@
         <v>16020</v>
       </c>
       <c r="B188" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C188" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G188" s="1"/>
     </row>
@@ -6883,10 +6897,10 @@
         <v>16100</v>
       </c>
       <c r="B189" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C189" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -6894,10 +6908,10 @@
         <v>16110</v>
       </c>
       <c r="B190" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C190" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -6905,10 +6919,10 @@
         <v>16200</v>
       </c>
       <c r="B191" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C191" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -6916,10 +6930,10 @@
         <v>16210</v>
       </c>
       <c r="B192" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C192" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -6927,10 +6941,10 @@
         <v>16220</v>
       </c>
       <c r="B193" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C193" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -6938,10 +6952,10 @@
         <v>16230</v>
       </c>
       <c r="B194" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C194" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -6949,10 +6963,10 @@
         <v>16300</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C195" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -6960,10 +6974,10 @@
         <v>16310</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C196" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -6971,10 +6985,10 @@
         <v>16320</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C197" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -6982,10 +6996,10 @@
         <v>16400</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C198" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -6993,10 +7007,10 @@
         <v>16410</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C199" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -7004,13 +7018,13 @@
         <v>16800</v>
       </c>
       <c r="B200" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C200" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D200" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -7018,13 +7032,13 @@
         <v>16801</v>
       </c>
       <c r="B201" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C201" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D201" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -7032,13 +7046,13 @@
         <v>16802</v>
       </c>
       <c r="B202" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C202" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D202" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -7046,13 +7060,13 @@
         <v>16803</v>
       </c>
       <c r="B203" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C203" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D203" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -7060,13 +7074,13 @@
         <v>16804</v>
       </c>
       <c r="B204" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C204" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D204" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -7074,13 +7088,13 @@
         <v>16805</v>
       </c>
       <c r="B205" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C205" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D205" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -7088,13 +7102,13 @@
         <v>16806</v>
       </c>
       <c r="B206" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C206" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D206" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -7102,10 +7116,10 @@
         <v>17010</v>
       </c>
       <c r="B207" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C207" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -7113,13 +7127,13 @@
         <v>18010</v>
       </c>
       <c r="B208" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C208" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D208" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -7127,10 +7141,10 @@
         <v>18020</v>
       </c>
       <c r="B209" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C209" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -7138,10 +7152,10 @@
         <v>18100</v>
       </c>
       <c r="B210" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C210" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -7149,10 +7163,10 @@
         <v>18110</v>
       </c>
       <c r="B211" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C211" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -7160,10 +7174,10 @@
         <v>18120</v>
       </c>
       <c r="B212" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C212" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -7171,10 +7185,10 @@
         <v>18130</v>
       </c>
       <c r="B213" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C213" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -7182,10 +7196,10 @@
         <v>18200</v>
       </c>
       <c r="B214" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C214" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -7193,10 +7207,10 @@
         <v>18210</v>
       </c>
       <c r="B215" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C215" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -7204,10 +7218,10 @@
         <v>18220</v>
       </c>
       <c r="B216" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C216" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -7215,10 +7229,10 @@
         <v>18300</v>
       </c>
       <c r="B217" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C217" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -7226,10 +7240,10 @@
         <v>18310</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C218" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -7237,10 +7251,10 @@
         <v>18320</v>
       </c>
       <c r="B219" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C219" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -7248,10 +7262,10 @@
         <v>18340</v>
       </c>
       <c r="B220" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C220" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -7259,10 +7273,10 @@
         <v>18400</v>
       </c>
       <c r="B221" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C221" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -7270,10 +7284,10 @@
         <v>18410</v>
       </c>
       <c r="B222" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C222" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -7281,10 +7295,10 @@
         <v>18420</v>
       </c>
       <c r="B223" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C223" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -7292,10 +7306,10 @@
         <v>18430</v>
       </c>
       <c r="B224" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C224" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -7303,10 +7317,10 @@
         <v>18440</v>
       </c>
       <c r="B225" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C225" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -7314,10 +7328,10 @@
         <v>18450</v>
       </c>
       <c r="B226" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C226" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -7325,10 +7339,10 @@
         <v>18500</v>
       </c>
       <c r="B227" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C227" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -7336,10 +7350,10 @@
         <v>18510</v>
       </c>
       <c r="B228" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C228" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -7347,10 +7361,10 @@
         <v>18800</v>
       </c>
       <c r="B229" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C229" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -7358,10 +7372,10 @@
         <v>18801</v>
       </c>
       <c r="B230" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C230" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -7369,10 +7383,10 @@
         <v>18802</v>
       </c>
       <c r="B231" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C231" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -7380,10 +7394,10 @@
         <v>18803</v>
       </c>
       <c r="B232" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C232" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -7391,10 +7405,10 @@
         <v>18804</v>
       </c>
       <c r="B233" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C233" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -7402,10 +7416,10 @@
         <v>18805</v>
       </c>
       <c r="B234" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C234" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -7413,10 +7427,10 @@
         <v>18806</v>
       </c>
       <c r="B235" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C235" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -7424,10 +7438,10 @@
         <v>18811</v>
       </c>
       <c r="B236" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C236" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -7435,10 +7449,10 @@
         <v>18812</v>
       </c>
       <c r="B237" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C237" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="238" ht="15" spans="1:7">
@@ -7446,13 +7460,13 @@
         <v>19010</v>
       </c>
       <c r="B238" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C238" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D238" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G238" s="1"/>
     </row>
@@ -7461,10 +7475,10 @@
         <v>19011</v>
       </c>
       <c r="B239" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C239" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G239" s="1"/>
     </row>
@@ -7473,10 +7487,10 @@
         <v>19020</v>
       </c>
       <c r="B240" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C240" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -7484,10 +7498,10 @@
         <v>19030</v>
       </c>
       <c r="B241" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C241" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -7495,10 +7509,10 @@
         <v>19040</v>
       </c>
       <c r="B242" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C242" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -7506,10 +7520,10 @@
         <v>19050</v>
       </c>
       <c r="B243" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C243" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -7517,10 +7531,10 @@
         <v>19060</v>
       </c>
       <c r="B244" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C244" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -7528,10 +7542,10 @@
         <v>19070</v>
       </c>
       <c r="B245" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C245" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -7539,10 +7553,10 @@
         <v>19100</v>
       </c>
       <c r="B246" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C246" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -7550,10 +7564,10 @@
         <v>19110</v>
       </c>
       <c r="B247" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C247" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -7561,10 +7575,10 @@
         <v>19200</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C248" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -7572,10 +7586,10 @@
         <v>19210</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C249" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -7583,10 +7597,10 @@
         <v>19220</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C250" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -7594,10 +7608,10 @@
         <v>19230</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C251" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -7605,10 +7619,10 @@
         <v>19240</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C252" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -7616,10 +7630,10 @@
         <v>19250</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C253" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -7627,10 +7641,10 @@
         <v>19260</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C254" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -7638,10 +7652,10 @@
         <v>19270</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C255" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -7649,10 +7663,10 @@
         <v>19280</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C256" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -7660,10 +7674,10 @@
         <v>19300</v>
       </c>
       <c r="B257" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C257" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="258" ht="26" spans="1:3">
@@ -7671,10 +7685,10 @@
         <v>19310</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C258" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -7682,10 +7696,10 @@
         <v>19320</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C259" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -7693,10 +7707,10 @@
         <v>19330</v>
       </c>
       <c r="B260" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C260" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -7704,10 +7718,10 @@
         <v>19340</v>
       </c>
       <c r="B261" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C261" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -7715,10 +7729,10 @@
         <v>19350</v>
       </c>
       <c r="B262" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C262" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -7726,10 +7740,10 @@
         <v>19360</v>
       </c>
       <c r="B263" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C263" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -7737,10 +7751,10 @@
         <v>19400</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C264" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -7748,10 +7762,10 @@
         <v>19401</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C265" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -7759,10 +7773,10 @@
         <v>19410</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C266" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -7770,10 +7784,10 @@
         <v>19420</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C267" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -7781,10 +7795,10 @@
         <v>19500</v>
       </c>
       <c r="B268" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C268" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -7792,10 +7806,10 @@
         <v>19510</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C269" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -7803,10 +7817,10 @@
         <v>19520</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C270" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -7814,10 +7828,10 @@
         <v>19600</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C271" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -7825,10 +7839,10 @@
         <v>19601</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C272" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -7836,10 +7850,10 @@
         <v>19602</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C273" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -7847,10 +7861,10 @@
         <v>19603</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C274" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -7858,10 +7872,10 @@
         <v>19604</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C275" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="276" ht="15" spans="1:7">
@@ -7869,13 +7883,13 @@
         <v>19611</v>
       </c>
       <c r="B276" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C276" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D276" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G276" s="1"/>
     </row>
@@ -7884,10 +7898,10 @@
         <v>19612</v>
       </c>
       <c r="B277" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C277" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G277" s="1"/>
     </row>
@@ -7896,10 +7910,10 @@
         <v>19613</v>
       </c>
       <c r="B278" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C278" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G278" s="1"/>
     </row>
@@ -7908,10 +7922,10 @@
         <v>19614</v>
       </c>
       <c r="B279" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C279" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G279" s="1"/>
     </row>
@@ -7920,10 +7934,10 @@
         <v>19615</v>
       </c>
       <c r="B280" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C280" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G280" s="1"/>
     </row>
@@ -7932,10 +7946,10 @@
         <v>19616</v>
       </c>
       <c r="B281" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C281" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G281" s="1"/>
     </row>
@@ -7944,10 +7958,10 @@
         <v>19617</v>
       </c>
       <c r="B282" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C282" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G282" s="1"/>
     </row>
@@ -7956,10 +7970,10 @@
         <v>19618</v>
       </c>
       <c r="B283" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C283" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G283" s="1"/>
     </row>
@@ -7968,10 +7982,10 @@
         <v>19619</v>
       </c>
       <c r="B284" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C284" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G284" s="1"/>
     </row>
@@ -7980,13 +7994,13 @@
         <v>19631</v>
       </c>
       <c r="B285" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C285" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D285" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -7994,10 +8008,10 @@
         <v>19632</v>
       </c>
       <c r="B286" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C286" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -8005,10 +8019,10 @@
         <v>19633</v>
       </c>
       <c r="B287" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C287" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -8016,10 +8030,10 @@
         <v>19634</v>
       </c>
       <c r="B288" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C288" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -8027,10 +8041,10 @@
         <v>19700</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C289" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -8038,10 +8052,10 @@
         <v>19710</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C290" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -8049,10 +8063,10 @@
         <v>19720</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C291" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -8060,10 +8074,10 @@
         <v>19730</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C292" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -8071,10 +8085,10 @@
         <v>19800</v>
       </c>
       <c r="B293" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C293" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -8082,10 +8096,10 @@
         <v>19810</v>
       </c>
       <c r="B294" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C294" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -8093,13 +8107,13 @@
         <v>20010</v>
       </c>
       <c r="B295" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C295" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D295" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -8107,10 +8121,10 @@
         <v>20020</v>
       </c>
       <c r="B296" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C296" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -8118,10 +8132,10 @@
         <v>20030</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C297" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -8129,10 +8143,10 @@
         <v>20040</v>
       </c>
       <c r="B298" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C298" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -8140,10 +8154,10 @@
         <v>20050</v>
       </c>
       <c r="B299" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C299" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -8151,10 +8165,10 @@
         <v>20100</v>
       </c>
       <c r="B300" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C300" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -8162,10 +8176,10 @@
         <v>20110</v>
       </c>
       <c r="B301" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C301" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -8173,10 +8187,10 @@
         <v>20120</v>
       </c>
       <c r="B302" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C302" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -8184,10 +8198,10 @@
         <v>20200</v>
       </c>
       <c r="B303" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C303" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -8195,10 +8209,10 @@
         <v>20201</v>
       </c>
       <c r="B304" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C304" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -8206,10 +8220,10 @@
         <v>20210</v>
       </c>
       <c r="B305" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C305" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -8217,10 +8231,10 @@
         <v>20220</v>
       </c>
       <c r="B306" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C306" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -8228,10 +8242,10 @@
         <v>20230</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C307" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -8239,10 +8253,10 @@
         <v>20240</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C308" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -8250,10 +8264,10 @@
         <v>20250</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C309" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -8261,10 +8275,10 @@
         <v>20260</v>
       </c>
       <c r="B310" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C310" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -8272,10 +8286,10 @@
         <v>20270</v>
       </c>
       <c r="B311" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C311" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -8283,10 +8297,10 @@
         <v>20280</v>
       </c>
       <c r="B312" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C312" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -8294,10 +8308,10 @@
         <v>20290</v>
       </c>
       <c r="B313" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C313" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -8305,10 +8319,10 @@
         <v>20300</v>
       </c>
       <c r="B314" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C314" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -8316,10 +8330,10 @@
         <v>20310</v>
       </c>
       <c r="B315" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C315" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -8327,10 +8341,10 @@
         <v>20320</v>
       </c>
       <c r="B316" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C316" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -8338,10 +8352,10 @@
         <v>20330</v>
       </c>
       <c r="B317" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C317" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -8349,10 +8363,10 @@
         <v>20340</v>
       </c>
       <c r="B318" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C318" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -8360,10 +8374,10 @@
         <v>20350</v>
       </c>
       <c r="B319" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C319" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -8371,10 +8385,10 @@
         <v>23010</v>
       </c>
       <c r="B320" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C320" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -8382,10 +8396,10 @@
         <v>23020</v>
       </c>
       <c r="B321" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C321" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -8393,10 +8407,10 @@
         <v>23030</v>
       </c>
       <c r="B322" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C322" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -8404,10 +8418,10 @@
         <v>23031</v>
       </c>
       <c r="B323" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C323" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -8415,10 +8429,10 @@
         <v>23032</v>
       </c>
       <c r="B324" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C324" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -8426,10 +8440,10 @@
         <v>23040</v>
       </c>
       <c r="B325" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C325" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -8437,10 +8451,10 @@
         <v>24010</v>
       </c>
       <c r="B326" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C326" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -8448,10 +8462,10 @@
         <v>24020</v>
       </c>
       <c r="B327" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C327" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -8459,10 +8473,10 @@
         <v>24030</v>
       </c>
       <c r="B328" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C328" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -8470,10 +8484,10 @@
         <v>24040</v>
       </c>
       <c r="B329" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C329" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -8481,10 +8495,10 @@
         <v>24110</v>
       </c>
       <c r="B330" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C330" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -8492,10 +8506,10 @@
         <v>24111</v>
       </c>
       <c r="B331" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C331" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -8503,10 +8517,10 @@
         <v>24112</v>
       </c>
       <c r="B332" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C332" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -8514,10 +8528,10 @@
         <v>24113</v>
       </c>
       <c r="B333" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C333" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -8525,10 +8539,10 @@
         <v>24114</v>
       </c>
       <c r="B334" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C334" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -8536,10 +8550,10 @@
         <v>24115</v>
       </c>
       <c r="B335" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C335" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -8547,10 +8561,10 @@
         <v>24116</v>
       </c>
       <c r="B336" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C336" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -8558,10 +8572,10 @@
         <v>24117</v>
       </c>
       <c r="B337" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C337" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -8569,10 +8583,10 @@
         <v>24118</v>
       </c>
       <c r="B338" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C338" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -8580,10 +8594,10 @@
         <v>24119</v>
       </c>
       <c r="B339" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C339" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -8591,10 +8605,10 @@
         <v>24120</v>
       </c>
       <c r="B340" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C340" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -8602,10 +8616,10 @@
         <v>24121</v>
       </c>
       <c r="B341" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C341" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -8613,10 +8627,10 @@
         <v>24122</v>
       </c>
       <c r="B342" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C342" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -8624,10 +8638,10 @@
         <v>30000</v>
       </c>
       <c r="B343" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C343" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -8635,10 +8649,10 @@
         <v>30010</v>
       </c>
       <c r="B344" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C344" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -8646,10 +8660,10 @@
         <v>30020</v>
       </c>
       <c r="B345" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C345" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -8657,10 +8671,10 @@
         <v>30030</v>
       </c>
       <c r="B346" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C346" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -8668,10 +8682,10 @@
         <v>30040</v>
       </c>
       <c r="B347" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C347" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -8679,10 +8693,10 @@
         <v>31010</v>
       </c>
       <c r="B348" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C348" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -8690,10 +8704,10 @@
         <v>31020</v>
       </c>
       <c r="B349" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C349" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8701,13 +8715,13 @@
         <v>102000</v>
       </c>
       <c r="B350" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C350" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D350" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -8715,10 +8729,10 @@
         <v>102010</v>
       </c>
       <c r="B351" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C351" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -8726,10 +8740,10 @@
         <v>102020</v>
       </c>
       <c r="B352" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C352" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -8737,10 +8751,10 @@
         <v>102030</v>
       </c>
       <c r="B353" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C353" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -8748,13 +8762,13 @@
         <v>113000</v>
       </c>
       <c r="B354" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C354" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D354" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -8762,10 +8776,10 @@
         <v>113010</v>
       </c>
       <c r="B355" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C355" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -8773,10 +8787,10 @@
         <v>113020</v>
       </c>
       <c r="B356" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C356" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -8784,10 +8798,10 @@
         <v>113030</v>
       </c>
       <c r="B357" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C357" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -8795,10 +8809,10 @@
         <v>113040</v>
       </c>
       <c r="B358" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C358" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -8806,13 +8820,13 @@
         <v>121010</v>
       </c>
       <c r="B359" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C359" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D359" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -8820,10 +8834,10 @@
         <v>121011</v>
       </c>
       <c r="B360" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C360" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -8831,10 +8845,10 @@
         <v>121012</v>
       </c>
       <c r="B361" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C361" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -8842,10 +8856,10 @@
         <v>121013</v>
       </c>
       <c r="B362" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C362" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -8853,10 +8867,10 @@
         <v>121014</v>
       </c>
       <c r="B363" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C363" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -8864,10 +8878,10 @@
         <v>121015</v>
       </c>
       <c r="B364" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C364" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -8875,10 +8889,10 @@
         <v>121016</v>
       </c>
       <c r="B365" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C365" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -8886,10 +8900,10 @@
         <v>121017</v>
       </c>
       <c r="B366" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C366" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -8897,10 +8911,10 @@
         <v>121018</v>
       </c>
       <c r="B367" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C367" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -8908,10 +8922,10 @@
         <v>121019</v>
       </c>
       <c r="B368" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C368" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -8919,10 +8933,10 @@
         <v>121020</v>
       </c>
       <c r="B369" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C369" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -8930,10 +8944,10 @@
         <v>121030</v>
       </c>
       <c r="B370" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C370" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/System.xlsx
+++ b/Assets/Data/System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="711"/>
+    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="711" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TacticsComand" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="470">
   <si>
     <t>Id</t>
   </si>
@@ -76,18 +76,24 @@
     <t>ToggleText3</t>
   </si>
   <si>
+    <t>ExistWindows</t>
+  </si>
+  <si>
     <t>ExistAndroid</t>
   </si>
   <si>
+    <t>SCREEN_MODE</t>
+  </si>
+  <si>
+    <t>SCREEN_SIZE</t>
+  </si>
+  <si>
     <t>BGM_VOLUME</t>
   </si>
   <si>
     <t>SE_VOLUME</t>
   </si>
   <si>
-    <t>GRAPHIC_QUALITY</t>
-  </si>
-  <si>
     <t>EVENT_SKIP</t>
   </si>
   <si>
@@ -703,7 +709,7 @@
     <t>1文字以上の名前を入力してください</t>
   </si>
   <si>
-    <t>音量設定</t>
+    <t>環境設定</t>
   </si>
   <si>
     <t>システム</t>
@@ -712,6 +718,24 @@
     <t>ゲームの設定を変更します</t>
   </si>
   <si>
+    <t>スクリーンモード</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - スクリーンの表示方法を変更します</t>
+  </si>
+  <si>
+    <t>ウィンドウモード</t>
+  </si>
+  <si>
+    <t>フルスクリーン</t>
+  </si>
+  <si>
+    <t>画面サイズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - ゲームの解像度を変更します</t>
+  </si>
+  <si>
     <t>BGM音量</t>
   </si>
   <si>
@@ -722,12 +746,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - SEの音量を変更します</t>
-  </si>
-  <si>
-    <t>Graphic Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 画質のクオリティを変更します</t>
   </si>
   <si>
     <t>イベントスキップ</t>
@@ -1425,10 +1443,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1446,13 +1464,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -1466,7 +1477,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1490,9 +1508,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1505,23 +1522,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1538,6 +1540,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1575,6 +1585,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1598,13 +1616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,7 +1628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1628,19 +1640,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1664,7 +1706,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1676,55 +1772,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1736,49 +1796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1809,17 +1827,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1842,6 +1849,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1853,15 +1869,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1889,6 +1896,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1897,19 +1915,19 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1918,124 +1936,124 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2402,7 +2420,7 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2604,19 +2622,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="23.8181818181818" customWidth="1"/>
-    <col min="6" max="8" width="12.0909090909091" customWidth="1"/>
+    <col min="6" max="9" width="12.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2644,28 +2662,31 @@
       <c r="I1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
-        <v>1</v>
+        <v>1010</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>6101</v>
+        <v>6010</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>6011</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>6012</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2673,22 +2694,25 @@
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
-        <v>2</v>
+        <v>1020</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>6102</v>
+        <v>6020</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2702,57 +2726,63 @@
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
-        <v>3</v>
+        <v>1030</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>6103</v>
+        <v>6030</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>6201</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>6202</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>1040</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>6040</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>6104</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>6211</v>
-      </c>
       <c r="G5">
-        <v>6212</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2760,16 +2790,19 @@
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
-        <v>5</v>
+        <v>2030</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>6105</v>
+        <v>6210</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2778,27 +2811,30 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>6221</v>
+        <v>6810</v>
       </c>
       <c r="G6">
-        <v>6222</v>
+        <v>6820</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
-        <v>6</v>
+        <v>2040</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>6106</v>
+        <v>6220</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2807,10 +2843,10 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>6223</v>
+        <v>6830</v>
       </c>
       <c r="G7">
-        <v>6222</v>
+        <v>6840</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2818,16 +2854,19 @@
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
-        <v>7</v>
+        <v>2050</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>6107</v>
+        <v>6230</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2836,10 +2875,10 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>6223</v>
+        <v>6860</v>
       </c>
       <c r="G8">
-        <v>6222</v>
+        <v>6850</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2847,16 +2886,19 @@
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
-        <v>8</v>
+        <v>2060</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>6108</v>
+        <v>6240</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2865,27 +2907,30 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>6231</v>
+        <v>6860</v>
       </c>
       <c r="G9">
-        <v>6232</v>
+        <v>6850</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
-        <v>9</v>
+        <v>2070</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>6109</v>
+        <v>6250</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -2894,27 +2939,30 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>16400</v>
+        <v>6870</v>
       </c>
       <c r="G10">
-        <v>16410</v>
+        <v>6880</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
-        <v>10</v>
+        <v>2080</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>6110</v>
+        <v>6260</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2923,27 +2971,30 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="G11">
-        <v>16310</v>
+        <v>16410</v>
       </c>
       <c r="H11">
-        <v>16320</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
-        <v>11</v>
+        <v>2090</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>6111</v>
+        <v>6270</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -2952,15 +3003,50 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>6221</v>
+        <v>16300</v>
       </c>
       <c r="G12">
-        <v>6222</v>
+        <v>16310</v>
       </c>
       <c r="H12">
+        <v>16320</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>2100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>6280</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>6860</v>
+      </c>
+      <c r="G13">
+        <v>6850</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <v>1</v>
       </c>
     </row>
@@ -2989,15 +3075,15 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -3006,12 +3092,12 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -3020,12 +3106,12 @@
         <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -3034,12 +3120,12 @@
         <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3048,12 +3134,12 @@
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3062,12 +3148,12 @@
         <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3076,12 +3162,12 @@
         <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3090,12 +3176,12 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -3104,12 +3190,12 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -3118,12 +3204,12 @@
         <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3132,12 +3218,12 @@
         <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3146,12 +3232,12 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -3160,7 +3246,7 @@
         <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3174,7 +3260,7 @@
         <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3188,12 +3274,12 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -3202,12 +3288,12 @@
         <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3216,12 +3302,12 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -3230,12 +3316,12 @@
         <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -3244,12 +3330,12 @@
         <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -3258,12 +3344,12 @@
         <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -3272,12 +3358,12 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -3286,12 +3372,12 @@
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -3300,12 +3386,12 @@
         <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -3314,12 +3400,12 @@
         <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -3328,12 +3414,12 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -3342,12 +3428,12 @@
         <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3356,12 +3442,12 @@
         <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3370,12 +3456,12 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -3384,12 +3470,12 @@
         <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -3398,12 +3484,12 @@
         <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -3412,12 +3498,12 @@
         <v>190</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -3426,12 +3512,12 @@
         <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -3440,12 +3526,12 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -3454,12 +3540,12 @@
         <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -3468,12 +3554,12 @@
         <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3482,12 +3568,12 @@
         <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3496,12 +3582,12 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38">
         <v>12</v>
@@ -3510,12 +3596,12 @@
         <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -3524,12 +3610,12 @@
         <v>200</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B40">
         <v>9</v>
@@ -3538,12 +3624,12 @@
         <v>230</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B41">
         <v>8</v>
@@ -3552,12 +3638,12 @@
         <v>240</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B42">
         <v>11</v>
@@ -3566,12 +3652,12 @@
         <v>210</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>7</v>
@@ -3580,12 +3666,12 @@
         <v>170</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -3594,12 +3680,12 @@
         <v>160</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -3608,12 +3694,12 @@
         <v>200</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B46">
         <v>9</v>
@@ -3622,12 +3708,12 @@
         <v>230</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B47">
         <v>11</v>
@@ -3636,12 +3722,12 @@
         <v>240</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -3650,12 +3736,12 @@
         <v>210</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -3664,12 +3750,12 @@
         <v>170</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -3678,12 +3764,12 @@
         <v>160</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -3692,12 +3778,12 @@
         <v>802</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -3706,12 +3792,12 @@
         <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -3720,12 +3806,12 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B54">
         <v>7</v>
@@ -3734,12 +3820,12 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -3748,12 +3834,12 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3762,12 +3848,12 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -3776,12 +3862,12 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -3790,12 +3876,12 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -3804,12 +3890,12 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3818,12 +3904,12 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3832,12 +3918,12 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -3846,12 +3932,12 @@
         <v>802</v>
       </c>
       <c r="D62" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
         <v>4</v>
@@ -3862,7 +3948,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -3871,12 +3957,12 @@
         <v>250</v>
       </c>
       <c r="D64" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -3885,12 +3971,12 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -3901,7 +3987,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -3912,7 +3998,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3923,7 +4009,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3934,7 +4020,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>12</v>
@@ -3943,12 +4029,12 @@
         <v>260</v>
       </c>
       <c r="D70" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -3957,7 +4043,7 @@
         <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3971,7 +4057,7 @@
         <v>150</v>
       </c>
       <c r="D72" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3985,12 +4071,12 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -3999,12 +4085,12 @@
         <v>140</v>
       </c>
       <c r="D74" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -4013,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4027,7 +4113,7 @@
         <v>180</v>
       </c>
       <c r="D76" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4041,7 +4127,7 @@
         <v>170</v>
       </c>
       <c r="D77" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4055,12 +4141,12 @@
         <v>160</v>
       </c>
       <c r="D78" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -4069,12 +4155,12 @@
         <v>111</v>
       </c>
       <c r="D79" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4083,12 +4169,12 @@
         <v>140</v>
       </c>
       <c r="D80" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -4097,12 +4183,12 @@
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -4111,12 +4197,12 @@
         <v>170</v>
       </c>
       <c r="D82" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B83">
         <v>12</v>
@@ -4125,12 +4211,12 @@
         <v>100</v>
       </c>
       <c r="D83" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B84">
         <v>9</v>
@@ -4139,12 +4225,12 @@
         <v>150</v>
       </c>
       <c r="D84" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B85">
         <v>8</v>
@@ -4153,12 +4239,12 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -4167,12 +4253,12 @@
         <v>140</v>
       </c>
       <c r="D86" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -4181,12 +4267,12 @@
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B88">
         <v>11</v>
@@ -4195,12 +4281,12 @@
         <v>180</v>
       </c>
       <c r="D88" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4209,12 +4295,12 @@
         <v>804</v>
       </c>
       <c r="D89" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B90">
         <v>9</v>
@@ -4223,12 +4309,12 @@
         <v>813</v>
       </c>
       <c r="D90" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B91">
         <v>8</v>
@@ -4237,12 +4323,12 @@
         <v>800</v>
       </c>
       <c r="D91" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -4251,12 +4337,12 @@
         <v>801</v>
       </c>
       <c r="D92" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4265,12 +4351,12 @@
         <v>800</v>
       </c>
       <c r="D93" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4279,12 +4365,12 @@
         <v>804</v>
       </c>
       <c r="D94" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B95">
         <v>9</v>
@@ -4293,12 +4379,12 @@
         <v>814</v>
       </c>
       <c r="D95" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B96">
         <v>8</v>
@@ -4307,12 +4393,12 @@
         <v>800</v>
       </c>
       <c r="D96" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -4321,12 +4407,12 @@
         <v>801</v>
       </c>
       <c r="D97" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4335,12 +4421,12 @@
         <v>800</v>
       </c>
       <c r="D98" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4349,12 +4435,12 @@
         <v>804</v>
       </c>
       <c r="D99" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -4363,12 +4449,12 @@
         <v>801</v>
       </c>
       <c r="D100" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4377,12 +4463,12 @@
         <v>800</v>
       </c>
       <c r="D101" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -4391,12 +4477,12 @@
         <v>818</v>
       </c>
       <c r="D102" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B103">
         <v>4</v>
@@ -4405,12 +4491,12 @@
         <v>800</v>
       </c>
       <c r="D103" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B104">
         <v>6</v>
@@ -4419,12 +4505,12 @@
         <v>825</v>
       </c>
       <c r="D104" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B105">
         <v>9</v>
@@ -4433,12 +4519,12 @@
         <v>817</v>
       </c>
       <c r="D105" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B106">
         <v>8</v>
@@ -4447,12 +4533,12 @@
         <v>816</v>
       </c>
       <c r="D106" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B107">
         <v>8</v>
@@ -4461,12 +4547,12 @@
         <v>817</v>
       </c>
       <c r="D107" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B108">
         <v>4</v>
@@ -4475,12 +4561,12 @@
         <v>802</v>
       </c>
       <c r="D108" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -4489,12 +4575,12 @@
         <v>801</v>
       </c>
       <c r="D109" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -4503,12 +4589,12 @@
         <v>800</v>
       </c>
       <c r="D110" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B111">
         <v>5</v>
@@ -4517,12 +4603,12 @@
         <v>804</v>
       </c>
       <c r="D111" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -4531,12 +4617,12 @@
         <v>801</v>
       </c>
       <c r="D112" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -4545,12 +4631,12 @@
         <v>800</v>
       </c>
       <c r="D113" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -4559,12 +4645,12 @@
         <v>804</v>
       </c>
       <c r="D114" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -4573,12 +4659,12 @@
         <v>802</v>
       </c>
       <c r="D115" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -4587,12 +4673,12 @@
         <v>801</v>
       </c>
       <c r="D116" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4601,7 +4687,7 @@
         <v>800</v>
       </c>
       <c r="D117" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4629,34 +4715,34 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4664,7 +4750,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4672,7 +4758,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4680,7 +4766,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -4688,40 +4774,40 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B10">
         <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4736,10 +4822,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G370"/>
+  <dimension ref="A1:G373"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -4753,10 +4839,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4764,10 +4850,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:7">
@@ -4775,10 +4861,10 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -4787,10 +4873,10 @@
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4798,10 +4884,10 @@
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4809,10 +4895,10 @@
         <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4820,10 +4906,10 @@
         <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4831,10 +4917,10 @@
         <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4842,10 +4928,10 @@
         <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4853,10 +4939,10 @@
         <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4864,10 +4950,10 @@
         <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4875,10 +4961,10 @@
         <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4886,10 +4972,10 @@
         <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4897,10 +4983,10 @@
         <v>160</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4908,10 +4994,10 @@
         <v>170</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4919,10 +5005,10 @@
         <v>180</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4930,10 +5016,10 @@
         <v>190</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4941,10 +5027,10 @@
         <v>200</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4952,10 +5038,10 @@
         <v>210</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4963,10 +5049,10 @@
         <v>220</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4974,10 +5060,10 @@
         <v>230</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4985,10 +5071,10 @@
         <v>240</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4996,10 +5082,10 @@
         <v>250</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5007,10 +5093,10 @@
         <v>260</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5018,10 +5104,10 @@
         <v>270</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5029,10 +5115,10 @@
         <v>312</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5040,10 +5126,10 @@
         <v>313</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5051,10 +5137,10 @@
         <v>314</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5062,10 +5148,10 @@
         <v>315</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5073,10 +5159,10 @@
         <v>341</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5084,10 +5170,10 @@
         <v>342</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5095,13 +5181,13 @@
         <v>371</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5109,13 +5195,13 @@
         <v>380</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5123,13 +5209,13 @@
         <v>381</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5137,13 +5223,13 @@
         <v>390</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5151,13 +5237,13 @@
         <v>391</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5165,13 +5251,13 @@
         <v>400</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5179,10 +5265,10 @@
         <v>401</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5190,10 +5276,10 @@
         <v>402</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5201,10 +5287,10 @@
         <v>403</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5212,10 +5298,10 @@
         <v>404</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5223,10 +5309,10 @@
         <v>405</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5234,10 +5320,10 @@
         <v>420</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5245,10 +5331,10 @@
         <v>421</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5256,10 +5342,10 @@
         <v>422</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5267,10 +5353,10 @@
         <v>600</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5278,10 +5364,10 @@
         <v>601</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5289,10 +5375,10 @@
         <v>602</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -5300,10 +5386,10 @@
         <v>603</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -5311,10 +5397,10 @@
         <v>606</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -5322,10 +5408,10 @@
         <v>611</v>
       </c>
       <c r="B51" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -5333,10 +5419,10 @@
         <v>620</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5344,10 +5430,10 @@
         <v>621</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -5355,10 +5441,10 @@
         <v>622</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5366,10 +5452,10 @@
         <v>623</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -5377,10 +5463,10 @@
         <v>624</v>
       </c>
       <c r="B56" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C56" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -5388,10 +5474,10 @@
         <v>625</v>
       </c>
       <c r="B57" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C57" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5399,10 +5485,10 @@
         <v>651</v>
       </c>
       <c r="B58" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -5410,10 +5496,10 @@
         <v>652</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5421,10 +5507,10 @@
         <v>702</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5432,10 +5518,10 @@
         <v>706</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5443,10 +5529,10 @@
         <v>800</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5454,10 +5540,10 @@
         <v>801</v>
       </c>
       <c r="B63" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -5465,10 +5551,10 @@
         <v>802</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5476,10 +5562,10 @@
         <v>803</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5487,10 +5573,10 @@
         <v>804</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5498,10 +5584,10 @@
         <v>805</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5509,10 +5595,10 @@
         <v>806</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C68" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5520,10 +5606,10 @@
         <v>807</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5531,10 +5617,10 @@
         <v>808</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C70" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5542,10 +5628,10 @@
         <v>810</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C71" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -5553,10 +5639,10 @@
         <v>811</v>
       </c>
       <c r="B72" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C72" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5564,10 +5650,10 @@
         <v>812</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C73" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5575,10 +5661,10 @@
         <v>813</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C74" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -5586,10 +5672,10 @@
         <v>814</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C75" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5597,10 +5683,10 @@
         <v>815</v>
       </c>
       <c r="B76" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C76" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5608,10 +5694,10 @@
         <v>816</v>
       </c>
       <c r="B77" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C77" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -5619,10 +5705,10 @@
         <v>817</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C78" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -5630,10 +5716,10 @@
         <v>818</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C79" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -5641,10 +5727,10 @@
         <v>819</v>
       </c>
       <c r="B80" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -5652,10 +5738,10 @@
         <v>820</v>
       </c>
       <c r="B81" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C81" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -5663,10 +5749,10 @@
         <v>821</v>
       </c>
       <c r="B82" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C82" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -5674,10 +5760,10 @@
         <v>822</v>
       </c>
       <c r="B83" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C83" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -5685,10 +5771,10 @@
         <v>823</v>
       </c>
       <c r="B84" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C84" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -5696,10 +5782,10 @@
         <v>824</v>
       </c>
       <c r="B85" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C85" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -5707,10 +5793,10 @@
         <v>825</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C86" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -5718,10 +5804,10 @@
         <v>826</v>
       </c>
       <c r="B87" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -5729,10 +5815,10 @@
         <v>827</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -5740,10 +5826,10 @@
         <v>1000</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C89" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -5751,10 +5837,10 @@
         <v>1001</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C90" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -5762,10 +5848,10 @@
         <v>1010</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C91" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -5773,10 +5859,10 @@
         <v>1020</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C92" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" customFormat="1" spans="1:3">
@@ -5784,10 +5870,10 @@
         <v>1060</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C93" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" customFormat="1" spans="1:3">
@@ -5795,10 +5881,10 @@
         <v>1110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C94" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" customFormat="1" spans="1:3">
@@ -5806,10 +5892,10 @@
         <v>1120</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C95" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -5817,13 +5903,13 @@
         <v>2000</v>
       </c>
       <c r="B96" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C96" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D96" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -5831,10 +5917,10 @@
         <v>2001</v>
       </c>
       <c r="B97" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C97" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -5842,10 +5928,10 @@
         <v>2002</v>
       </c>
       <c r="B98" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C98" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -5853,10 +5939,10 @@
         <v>2003</v>
       </c>
       <c r="B99" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C99" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -5864,10 +5950,10 @@
         <v>2004</v>
       </c>
       <c r="B100" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C100" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -5875,10 +5961,10 @@
         <v>2005</v>
       </c>
       <c r="B101" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C101" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -5886,10 +5972,10 @@
         <v>2006</v>
       </c>
       <c r="B102" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C102" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -5897,10 +5983,10 @@
         <v>2007</v>
       </c>
       <c r="B103" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C103" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -5908,13 +5994,13 @@
         <v>2010</v>
       </c>
       <c r="B104" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C104" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D104" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -5922,13 +6008,13 @@
         <v>2011</v>
       </c>
       <c r="B105" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C105" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D105" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -5936,13 +6022,13 @@
         <v>2012</v>
       </c>
       <c r="B106" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C106" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D106" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -5950,13 +6036,13 @@
         <v>2013</v>
       </c>
       <c r="B107" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C107" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D107" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="108" customFormat="1" spans="1:4">
@@ -5964,13 +6050,13 @@
         <v>2100</v>
       </c>
       <c r="B108" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C108" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D108" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -5978,10 +6064,10 @@
         <v>2101</v>
       </c>
       <c r="B109" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C109" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -5989,10 +6075,10 @@
         <v>2102</v>
       </c>
       <c r="B110" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -6000,10 +6086,10 @@
         <v>2103</v>
       </c>
       <c r="B111" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C111" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -6011,10 +6097,10 @@
         <v>2104</v>
       </c>
       <c r="B112" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C112" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -6022,13 +6108,13 @@
         <v>2200</v>
       </c>
       <c r="B113" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C113" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D113" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -6036,13 +6122,13 @@
         <v>2210</v>
       </c>
       <c r="B114" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C114" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D114" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="115" ht="29" customHeight="1" spans="1:4">
@@ -6050,13 +6136,13 @@
         <v>2220</v>
       </c>
       <c r="B115" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C115" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D115" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -6064,13 +6150,13 @@
         <v>2300</v>
       </c>
       <c r="B116" t="s">
+        <v>207</v>
+      </c>
+      <c r="C116" t="s">
+        <v>102</v>
+      </c>
+      <c r="D116" t="s">
         <v>205</v>
-      </c>
-      <c r="C116" t="s">
-        <v>100</v>
-      </c>
-      <c r="D116" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -6078,13 +6164,13 @@
         <v>2310</v>
       </c>
       <c r="B117" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C117" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D117" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -6092,13 +6178,13 @@
         <v>2320</v>
       </c>
       <c r="B118" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C118" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D118" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -6106,13 +6192,13 @@
         <v>2330</v>
       </c>
       <c r="B119" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C119" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D119" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -6120,13 +6206,13 @@
         <v>2340</v>
       </c>
       <c r="B120" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C120" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D120" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -6134,13 +6220,13 @@
         <v>2400</v>
       </c>
       <c r="B121" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C121" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D121" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -6148,10 +6234,10 @@
         <v>3000</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C122" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -6159,10 +6245,10 @@
         <v>3010</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C123" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -6170,10 +6256,10 @@
         <v>3011</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C124" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -6181,10 +6267,10 @@
         <v>3040</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C125" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -6192,10 +6278,10 @@
         <v>3050</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C126" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -6203,10 +6289,10 @@
         <v>3051</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C127" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -6214,10 +6300,10 @@
         <v>3052</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C128" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -6225,10 +6311,10 @@
         <v>3053</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C129" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -6236,10 +6322,10 @@
         <v>3054</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C130" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -6247,10 +6333,10 @@
         <v>3070</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C131" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -6258,10 +6344,10 @@
         <v>3071</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C132" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -6269,10 +6355,10 @@
         <v>3072</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C133" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -6280,10 +6366,10 @@
         <v>3073</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C134" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -6291,10 +6377,10 @@
         <v>3090</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C135" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -6302,10 +6388,10 @@
         <v>3211</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C136" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -6313,10 +6399,10 @@
         <v>3230</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C137" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -6324,10 +6410,10 @@
         <v>5000</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C138" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -6335,10 +6421,10 @@
         <v>5001</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C139" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -6346,10 +6432,10 @@
         <v>5002</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C140" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -6357,10 +6443,10 @@
         <v>6001</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C141" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -6368,10 +6454,10 @@
         <v>6002</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C142" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -6379,48 +6465,48 @@
         <v>6100</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C143" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>6101</v>
+        <v>6010</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C144" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>6102</v>
+        <v>6011</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C145" t="s">
-        <v>233</v>
+        <v>102</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>6103</v>
+        <v>6012</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C146" t="s">
-        <v>235</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>6104</v>
+        <v>6020</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>236</v>
@@ -6431,7 +6517,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>6105</v>
+        <v>6030</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>238</v>
@@ -6442,7 +6528,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>6106</v>
+        <v>6040</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>240</v>
@@ -6453,7 +6539,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>6107</v>
+        <v>6210</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>242</v>
@@ -6464,7 +6550,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>6108</v>
+        <v>6220</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>244</v>
@@ -6475,7 +6561,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>6109</v>
+        <v>6230</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>246</v>
@@ -6486,7 +6572,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>6110</v>
+        <v>6240</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>248</v>
@@ -6497,7 +6583,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>6111</v>
+        <v>6250</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>250</v>
@@ -6508,1030 +6594,1030 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>6201</v>
+        <v>6260</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>252</v>
       </c>
       <c r="C155" t="s">
-        <v>100</v>
+        <v>253</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>6202</v>
+        <v>6270</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C156" t="s">
-        <v>100</v>
+        <v>255</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>6211</v>
+        <v>6280</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C157" t="s">
-        <v>100</v>
+        <v>257</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>6212</v>
+        <v>6810</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C158" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>6221</v>
+        <v>6820</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C159" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>6222</v>
+        <v>6830</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C160" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>6223</v>
+        <v>6840</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C161" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>6231</v>
+        <v>6850</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C162" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>6232</v>
+        <v>6860</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C163" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="164" ht="130" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164">
-        <v>12010</v>
+        <v>6870</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C164" t="s">
-        <v>100</v>
-      </c>
-      <c r="D164" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165">
-        <v>13010</v>
-      </c>
-      <c r="B165" t="s">
-        <v>263</v>
+        <v>6880</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="C165" t="s">
-        <v>100</v>
-      </c>
-      <c r="D165" t="s">
-        <v>264</v>
+        <v>102</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>13020</v>
+        <v>6890</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="C166" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="167" ht="130" spans="1:4">
       <c r="A167">
-        <v>13110</v>
-      </c>
-      <c r="B167" t="s">
-        <v>265</v>
+        <v>12010</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="C167" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>102</v>
+      </c>
+      <c r="D167" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168">
-        <v>13120</v>
+        <v>13010</v>
       </c>
       <c r="B168" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C168" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="D168" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>13130</v>
-      </c>
-      <c r="B169" t="s">
-        <v>267</v>
+        <v>13020</v>
       </c>
       <c r="C169" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>13140</v>
+        <v>13110</v>
       </c>
       <c r="B170" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C170" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>13210</v>
+        <v>13120</v>
       </c>
       <c r="B171" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C171" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>13220</v>
+        <v>13130</v>
       </c>
       <c r="B172" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C172" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>13230</v>
+        <v>13140</v>
       </c>
       <c r="B173" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C173" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>13300</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>272</v>
+        <v>13210</v>
+      </c>
+      <c r="B174" t="s">
+        <v>275</v>
       </c>
       <c r="C174" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>13301</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>273</v>
+        <v>13220</v>
+      </c>
+      <c r="B175" t="s">
+        <v>276</v>
       </c>
       <c r="C175" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>13310</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>274</v>
+        <v>13230</v>
+      </c>
+      <c r="B176" t="s">
+        <v>277</v>
       </c>
       <c r="C176" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>13320</v>
+        <v>13300</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C177" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="178" ht="26" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178">
-        <v>13330</v>
+        <v>13301</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C178" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>13400</v>
-      </c>
-      <c r="B179" t="s">
-        <v>277</v>
+        <v>13310</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="C179" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>13410</v>
-      </c>
-      <c r="B180" t="s">
-        <v>35</v>
+        <v>13320</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="C180" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="181" ht="26" spans="1:3">
       <c r="A181">
-        <v>13420</v>
+        <v>13330</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C181" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>13421</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>280</v>
+        <v>13400</v>
+      </c>
+      <c r="B182" t="s">
+        <v>283</v>
       </c>
       <c r="C182" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>13430</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>281</v>
+        <v>13410</v>
+      </c>
+      <c r="B183" t="s">
+        <v>37</v>
       </c>
       <c r="C183" t="s">
-        <v>100</v>
+        <v>284</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>14090</v>
-      </c>
-      <c r="B184" t="s">
-        <v>282</v>
+        <v>13420</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="C184" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
+        <v>13421</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C185" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>13430</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C186" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>14090</v>
+      </c>
+      <c r="B187" t="s">
+        <v>288</v>
+      </c>
+      <c r="C187" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
         <v>14110</v>
       </c>
-      <c r="B185" t="s">
-        <v>283</v>
-      </c>
-      <c r="C185" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="186" ht="15" spans="1:7">
-      <c r="A186">
+      <c r="B188" t="s">
+        <v>289</v>
+      </c>
+      <c r="C188" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="189" ht="15" spans="1:7">
+      <c r="A189">
         <v>15010</v>
       </c>
-      <c r="B186" t="s">
-        <v>284</v>
-      </c>
-      <c r="C186" t="s">
-        <v>100</v>
-      </c>
-      <c r="D186" t="s">
-        <v>285</v>
-      </c>
-      <c r="G186" s="1"/>
-    </row>
-    <row r="187" ht="15" spans="1:7">
-      <c r="A187">
+      <c r="B189" t="s">
+        <v>290</v>
+      </c>
+      <c r="C189" t="s">
+        <v>102</v>
+      </c>
+      <c r="D189" t="s">
+        <v>291</v>
+      </c>
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190" ht="15" spans="1:7">
+      <c r="A190">
         <v>16010</v>
       </c>
-      <c r="B187" t="s">
-        <v>286</v>
-      </c>
-      <c r="C187" t="s">
-        <v>100</v>
-      </c>
-      <c r="D187" t="s">
-        <v>287</v>
-      </c>
-      <c r="G187" s="1"/>
-    </row>
-    <row r="188" ht="15" spans="1:7">
-      <c r="A188">
+      <c r="B190" t="s">
+        <v>292</v>
+      </c>
+      <c r="C190" t="s">
+        <v>102</v>
+      </c>
+      <c r="D190" t="s">
+        <v>293</v>
+      </c>
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" ht="15" spans="1:7">
+      <c r="A191">
         <v>16020</v>
       </c>
-      <c r="B188" t="s">
-        <v>288</v>
-      </c>
-      <c r="C188" t="s">
-        <v>100</v>
-      </c>
-      <c r="G188" s="1"/>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189">
-        <v>16100</v>
-      </c>
-      <c r="B189" t="s">
-        <v>289</v>
-      </c>
-      <c r="C189" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190">
-        <v>16110</v>
-      </c>
-      <c r="B190" t="s">
-        <v>290</v>
-      </c>
-      <c r="C190" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191">
-        <v>16200</v>
-      </c>
       <c r="B191" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C191" t="s">
-        <v>100</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>16210</v>
+        <v>16100</v>
       </c>
       <c r="B192" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C192" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>16220</v>
+        <v>16110</v>
       </c>
       <c r="B193" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C193" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>16230</v>
+        <v>16200</v>
       </c>
       <c r="B194" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C194" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>16300</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>295</v>
+        <v>16210</v>
+      </c>
+      <c r="B195" t="s">
+        <v>298</v>
       </c>
       <c r="C195" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>16310</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>296</v>
+        <v>16220</v>
+      </c>
+      <c r="B196" t="s">
+        <v>299</v>
       </c>
       <c r="C196" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>16320</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>297</v>
+        <v>16230</v>
+      </c>
+      <c r="B197" t="s">
+        <v>300</v>
       </c>
       <c r="C197" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C198" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
+        <v>16310</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C199" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>16320</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C200" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>16400</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C201" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
         <v>16410</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C199" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200">
-        <v>16800</v>
-      </c>
-      <c r="B200" t="s">
-        <v>186</v>
-      </c>
-      <c r="C200" t="s">
-        <v>100</v>
-      </c>
-      <c r="D200" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201">
-        <v>16801</v>
-      </c>
-      <c r="B201" t="s">
-        <v>187</v>
-      </c>
-      <c r="C201" t="s">
-        <v>100</v>
-      </c>
-      <c r="D201" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202">
-        <v>16802</v>
-      </c>
-      <c r="B202" t="s">
-        <v>188</v>
+      <c r="B202" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="C202" t="s">
-        <v>100</v>
-      </c>
-      <c r="D202" t="s">
-        <v>300</v>
+        <v>102</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>16803</v>
+        <v>16800</v>
       </c>
       <c r="B203" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C203" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D203" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>16804</v>
+        <v>16801</v>
       </c>
       <c r="B204" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C204" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D204" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>16805</v>
+        <v>16802</v>
       </c>
       <c r="B205" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C205" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D205" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>16806</v>
+        <v>16803</v>
       </c>
       <c r="B206" t="s">
+        <v>191</v>
+      </c>
+      <c r="C206" t="s">
+        <v>102</v>
+      </c>
+      <c r="D206" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207">
+        <v>16804</v>
+      </c>
+      <c r="B207" t="s">
         <v>192</v>
       </c>
-      <c r="C206" t="s">
-        <v>100</v>
-      </c>
-      <c r="D206" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207">
-        <v>17010</v>
-      </c>
-      <c r="B207" t="s">
-        <v>301</v>
-      </c>
       <c r="C207" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="D207" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>18010</v>
+        <v>16805</v>
       </c>
       <c r="B208" t="s">
-        <v>302</v>
+        <v>193</v>
       </c>
       <c r="C208" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D208" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209">
-        <v>18020</v>
+        <v>16806</v>
       </c>
       <c r="B209" t="s">
-        <v>304</v>
+        <v>194</v>
       </c>
       <c r="C209" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="D209" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>18100</v>
+        <v>17010</v>
       </c>
       <c r="B210" t="s">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="C210" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211">
-        <v>18110</v>
+        <v>18010</v>
       </c>
       <c r="B211" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C211" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="D211" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>18120</v>
+        <v>18020</v>
       </c>
       <c r="B212" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C212" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>18130</v>
+        <v>18100</v>
       </c>
       <c r="B213" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="C213" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>18200</v>
+        <v>18110</v>
       </c>
       <c r="B214" t="s">
-        <v>108</v>
+        <v>311</v>
       </c>
       <c r="C214" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>18210</v>
+        <v>18120</v>
       </c>
       <c r="B215" t="s">
-        <v>109</v>
+        <v>312</v>
       </c>
       <c r="C215" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>18220</v>
+        <v>18130</v>
       </c>
       <c r="B216" t="s">
-        <v>307</v>
+        <v>230</v>
       </c>
       <c r="C216" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>18300</v>
+        <v>18200</v>
       </c>
       <c r="B217" t="s">
-        <v>308</v>
+        <v>110</v>
       </c>
       <c r="C217" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>18310</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>309</v>
+        <v>18210</v>
+      </c>
+      <c r="B218" t="s">
+        <v>111</v>
       </c>
       <c r="C218" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>18320</v>
+        <v>18220</v>
       </c>
       <c r="B219" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C219" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>18340</v>
+        <v>18300</v>
       </c>
       <c r="B220" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C220" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>18400</v>
-      </c>
-      <c r="B221" t="s">
-        <v>312</v>
+        <v>18310</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="C221" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>18410</v>
+        <v>18320</v>
       </c>
       <c r="B222" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C222" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>18420</v>
+        <v>18340</v>
       </c>
       <c r="B223" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C223" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>18430</v>
+        <v>18400</v>
       </c>
       <c r="B224" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C224" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>18440</v>
+        <v>18410</v>
       </c>
       <c r="B225" t="s">
-        <v>101</v>
+        <v>319</v>
       </c>
       <c r="C225" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>18450</v>
+        <v>18420</v>
       </c>
       <c r="B226" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C226" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>18500</v>
+        <v>18430</v>
       </c>
       <c r="B227" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C227" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>18510</v>
+        <v>18440</v>
       </c>
       <c r="B228" t="s">
-        <v>318</v>
+        <v>103</v>
       </c>
       <c r="C228" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>18800</v>
+        <v>18450</v>
       </c>
       <c r="B229" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C229" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>18801</v>
+        <v>18500</v>
       </c>
       <c r="B230" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C230" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>18802</v>
+        <v>18510</v>
       </c>
       <c r="B231" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C231" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232">
-        <v>18803</v>
+        <v>18800</v>
       </c>
       <c r="B232" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C232" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233">
-        <v>18804</v>
+        <v>18801</v>
       </c>
       <c r="B233" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C233" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>18805</v>
+        <v>18802</v>
       </c>
       <c r="B234" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C234" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235">
-        <v>18806</v>
+        <v>18803</v>
       </c>
       <c r="B235" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C235" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>18811</v>
+        <v>18804</v>
       </c>
       <c r="B236" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C236" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
-        <v>18812</v>
+        <v>18805</v>
       </c>
       <c r="B237" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C237" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="238" ht="15" spans="1:7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238">
-        <v>19010</v>
+        <v>18806</v>
       </c>
       <c r="B238" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C238" t="s">
-        <v>329</v>
-      </c>
-      <c r="D238" t="s">
-        <v>330</v>
-      </c>
-      <c r="G238" s="1"/>
-    </row>
-    <row r="239" ht="15" spans="1:7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239">
-        <v>19011</v>
+        <v>18811</v>
       </c>
       <c r="B239" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C239" t="s">
-        <v>329</v>
-      </c>
-      <c r="G239" s="1"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240">
-        <v>19020</v>
+        <v>18812</v>
       </c>
       <c r="B240" t="s">
-        <v>108</v>
+        <v>333</v>
       </c>
       <c r="C240" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="241" ht="15" spans="1:7">
       <c r="A241">
-        <v>19030</v>
+        <v>19010</v>
       </c>
       <c r="B241" t="s">
-        <v>109</v>
+        <v>334</v>
       </c>
       <c r="C241" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
+        <v>335</v>
+      </c>
+      <c r="D241" t="s">
+        <v>336</v>
+      </c>
+      <c r="G241" s="1"/>
+    </row>
+    <row r="242" ht="15" spans="1:7">
       <c r="A242">
-        <v>19040</v>
+        <v>19011</v>
       </c>
       <c r="B242" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C242" t="s">
         <v>335</v>
       </c>
+      <c r="G242" s="1"/>
     </row>
     <row r="243" spans="1:3">
       <c r="A243">
-        <v>19050</v>
+        <v>19020</v>
       </c>
       <c r="B243" t="s">
-        <v>336</v>
+        <v>110</v>
       </c>
       <c r="C243" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
-        <v>19060</v>
+        <v>19030</v>
       </c>
       <c r="B244" t="s">
-        <v>338</v>
+        <v>111</v>
       </c>
       <c r="C244" t="s">
         <v>339</v>
@@ -7539,7 +7625,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
-        <v>19070</v>
+        <v>19040</v>
       </c>
       <c r="B245" t="s">
         <v>340</v>
@@ -7550,1404 +7636,1437 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246">
-        <v>19100</v>
+        <v>19050</v>
       </c>
       <c r="B246" t="s">
         <v>342</v>
       </c>
       <c r="C246" t="s">
-        <v>100</v>
+        <v>343</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247">
-        <v>19110</v>
+        <v>19060</v>
       </c>
       <c r="B247" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C247" t="s">
-        <v>100</v>
+        <v>345</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248">
-        <v>19200</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>344</v>
+        <v>19070</v>
+      </c>
+      <c r="B248" t="s">
+        <v>346</v>
       </c>
       <c r="C248" t="s">
-        <v>100</v>
+        <v>347</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249">
-        <v>19210</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>345</v>
+        <v>19100</v>
+      </c>
+      <c r="B249" t="s">
+        <v>348</v>
       </c>
       <c r="C249" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250">
-        <v>19220</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>346</v>
+        <v>19110</v>
+      </c>
+      <c r="B250" t="s">
+        <v>349</v>
       </c>
       <c r="C250" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251">
-        <v>19230</v>
+        <v>19200</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C251" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252">
-        <v>19240</v>
+        <v>19210</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C252" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
-        <v>19250</v>
+        <v>19220</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C253" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254">
-        <v>19260</v>
+        <v>19230</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C254" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>19270</v>
+        <v>19240</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C255" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
-        <v>19280</v>
+        <v>19250</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C256" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>19300</v>
-      </c>
-      <c r="B257" t="s">
-        <v>353</v>
+        <v>19260</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="C257" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="258" ht="26" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258">
-        <v>19310</v>
+        <v>19270</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C258" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>19320</v>
+        <v>19280</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C259" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>19330</v>
+        <v>19300</v>
       </c>
       <c r="B260" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C260" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="261" ht="26" spans="1:3">
       <c r="A261">
-        <v>19340</v>
-      </c>
-      <c r="B261" t="s">
-        <v>357</v>
+        <v>19310</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="C261" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262">
-        <v>19350</v>
-      </c>
-      <c r="B262" t="s">
-        <v>358</v>
+        <v>19320</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="C262" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>19360</v>
+        <v>19330</v>
       </c>
       <c r="B263" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C263" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>19400</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>360</v>
+        <v>19340</v>
+      </c>
+      <c r="B264" t="s">
+        <v>363</v>
       </c>
       <c r="C264" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
-        <v>19401</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>361</v>
+        <v>19350</v>
+      </c>
+      <c r="B265" t="s">
+        <v>364</v>
       </c>
       <c r="C265" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>19410</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>362</v>
+        <v>19360</v>
+      </c>
+      <c r="B266" t="s">
+        <v>365</v>
       </c>
       <c r="C266" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>19420</v>
+        <v>19400</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C267" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>19500</v>
-      </c>
-      <c r="B268" t="s">
-        <v>364</v>
+        <v>19401</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="C268" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>19510</v>
+        <v>19410</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="C269" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>19520</v>
+        <v>19420</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C270" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271">
-        <v>19600</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>366</v>
+        <v>19500</v>
+      </c>
+      <c r="B271" t="s">
+        <v>370</v>
       </c>
       <c r="C271" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272">
-        <v>19601</v>
+        <v>19510</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C272" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>19602</v>
+        <v>19520</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C273" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274">
-        <v>19603</v>
+        <v>19600</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C274" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275">
+        <v>19601</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C275" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276">
+        <v>19602</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C276" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277">
+        <v>19603</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C277" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278">
         <v>19604</v>
       </c>
-      <c r="B275" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C275" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="276" ht="15" spans="1:7">
-      <c r="A276">
-        <v>19611</v>
-      </c>
-      <c r="B276" t="s">
-        <v>371</v>
-      </c>
-      <c r="C276" t="s">
-        <v>100</v>
-      </c>
-      <c r="D276" t="s">
-        <v>372</v>
-      </c>
-      <c r="G276" s="1"/>
-    </row>
-    <row r="277" ht="15" spans="1:7">
-      <c r="A277">
-        <v>19612</v>
-      </c>
-      <c r="B277" t="s">
-        <v>373</v>
-      </c>
-      <c r="C277" t="s">
-        <v>100</v>
-      </c>
-      <c r="G277" s="1"/>
-    </row>
-    <row r="278" ht="15" spans="1:7">
-      <c r="A278">
-        <v>19613</v>
-      </c>
-      <c r="B278" t="s">
-        <v>374</v>
+      <c r="B278" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="C278" t="s">
-        <v>100</v>
-      </c>
-      <c r="G278" s="1"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="279" ht="15" spans="1:7">
       <c r="A279">
-        <v>19614</v>
+        <v>19611</v>
       </c>
       <c r="B279" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C279" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="D279" t="s">
+        <v>378</v>
       </c>
       <c r="G279" s="1"/>
     </row>
     <row r="280" ht="15" spans="1:7">
       <c r="A280">
-        <v>19615</v>
+        <v>19612</v>
       </c>
       <c r="B280" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C280" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G280" s="1"/>
     </row>
     <row r="281" ht="15" spans="1:7">
       <c r="A281">
-        <v>19616</v>
+        <v>19613</v>
       </c>
       <c r="B281" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C281" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G281" s="1"/>
     </row>
     <row r="282" ht="15" spans="1:7">
       <c r="A282">
-        <v>19617</v>
+        <v>19614</v>
       </c>
       <c r="B282" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C282" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G282" s="1"/>
     </row>
     <row r="283" ht="15" spans="1:7">
       <c r="A283">
-        <v>19618</v>
+        <v>19615</v>
       </c>
       <c r="B283" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C283" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G283" s="1"/>
     </row>
     <row r="284" ht="15" spans="1:7">
       <c r="A284">
+        <v>19616</v>
+      </c>
+      <c r="B284" t="s">
+        <v>383</v>
+      </c>
+      <c r="C284" t="s">
+        <v>102</v>
+      </c>
+      <c r="G284" s="1"/>
+    </row>
+    <row r="285" ht="15" spans="1:7">
+      <c r="A285">
+        <v>19617</v>
+      </c>
+      <c r="B285" t="s">
+        <v>384</v>
+      </c>
+      <c r="C285" t="s">
+        <v>102</v>
+      </c>
+      <c r="G285" s="1"/>
+    </row>
+    <row r="286" ht="15" spans="1:7">
+      <c r="A286">
+        <v>19618</v>
+      </c>
+      <c r="B286" t="s">
+        <v>385</v>
+      </c>
+      <c r="C286" t="s">
+        <v>102</v>
+      </c>
+      <c r="G286" s="1"/>
+    </row>
+    <row r="287" ht="15" spans="1:7">
+      <c r="A287">
         <v>19619</v>
       </c>
-      <c r="B284" t="s">
-        <v>380</v>
-      </c>
-      <c r="C284" t="s">
-        <v>100</v>
-      </c>
-      <c r="G284" s="1"/>
-    </row>
-    <row r="285" spans="1:4">
-      <c r="A285">
+      <c r="B287" t="s">
+        <v>386</v>
+      </c>
+      <c r="C287" t="s">
+        <v>102</v>
+      </c>
+      <c r="G287" s="1"/>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288">
         <v>19631</v>
       </c>
-      <c r="B285" t="s">
-        <v>381</v>
-      </c>
-      <c r="C285" t="s">
-        <v>100</v>
-      </c>
-      <c r="D285" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
-      <c r="A286">
-        <v>19632</v>
-      </c>
-      <c r="B286" t="s">
-        <v>383</v>
-      </c>
-      <c r="C286" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="A287">
-        <v>19633</v>
-      </c>
-      <c r="B287" t="s">
-        <v>384</v>
-      </c>
-      <c r="C287" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
-      <c r="A288">
-        <v>19634</v>
-      </c>
       <c r="B288" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C288" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="D288" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289">
-        <v>19700</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>386</v>
+        <v>19632</v>
+      </c>
+      <c r="B289" t="s">
+        <v>389</v>
       </c>
       <c r="C289" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290">
-        <v>19710</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>340</v>
+        <v>19633</v>
+      </c>
+      <c r="B290" t="s">
+        <v>390</v>
       </c>
       <c r="C290" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291">
-        <v>19720</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>387</v>
+        <v>19634</v>
+      </c>
+      <c r="B291" t="s">
+        <v>391</v>
       </c>
       <c r="C291" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292">
-        <v>19730</v>
+        <v>19700</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C292" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293">
-        <v>19800</v>
-      </c>
-      <c r="B293" t="s">
-        <v>389</v>
+        <v>19710</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="C293" t="s">
-        <v>390</v>
+        <v>102</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294">
-        <v>19810</v>
-      </c>
-      <c r="B294" t="s">
-        <v>391</v>
+        <v>19720</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="C294" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
       <c r="A295">
-        <v>20010</v>
-      </c>
-      <c r="B295" t="s">
-        <v>392</v>
+        <v>19730</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="C295" t="s">
-        <v>100</v>
-      </c>
-      <c r="D295" t="s">
-        <v>393</v>
+        <v>102</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
-        <v>20020</v>
+        <v>19800</v>
       </c>
       <c r="B296" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C296" t="s">
-        <v>100</v>
+        <v>396</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
-        <v>20030</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>395</v>
+        <v>19810</v>
+      </c>
+      <c r="B297" t="s">
+        <v>397</v>
       </c>
       <c r="C297" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
       <c r="A298">
-        <v>20040</v>
+        <v>20010</v>
       </c>
       <c r="B298" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C298" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="D298" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299">
-        <v>20050</v>
+        <v>20020</v>
       </c>
       <c r="B299" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C299" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300">
-        <v>20100</v>
-      </c>
-      <c r="B300" t="s">
-        <v>398</v>
+        <v>20030</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="C300" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301">
-        <v>20110</v>
+        <v>20040</v>
       </c>
       <c r="B301" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C301" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302">
-        <v>20120</v>
+        <v>20050</v>
       </c>
       <c r="B302" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C302" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>20200</v>
+        <v>20100</v>
       </c>
       <c r="B303" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C303" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304">
-        <v>20201</v>
+        <v>20110</v>
       </c>
       <c r="B304" t="s">
-        <v>316</v>
+        <v>405</v>
       </c>
       <c r="C304" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305">
-        <v>20210</v>
+        <v>20120</v>
       </c>
       <c r="B305" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C305" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306">
-        <v>20220</v>
+        <v>20200</v>
       </c>
       <c r="B306" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C306" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307">
-        <v>20230</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>404</v>
+        <v>20201</v>
+      </c>
+      <c r="B307" t="s">
+        <v>322</v>
       </c>
       <c r="C307" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308">
-        <v>20240</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>405</v>
+        <v>20210</v>
+      </c>
+      <c r="B308" t="s">
+        <v>408</v>
       </c>
       <c r="C308" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309">
-        <v>20250</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>406</v>
+        <v>20220</v>
+      </c>
+      <c r="B309" t="s">
+        <v>409</v>
       </c>
       <c r="C309" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310">
-        <v>20260</v>
-      </c>
-      <c r="B310" t="s">
-        <v>407</v>
+        <v>20230</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="C310" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311">
-        <v>20270</v>
-      </c>
-      <c r="B311" t="s">
-        <v>408</v>
+        <v>20240</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="C311" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312">
-        <v>20280</v>
-      </c>
-      <c r="B312" t="s">
-        <v>409</v>
+        <v>20250</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="C312" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313">
-        <v>20290</v>
+        <v>20260</v>
       </c>
       <c r="B313" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C313" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314">
-        <v>20300</v>
+        <v>20270</v>
       </c>
       <c r="B314" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C314" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315">
-        <v>20310</v>
+        <v>20280</v>
       </c>
       <c r="B315" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C315" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316">
-        <v>20320</v>
+        <v>20290</v>
       </c>
       <c r="B316" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C316" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317">
-        <v>20330</v>
+        <v>20300</v>
       </c>
       <c r="B317" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C317" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318">
-        <v>20340</v>
+        <v>20310</v>
       </c>
       <c r="B318" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C318" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319">
-        <v>20350</v>
+        <v>20320</v>
       </c>
       <c r="B319" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C319" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320">
-        <v>23010</v>
+        <v>20330</v>
       </c>
       <c r="B320" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C320" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321">
-        <v>23020</v>
+        <v>20340</v>
       </c>
       <c r="B321" t="s">
-        <v>104</v>
+        <v>421</v>
       </c>
       <c r="C321" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322">
-        <v>23030</v>
+        <v>20350</v>
       </c>
       <c r="B322" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C322" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323">
-        <v>23031</v>
+        <v>23010</v>
       </c>
       <c r="B323" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C323" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324">
-        <v>23032</v>
+        <v>23020</v>
       </c>
       <c r="B324" t="s">
-        <v>420</v>
+        <v>106</v>
       </c>
       <c r="C324" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325">
-        <v>23040</v>
+        <v>23030</v>
       </c>
       <c r="B325" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C325" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326">
-        <v>24010</v>
+        <v>23031</v>
       </c>
       <c r="B326" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C326" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327">
-        <v>24020</v>
+        <v>23032</v>
       </c>
       <c r="B327" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C327" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328">
-        <v>24030</v>
+        <v>23040</v>
       </c>
       <c r="B328" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C328" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329">
-        <v>24040</v>
+        <v>24010</v>
       </c>
       <c r="B329" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C329" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330">
-        <v>24110</v>
+        <v>24020</v>
       </c>
       <c r="B330" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C330" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331">
-        <v>24111</v>
+        <v>24030</v>
       </c>
       <c r="B331" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C331" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332">
-        <v>24112</v>
+        <v>24040</v>
       </c>
       <c r="B332" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C332" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333">
-        <v>24113</v>
+        <v>24110</v>
       </c>
       <c r="B333" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C333" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334">
-        <v>24114</v>
+        <v>24111</v>
       </c>
       <c r="B334" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C334" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335">
-        <v>24115</v>
+        <v>24112</v>
       </c>
       <c r="B335" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C335" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336">
-        <v>24116</v>
+        <v>24113</v>
       </c>
       <c r="B336" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C336" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337">
-        <v>24117</v>
+        <v>24114</v>
       </c>
       <c r="B337" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C337" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338">
-        <v>24118</v>
+        <v>24115</v>
       </c>
       <c r="B338" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C338" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339">
-        <v>24119</v>
+        <v>24116</v>
       </c>
       <c r="B339" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C339" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340">
-        <v>24120</v>
+        <v>24117</v>
       </c>
       <c r="B340" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C340" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341">
-        <v>24121</v>
+        <v>24118</v>
       </c>
       <c r="B341" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C341" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342">
-        <v>24122</v>
+        <v>24119</v>
       </c>
       <c r="B342" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C342" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343">
-        <v>30000</v>
+        <v>24120</v>
       </c>
       <c r="B343" t="s">
-        <v>331</v>
+        <v>442</v>
       </c>
       <c r="C343" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344">
-        <v>30010</v>
+        <v>24121</v>
       </c>
       <c r="B344" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C344" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345">
-        <v>30020</v>
+        <v>24122</v>
       </c>
       <c r="B345" t="s">
-        <v>102</v>
+        <v>444</v>
       </c>
       <c r="C345" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346">
-        <v>30030</v>
+        <v>30000</v>
       </c>
       <c r="B346" t="s">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="C346" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347">
-        <v>30040</v>
+        <v>30010</v>
       </c>
       <c r="B347" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C347" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348">
-        <v>31010</v>
+        <v>30020</v>
       </c>
       <c r="B348" t="s">
-        <v>441</v>
+        <v>104</v>
       </c>
       <c r="C348" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349">
-        <v>31020</v>
+        <v>30030</v>
       </c>
       <c r="B349" t="s">
-        <v>442</v>
+        <v>127</v>
       </c>
       <c r="C349" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
       <c r="A350">
-        <v>102000</v>
+        <v>30040</v>
       </c>
       <c r="B350" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C350" t="s">
-        <v>100</v>
-      </c>
-      <c r="D350" t="s">
-        <v>444</v>
+        <v>102</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351">
-        <v>102010</v>
+        <v>31010</v>
       </c>
       <c r="B351" t="s">
-        <v>338</v>
+        <v>447</v>
       </c>
       <c r="C351" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352">
-        <v>102020</v>
+        <v>31020</v>
       </c>
       <c r="B352" t="s">
-        <v>371</v>
+        <v>448</v>
       </c>
       <c r="C352" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
       <c r="A353">
-        <v>102030</v>
+        <v>102000</v>
       </c>
       <c r="B353" t="s">
-        <v>334</v>
+        <v>449</v>
       </c>
       <c r="C353" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4">
+        <v>102</v>
+      </c>
+      <c r="D353" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
       <c r="A354">
-        <v>113000</v>
+        <v>102010</v>
       </c>
       <c r="B354" t="s">
-        <v>445</v>
+        <v>344</v>
       </c>
       <c r="C354" t="s">
-        <v>100</v>
-      </c>
-      <c r="D354" t="s">
-        <v>446</v>
+        <v>102</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355">
-        <v>113010</v>
+        <v>102020</v>
       </c>
       <c r="B355" t="s">
-        <v>447</v>
+        <v>377</v>
       </c>
       <c r="C355" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356">
-        <v>113020</v>
+        <v>102030</v>
       </c>
       <c r="B356" t="s">
-        <v>448</v>
+        <v>340</v>
       </c>
       <c r="C356" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
       <c r="A357">
-        <v>113030</v>
+        <v>113000</v>
       </c>
       <c r="B357" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C357" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="D357" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358">
-        <v>113040</v>
+        <v>113010</v>
       </c>
       <c r="B358" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C358" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
       <c r="A359">
-        <v>121010</v>
+        <v>113020</v>
       </c>
       <c r="B359" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C359" t="s">
-        <v>100</v>
-      </c>
-      <c r="D359" t="s">
-        <v>452</v>
+        <v>102</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360">
-        <v>121011</v>
+        <v>113030</v>
       </c>
       <c r="B360" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C360" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361">
-        <v>121012</v>
+        <v>113040</v>
       </c>
       <c r="B361" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C361" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
       <c r="A362">
-        <v>121013</v>
+        <v>121010</v>
       </c>
       <c r="B362" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C362" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="D362" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363">
-        <v>121014</v>
+        <v>121011</v>
       </c>
       <c r="B363" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C363" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364">
-        <v>121015</v>
+        <v>121012</v>
       </c>
       <c r="B364" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C364" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365">
-        <v>121016</v>
+        <v>121013</v>
       </c>
       <c r="B365" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C365" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366">
-        <v>121017</v>
+        <v>121014</v>
       </c>
       <c r="B366" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C366" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367">
-        <v>121018</v>
+        <v>121015</v>
       </c>
       <c r="B367" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C367" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368">
-        <v>121019</v>
+        <v>121016</v>
       </c>
       <c r="B368" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C368" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369">
-        <v>121020</v>
+        <v>121017</v>
       </c>
       <c r="B369" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C369" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370">
+        <v>121018</v>
+      </c>
+      <c r="B370" t="s">
+        <v>466</v>
+      </c>
+      <c r="C370" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371">
+        <v>121019</v>
+      </c>
+      <c r="B371" t="s">
+        <v>467</v>
+      </c>
+      <c r="C371" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372">
+        <v>121020</v>
+      </c>
+      <c r="B372" t="s">
+        <v>468</v>
+      </c>
+      <c r="C372" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373">
         <v>121030</v>
       </c>
-      <c r="B370" t="s">
-        <v>463</v>
-      </c>
-      <c r="C370" t="s">
-        <v>100</v>
+      <c r="B373" t="s">
+        <v>469</v>
+      </c>
+      <c r="C373" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/System.xlsx
+++ b/Assets/Data/System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="711" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="711"/>
   </bookViews>
   <sheets>
     <sheet name="TacticsComand" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="472">
   <si>
     <t>Id</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>PARADIGM</t>
+  </si>
+  <si>
+    <t>MENU</t>
   </si>
   <si>
     <t>EDIT</t>
@@ -1211,6 +1214,9 @@
   </si>
   <si>
     <t>魔法辞典</t>
+  </si>
+  <si>
+    <t>メニュー</t>
   </si>
   <si>
     <t>敵詳細</t>
@@ -1444,9 +1450,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1477,14 +1483,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1494,9 +1492,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1508,6 +1514,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1524,6 +1555,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1546,14 +1584,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1562,32 +1592,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1595,13 +1608,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1616,7 +1622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1628,25 +1634,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1658,7 +1658,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1670,19 +1676,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1706,7 +1706,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,25 +1730,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1748,55 +1796,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1827,9 +1833,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1858,52 +1905,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1918,16 +1924,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1939,118 +1945,118 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2418,13 +2424,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="11.3636363636364" customWidth="1"/>
   </cols>
@@ -2459,7 +2465,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>19011</v>
+        <v>19740</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2470,6 +2476,17 @@
         <v>5</v>
       </c>
       <c r="C4">
+        <v>19011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>19070</v>
       </c>
     </row>
@@ -2510,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>13210</v>
@@ -2521,7 +2538,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>13220</v>
@@ -2532,7 +2549,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>13230</v>
@@ -2574,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>18100</v>
@@ -2585,7 +2602,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>18110</v>
@@ -2596,7 +2613,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>18120</v>
@@ -2607,7 +2624,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>18130</v>
@@ -2645,25 +2662,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2671,7 +2688,7 @@
         <v>1010</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>6010</v>
@@ -2703,7 +2720,7 @@
         <v>1020</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>6020</v>
@@ -2735,7 +2752,7 @@
         <v>1030</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>6030</v>
@@ -2767,7 +2784,7 @@
         <v>1040</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>6040</v>
@@ -2799,7 +2816,7 @@
         <v>2030</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>6210</v>
@@ -2831,7 +2848,7 @@
         <v>2040</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>6220</v>
@@ -2863,7 +2880,7 @@
         <v>2050</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>6230</v>
@@ -2895,7 +2912,7 @@
         <v>2060</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>6240</v>
@@ -2927,7 +2944,7 @@
         <v>2070</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>6250</v>
@@ -2959,7 +2976,7 @@
         <v>2080</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>6260</v>
@@ -2991,7 +3008,7 @@
         <v>2090</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>6270</v>
@@ -3023,7 +3040,7 @@
         <v>2100</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>6280</v>
@@ -3075,15 +3092,15 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -3092,12 +3109,12 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -3106,12 +3123,12 @@
         <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -3120,12 +3137,12 @@
         <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3134,12 +3151,12 @@
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3148,12 +3165,12 @@
         <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3162,12 +3179,12 @@
         <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3176,12 +3193,12 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -3190,12 +3207,12 @@
         <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -3204,12 +3221,12 @@
         <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3218,12 +3235,12 @@
         <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3232,12 +3249,12 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -3246,12 +3263,12 @@
         <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -3260,12 +3277,12 @@
         <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -3274,12 +3291,12 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -3288,12 +3305,12 @@
         <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3302,12 +3319,12 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -3316,12 +3333,12 @@
         <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -3330,12 +3347,12 @@
         <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -3344,12 +3361,12 @@
         <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -3358,12 +3375,12 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -3372,12 +3389,12 @@
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -3386,12 +3403,12 @@
         <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -3400,12 +3417,12 @@
         <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -3414,12 +3431,12 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -3428,12 +3445,12 @@
         <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3442,12 +3459,12 @@
         <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3456,12 +3473,12 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -3470,12 +3487,12 @@
         <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -3484,12 +3501,12 @@
         <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -3498,12 +3515,12 @@
         <v>190</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -3512,12 +3529,12 @@
         <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -3526,12 +3543,12 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -3540,12 +3557,12 @@
         <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -3554,12 +3571,12 @@
         <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3568,12 +3585,12 @@
         <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3582,12 +3599,12 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B38">
         <v>12</v>
@@ -3596,12 +3613,12 @@
         <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -3610,12 +3627,12 @@
         <v>200</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B40">
         <v>9</v>
@@ -3624,12 +3641,12 @@
         <v>230</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B41">
         <v>8</v>
@@ -3638,12 +3655,12 @@
         <v>240</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42">
         <v>11</v>
@@ -3652,12 +3669,12 @@
         <v>210</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B43">
         <v>7</v>
@@ -3666,12 +3683,12 @@
         <v>170</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -3680,12 +3697,12 @@
         <v>160</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -3694,12 +3711,12 @@
         <v>200</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46">
         <v>9</v>
@@ -3708,12 +3725,12 @@
         <v>230</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B47">
         <v>11</v>
@@ -3722,12 +3739,12 @@
         <v>240</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -3736,12 +3753,12 @@
         <v>210</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -3750,12 +3767,12 @@
         <v>170</v>
       </c>
       <c r="D49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -3764,12 +3781,12 @@
         <v>160</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -3778,12 +3795,12 @@
         <v>802</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -3792,12 +3809,12 @@
         <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -3806,12 +3823,12 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54">
         <v>7</v>
@@ -3820,12 +3837,12 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -3834,12 +3851,12 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -3848,12 +3865,12 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -3862,12 +3879,12 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -3876,12 +3893,12 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -3890,12 +3907,12 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3904,12 +3921,12 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -3918,12 +3935,12 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -3932,12 +3949,12 @@
         <v>802</v>
       </c>
       <c r="D62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B63">
         <v>4</v>
@@ -3948,7 +3965,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -3957,12 +3974,12 @@
         <v>250</v>
       </c>
       <c r="D64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -3971,12 +3988,12 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -3987,7 +4004,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -3998,7 +4015,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -4009,7 +4026,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -4020,7 +4037,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>12</v>
@@ -4029,12 +4046,12 @@
         <v>260</v>
       </c>
       <c r="D70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -4043,12 +4060,12 @@
         <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B72">
         <v>9</v>
@@ -4057,12 +4074,12 @@
         <v>150</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -4071,12 +4088,12 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -4085,12 +4102,12 @@
         <v>140</v>
       </c>
       <c r="D74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -4099,12 +4116,12 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B76">
         <v>11</v>
@@ -4113,12 +4130,12 @@
         <v>180</v>
       </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B77">
         <v>7</v>
@@ -4127,12 +4144,12 @@
         <v>170</v>
       </c>
       <c r="D77" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -4141,12 +4158,12 @@
         <v>160</v>
       </c>
       <c r="D78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -4155,12 +4172,12 @@
         <v>111</v>
       </c>
       <c r="D79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4169,12 +4186,12 @@
         <v>140</v>
       </c>
       <c r="D80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -4183,12 +4200,12 @@
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -4197,12 +4214,12 @@
         <v>170</v>
       </c>
       <c r="D82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B83">
         <v>12</v>
@@ -4211,12 +4228,12 @@
         <v>100</v>
       </c>
       <c r="D83" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B84">
         <v>9</v>
@@ -4225,12 +4242,12 @@
         <v>150</v>
       </c>
       <c r="D84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B85">
         <v>8</v>
@@ -4239,12 +4256,12 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -4253,12 +4270,12 @@
         <v>140</v>
       </c>
       <c r="D86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -4267,12 +4284,12 @@
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B88">
         <v>11</v>
@@ -4281,12 +4298,12 @@
         <v>180</v>
       </c>
       <c r="D88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4295,12 +4312,12 @@
         <v>804</v>
       </c>
       <c r="D89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B90">
         <v>9</v>
@@ -4309,12 +4326,12 @@
         <v>813</v>
       </c>
       <c r="D90" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B91">
         <v>8</v>
@@ -4323,12 +4340,12 @@
         <v>800</v>
       </c>
       <c r="D91" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -4337,12 +4354,12 @@
         <v>801</v>
       </c>
       <c r="D92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4351,12 +4368,12 @@
         <v>800</v>
       </c>
       <c r="D93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4365,12 +4382,12 @@
         <v>804</v>
       </c>
       <c r="D94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B95">
         <v>9</v>
@@ -4379,12 +4396,12 @@
         <v>814</v>
       </c>
       <c r="D95" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B96">
         <v>8</v>
@@ -4393,12 +4410,12 @@
         <v>800</v>
       </c>
       <c r="D96" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -4407,12 +4424,12 @@
         <v>801</v>
       </c>
       <c r="D97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -4421,12 +4438,12 @@
         <v>800</v>
       </c>
       <c r="D98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4435,12 +4452,12 @@
         <v>804</v>
       </c>
       <c r="D99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -4449,12 +4466,12 @@
         <v>801</v>
       </c>
       <c r="D100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4463,12 +4480,12 @@
         <v>800</v>
       </c>
       <c r="D101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -4477,12 +4494,12 @@
         <v>818</v>
       </c>
       <c r="D102" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B103">
         <v>4</v>
@@ -4491,12 +4508,12 @@
         <v>800</v>
       </c>
       <c r="D103" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B104">
         <v>6</v>
@@ -4505,12 +4522,12 @@
         <v>825</v>
       </c>
       <c r="D104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B105">
         <v>9</v>
@@ -4519,12 +4536,12 @@
         <v>817</v>
       </c>
       <c r="D105" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B106">
         <v>8</v>
@@ -4533,12 +4550,12 @@
         <v>816</v>
       </c>
       <c r="D106" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B107">
         <v>8</v>
@@ -4547,12 +4564,12 @@
         <v>817</v>
       </c>
       <c r="D107" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B108">
         <v>4</v>
@@ -4561,12 +4578,12 @@
         <v>802</v>
       </c>
       <c r="D108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -4575,12 +4592,12 @@
         <v>801</v>
       </c>
       <c r="D109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -4589,12 +4606,12 @@
         <v>800</v>
       </c>
       <c r="D110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B111">
         <v>5</v>
@@ -4603,12 +4620,12 @@
         <v>804</v>
       </c>
       <c r="D111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -4617,12 +4634,12 @@
         <v>801</v>
       </c>
       <c r="D112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -4631,12 +4648,12 @@
         <v>800</v>
       </c>
       <c r="D113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -4645,12 +4662,12 @@
         <v>804</v>
       </c>
       <c r="D114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -4659,12 +4676,12 @@
         <v>802</v>
       </c>
       <c r="D115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -4673,12 +4690,12 @@
         <v>801</v>
       </c>
       <c r="D116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4687,7 +4704,7 @@
         <v>800</v>
       </c>
       <c r="D117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4715,34 +4732,34 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4750,7 +4767,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4758,7 +4775,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4766,7 +4783,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -4774,40 +4791,40 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B10">
         <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4822,10 +4839,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G373"/>
+  <dimension ref="A1:G374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="B297" sqref="B297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -4839,10 +4856,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4850,10 +4867,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:7">
@@ -4861,10 +4878,10 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -4873,10 +4890,10 @@
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4884,10 +4901,10 @@
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4895,10 +4912,10 @@
         <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4906,10 +4923,10 @@
         <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4917,10 +4934,10 @@
         <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4928,10 +4945,10 @@
         <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4939,10 +4956,10 @@
         <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4950,10 +4967,10 @@
         <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4961,10 +4978,10 @@
         <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4972,10 +4989,10 @@
         <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4983,10 +5000,10 @@
         <v>160</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4994,10 +5011,10 @@
         <v>170</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5005,10 +5022,10 @@
         <v>180</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5016,10 +5033,10 @@
         <v>190</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5027,10 +5044,10 @@
         <v>200</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5038,10 +5055,10 @@
         <v>210</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5049,10 +5066,10 @@
         <v>220</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5060,10 +5077,10 @@
         <v>230</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5071,10 +5088,10 @@
         <v>240</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5082,10 +5099,10 @@
         <v>250</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5093,10 +5110,10 @@
         <v>260</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5104,10 +5121,10 @@
         <v>270</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5115,10 +5132,10 @@
         <v>312</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5126,10 +5143,10 @@
         <v>313</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5137,10 +5154,10 @@
         <v>314</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5148,10 +5165,10 @@
         <v>315</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5159,10 +5176,10 @@
         <v>341</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5170,10 +5187,10 @@
         <v>342</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5181,13 +5198,13 @@
         <v>371</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5195,13 +5212,13 @@
         <v>380</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5209,13 +5226,13 @@
         <v>381</v>
       </c>
       <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
         <v>131</v>
-      </c>
-      <c r="C34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5223,13 +5240,13 @@
         <v>390</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5237,13 +5254,13 @@
         <v>391</v>
       </c>
       <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" t="s">
         <v>134</v>
-      </c>
-      <c r="C36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5251,13 +5268,13 @@
         <v>400</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5265,10 +5282,10 @@
         <v>401</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5276,10 +5293,10 @@
         <v>402</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5287,10 +5304,10 @@
         <v>403</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5298,10 +5315,10 @@
         <v>404</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5309,10 +5326,10 @@
         <v>405</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5320,10 +5337,10 @@
         <v>420</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5331,10 +5348,10 @@
         <v>421</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5342,10 +5359,10 @@
         <v>422</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5353,10 +5370,10 @@
         <v>600</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5364,10 +5381,10 @@
         <v>601</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5375,10 +5392,10 @@
         <v>602</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -5386,10 +5403,10 @@
         <v>603</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -5397,10 +5414,10 @@
         <v>606</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -5408,10 +5425,10 @@
         <v>611</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -5419,10 +5436,10 @@
         <v>620</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5430,10 +5447,10 @@
         <v>621</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -5441,10 +5458,10 @@
         <v>622</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5452,10 +5469,10 @@
         <v>623</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -5463,10 +5480,10 @@
         <v>624</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -5474,10 +5491,10 @@
         <v>625</v>
       </c>
       <c r="B57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5485,10 +5502,10 @@
         <v>651</v>
       </c>
       <c r="B58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -5496,10 +5513,10 @@
         <v>652</v>
       </c>
       <c r="B59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5507,10 +5524,10 @@
         <v>702</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5518,10 +5535,10 @@
         <v>706</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5529,10 +5546,10 @@
         <v>800</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5540,10 +5557,10 @@
         <v>801</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C63" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -5551,10 +5568,10 @@
         <v>802</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5562,10 +5579,10 @@
         <v>803</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5573,10 +5590,10 @@
         <v>804</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5584,10 +5601,10 @@
         <v>805</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5595,10 +5612,10 @@
         <v>806</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5606,10 +5623,10 @@
         <v>807</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5617,10 +5634,10 @@
         <v>808</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5628,10 +5645,10 @@
         <v>810</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -5639,10 +5656,10 @@
         <v>811</v>
       </c>
       <c r="B72" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5650,10 +5667,10 @@
         <v>812</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5661,10 +5678,10 @@
         <v>813</v>
       </c>
       <c r="B74" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -5672,10 +5689,10 @@
         <v>814</v>
       </c>
       <c r="B75" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C75" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5683,10 +5700,10 @@
         <v>815</v>
       </c>
       <c r="B76" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C76" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5694,10 +5711,10 @@
         <v>816</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C77" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -5705,10 +5722,10 @@
         <v>817</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C78" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -5716,10 +5733,10 @@
         <v>818</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C79" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -5727,10 +5744,10 @@
         <v>819</v>
       </c>
       <c r="B80" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C80" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -5738,10 +5755,10 @@
         <v>820</v>
       </c>
       <c r="B81" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -5749,10 +5766,10 @@
         <v>821</v>
       </c>
       <c r="B82" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C82" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -5760,10 +5777,10 @@
         <v>822</v>
       </c>
       <c r="B83" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C83" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -5771,10 +5788,10 @@
         <v>823</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -5782,10 +5799,10 @@
         <v>824</v>
       </c>
       <c r="B85" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C85" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -5793,10 +5810,10 @@
         <v>825</v>
       </c>
       <c r="B86" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C86" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -5804,10 +5821,10 @@
         <v>826</v>
       </c>
       <c r="B87" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C87" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -5815,10 +5832,10 @@
         <v>827</v>
       </c>
       <c r="B88" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C88" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -5826,10 +5843,10 @@
         <v>1000</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -5837,10 +5854,10 @@
         <v>1001</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -5848,10 +5865,10 @@
         <v>1010</v>
       </c>
       <c r="B91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C91" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -5859,10 +5876,10 @@
         <v>1020</v>
       </c>
       <c r="B92" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C92" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" customFormat="1" spans="1:3">
@@ -5870,10 +5887,10 @@
         <v>1060</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C93" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" customFormat="1" spans="1:3">
@@ -5881,10 +5898,10 @@
         <v>1110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C94" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" customFormat="1" spans="1:3">
@@ -5892,10 +5909,10 @@
         <v>1120</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -5903,13 +5920,13 @@
         <v>2000</v>
       </c>
       <c r="B96" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C96" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D96" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -5917,10 +5934,10 @@
         <v>2001</v>
       </c>
       <c r="B97" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -5928,10 +5945,10 @@
         <v>2002</v>
       </c>
       <c r="B98" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C98" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -5939,10 +5956,10 @@
         <v>2003</v>
       </c>
       <c r="B99" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -5950,10 +5967,10 @@
         <v>2004</v>
       </c>
       <c r="B100" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C100" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -5961,10 +5978,10 @@
         <v>2005</v>
       </c>
       <c r="B101" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -5972,10 +5989,10 @@
         <v>2006</v>
       </c>
       <c r="B102" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C102" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -5983,10 +6000,10 @@
         <v>2007</v>
       </c>
       <c r="B103" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -5994,13 +6011,13 @@
         <v>2010</v>
       </c>
       <c r="B104" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C104" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -6008,13 +6025,13 @@
         <v>2011</v>
       </c>
       <c r="B105" t="s">
+        <v>198</v>
+      </c>
+      <c r="C105" t="s">
+        <v>103</v>
+      </c>
+      <c r="D105" t="s">
         <v>197</v>
-      </c>
-      <c r="C105" t="s">
-        <v>102</v>
-      </c>
-      <c r="D105" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -6022,13 +6039,13 @@
         <v>2012</v>
       </c>
       <c r="B106" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C106" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D106" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -6036,13 +6053,13 @@
         <v>2013</v>
       </c>
       <c r="B107" t="s">
+        <v>198</v>
+      </c>
+      <c r="C107" t="s">
+        <v>103</v>
+      </c>
+      <c r="D107" t="s">
         <v>197</v>
-      </c>
-      <c r="C107" t="s">
-        <v>102</v>
-      </c>
-      <c r="D107" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="108" customFormat="1" spans="1:4">
@@ -6050,13 +6067,13 @@
         <v>2100</v>
       </c>
       <c r="B108" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C108" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D108" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -6064,10 +6081,10 @@
         <v>2101</v>
       </c>
       <c r="B109" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C109" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -6075,10 +6092,10 @@
         <v>2102</v>
       </c>
       <c r="B110" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C110" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -6086,10 +6103,10 @@
         <v>2103</v>
       </c>
       <c r="B111" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C111" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -6097,10 +6114,10 @@
         <v>2104</v>
       </c>
       <c r="B112" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C112" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -6108,13 +6125,13 @@
         <v>2200</v>
       </c>
       <c r="B113" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C113" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D113" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -6122,13 +6139,13 @@
         <v>2210</v>
       </c>
       <c r="B114" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C114" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="115" ht="29" customHeight="1" spans="1:4">
@@ -6136,13 +6153,13 @@
         <v>2220</v>
       </c>
       <c r="B115" t="s">
+        <v>207</v>
+      </c>
+      <c r="C115" t="s">
+        <v>103</v>
+      </c>
+      <c r="D115" t="s">
         <v>206</v>
-      </c>
-      <c r="C115" t="s">
-        <v>102</v>
-      </c>
-      <c r="D115" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -6150,13 +6167,13 @@
         <v>2300</v>
       </c>
       <c r="B116" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C116" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D116" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -6164,13 +6181,13 @@
         <v>2310</v>
       </c>
       <c r="B117" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C117" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D117" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -6178,13 +6195,13 @@
         <v>2320</v>
       </c>
       <c r="B118" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C118" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D118" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -6192,13 +6209,13 @@
         <v>2330</v>
       </c>
       <c r="B119" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C119" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D119" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -6206,13 +6223,13 @@
         <v>2340</v>
       </c>
       <c r="B120" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C120" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D120" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -6220,13 +6237,13 @@
         <v>2400</v>
       </c>
       <c r="B121" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C121" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D121" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -6234,10 +6251,10 @@
         <v>3000</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C122" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -6245,10 +6262,10 @@
         <v>3010</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C123" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -6256,10 +6273,10 @@
         <v>3011</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C124" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -6267,10 +6284,10 @@
         <v>3040</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C125" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -6278,10 +6295,10 @@
         <v>3050</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C126" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -6289,10 +6306,10 @@
         <v>3051</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C127" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -6300,10 +6317,10 @@
         <v>3052</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C128" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -6311,10 +6328,10 @@
         <v>3053</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C129" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -6322,10 +6339,10 @@
         <v>3054</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C130" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -6333,10 +6350,10 @@
         <v>3070</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C131" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -6344,10 +6361,10 @@
         <v>3071</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C132" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -6355,10 +6372,10 @@
         <v>3072</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C133" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -6366,10 +6383,10 @@
         <v>3073</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C134" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -6377,10 +6394,10 @@
         <v>3090</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C135" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -6388,10 +6405,10 @@
         <v>3211</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C136" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -6399,10 +6416,10 @@
         <v>3230</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C137" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -6410,10 +6427,10 @@
         <v>5000</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C138" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -6421,10 +6438,10 @@
         <v>5001</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C139" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -6432,10 +6449,10 @@
         <v>5002</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C140" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -6443,10 +6460,10 @@
         <v>6001</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C141" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -6454,10 +6471,10 @@
         <v>6002</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C142" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -6465,10 +6482,10 @@
         <v>6100</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C143" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -6476,10 +6493,10 @@
         <v>6010</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C144" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -6487,10 +6504,10 @@
         <v>6011</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C145" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -6498,10 +6515,10 @@
         <v>6012</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C146" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -6509,10 +6526,10 @@
         <v>6020</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C147" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -6520,10 +6537,10 @@
         <v>6030</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C148" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -6531,10 +6548,10 @@
         <v>6040</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C149" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -6542,10 +6559,10 @@
         <v>6210</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C150" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -6553,10 +6570,10 @@
         <v>6220</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C151" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -6564,10 +6581,10 @@
         <v>6230</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C152" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -6575,10 +6592,10 @@
         <v>6240</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C153" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -6586,10 +6603,10 @@
         <v>6250</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C154" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -6597,10 +6614,10 @@
         <v>6260</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C155" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -6608,10 +6625,10 @@
         <v>6270</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C156" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -6619,10 +6636,10 @@
         <v>6280</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C157" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -6630,10 +6647,10 @@
         <v>6810</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C158" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -6641,10 +6658,10 @@
         <v>6820</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C159" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -6652,10 +6669,10 @@
         <v>6830</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C160" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -6663,10 +6680,10 @@
         <v>6840</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C161" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -6674,10 +6691,10 @@
         <v>6850</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C162" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -6685,10 +6702,10 @@
         <v>6860</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C163" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -6696,10 +6713,10 @@
         <v>6870</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C164" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -6707,10 +6724,10 @@
         <v>6880</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C165" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -6718,10 +6735,10 @@
         <v>6890</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C166" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="167" ht="130" spans="1:4">
@@ -6729,13 +6746,13 @@
         <v>12010</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C167" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D167" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -6743,13 +6760,13 @@
         <v>13010</v>
       </c>
       <c r="B168" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C168" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D168" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -6757,7 +6774,7 @@
         <v>13020</v>
       </c>
       <c r="C169" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -6765,10 +6782,10 @@
         <v>13110</v>
       </c>
       <c r="B170" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C170" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -6776,10 +6793,10 @@
         <v>13120</v>
       </c>
       <c r="B171" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C171" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -6787,10 +6804,10 @@
         <v>13130</v>
       </c>
       <c r="B172" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C172" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -6798,10 +6815,10 @@
         <v>13140</v>
       </c>
       <c r="B173" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C173" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -6809,10 +6826,10 @@
         <v>13210</v>
       </c>
       <c r="B174" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C174" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -6820,10 +6837,10 @@
         <v>13220</v>
       </c>
       <c r="B175" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C175" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -6831,10 +6848,10 @@
         <v>13230</v>
       </c>
       <c r="B176" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C176" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -6842,10 +6859,10 @@
         <v>13300</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C177" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -6853,10 +6870,10 @@
         <v>13301</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C178" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -6864,10 +6881,10 @@
         <v>13310</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C179" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -6875,10 +6892,10 @@
         <v>13320</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C180" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="181" ht="26" spans="1:3">
@@ -6886,10 +6903,10 @@
         <v>13330</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C181" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -6897,10 +6914,10 @@
         <v>13400</v>
       </c>
       <c r="B182" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C182" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -6908,10 +6925,10 @@
         <v>13410</v>
       </c>
       <c r="B183" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C183" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -6919,10 +6936,10 @@
         <v>13420</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C184" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -6930,10 +6947,10 @@
         <v>13421</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C185" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -6941,10 +6958,10 @@
         <v>13430</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C186" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -6952,10 +6969,10 @@
         <v>14090</v>
       </c>
       <c r="B187" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C187" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -6963,10 +6980,10 @@
         <v>14110</v>
       </c>
       <c r="B188" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C188" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189" ht="15" spans="1:7">
@@ -6974,13 +6991,13 @@
         <v>15010</v>
       </c>
       <c r="B189" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C189" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D189" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G189" s="1"/>
     </row>
@@ -6989,13 +7006,13 @@
         <v>16010</v>
       </c>
       <c r="B190" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C190" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D190" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G190" s="1"/>
     </row>
@@ -7004,10 +7021,10 @@
         <v>16020</v>
       </c>
       <c r="B191" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C191" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G191" s="1"/>
     </row>
@@ -7016,10 +7033,10 @@
         <v>16100</v>
       </c>
       <c r="B192" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C192" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -7027,10 +7044,10 @@
         <v>16110</v>
       </c>
       <c r="B193" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C193" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -7038,10 +7055,10 @@
         <v>16200</v>
       </c>
       <c r="B194" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C194" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -7049,10 +7066,10 @@
         <v>16210</v>
       </c>
       <c r="B195" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C195" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -7060,10 +7077,10 @@
         <v>16220</v>
       </c>
       <c r="B196" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C196" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -7071,10 +7088,10 @@
         <v>16230</v>
       </c>
       <c r="B197" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C197" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -7082,10 +7099,10 @@
         <v>16300</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C198" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -7093,10 +7110,10 @@
         <v>16310</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C199" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -7104,10 +7121,10 @@
         <v>16320</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C200" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -7115,10 +7132,10 @@
         <v>16400</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C201" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -7126,10 +7143,10 @@
         <v>16410</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C202" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -7137,13 +7154,13 @@
         <v>16800</v>
       </c>
       <c r="B203" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C203" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D203" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -7151,13 +7168,13 @@
         <v>16801</v>
       </c>
       <c r="B204" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C204" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D204" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -7165,13 +7182,13 @@
         <v>16802</v>
       </c>
       <c r="B205" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C205" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D205" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -7179,13 +7196,13 @@
         <v>16803</v>
       </c>
       <c r="B206" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C206" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D206" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -7193,13 +7210,13 @@
         <v>16804</v>
       </c>
       <c r="B207" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C207" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D207" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -7207,13 +7224,13 @@
         <v>16805</v>
       </c>
       <c r="B208" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C208" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D208" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -7221,13 +7238,13 @@
         <v>16806</v>
       </c>
       <c r="B209" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C209" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D209" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -7235,10 +7252,10 @@
         <v>17010</v>
       </c>
       <c r="B210" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C210" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -7246,13 +7263,13 @@
         <v>18010</v>
       </c>
       <c r="B211" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C211" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D211" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -7260,10 +7277,10 @@
         <v>18020</v>
       </c>
       <c r="B212" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C212" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -7271,10 +7288,10 @@
         <v>18100</v>
       </c>
       <c r="B213" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C213" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -7282,10 +7299,10 @@
         <v>18110</v>
       </c>
       <c r="B214" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C214" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -7293,10 +7310,10 @@
         <v>18120</v>
       </c>
       <c r="B215" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C215" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -7304,10 +7321,10 @@
         <v>18130</v>
       </c>
       <c r="B216" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C216" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -7315,10 +7332,10 @@
         <v>18200</v>
       </c>
       <c r="B217" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C217" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -7326,10 +7343,10 @@
         <v>18210</v>
       </c>
       <c r="B218" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C218" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -7337,10 +7354,10 @@
         <v>18220</v>
       </c>
       <c r="B219" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C219" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -7348,10 +7365,10 @@
         <v>18300</v>
       </c>
       <c r="B220" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C220" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -7359,10 +7376,10 @@
         <v>18310</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C221" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -7370,10 +7387,10 @@
         <v>18320</v>
       </c>
       <c r="B222" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C222" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -7381,10 +7398,10 @@
         <v>18340</v>
       </c>
       <c r="B223" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C223" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -7392,10 +7409,10 @@
         <v>18400</v>
       </c>
       <c r="B224" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C224" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -7403,10 +7420,10 @@
         <v>18410</v>
       </c>
       <c r="B225" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C225" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -7414,10 +7431,10 @@
         <v>18420</v>
       </c>
       <c r="B226" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C226" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -7425,10 +7442,10 @@
         <v>18430</v>
       </c>
       <c r="B227" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C227" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -7436,10 +7453,10 @@
         <v>18440</v>
       </c>
       <c r="B228" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C228" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -7447,10 +7464,10 @@
         <v>18450</v>
       </c>
       <c r="B229" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C229" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -7458,10 +7475,10 @@
         <v>18500</v>
       </c>
       <c r="B230" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C230" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -7469,10 +7486,10 @@
         <v>18510</v>
       </c>
       <c r="B231" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C231" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -7480,10 +7497,10 @@
         <v>18800</v>
       </c>
       <c r="B232" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C232" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -7491,10 +7508,10 @@
         <v>18801</v>
       </c>
       <c r="B233" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C233" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -7502,10 +7519,10 @@
         <v>18802</v>
       </c>
       <c r="B234" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C234" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -7513,10 +7530,10 @@
         <v>18803</v>
       </c>
       <c r="B235" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C235" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -7524,10 +7541,10 @@
         <v>18804</v>
       </c>
       <c r="B236" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C236" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -7535,10 +7552,10 @@
         <v>18805</v>
       </c>
       <c r="B237" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C237" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -7546,10 +7563,10 @@
         <v>18806</v>
       </c>
       <c r="B238" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C238" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -7557,10 +7574,10 @@
         <v>18811</v>
       </c>
       <c r="B239" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C239" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -7568,10 +7585,10 @@
         <v>18812</v>
       </c>
       <c r="B240" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C240" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="241" ht="15" spans="1:7">
@@ -7579,13 +7596,13 @@
         <v>19010</v>
       </c>
       <c r="B241" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C241" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D241" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G241" s="1"/>
     </row>
@@ -7594,10 +7611,10 @@
         <v>19011</v>
       </c>
       <c r="B242" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C242" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G242" s="1"/>
     </row>
@@ -7606,10 +7623,10 @@
         <v>19020</v>
       </c>
       <c r="B243" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C243" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -7617,10 +7634,10 @@
         <v>19030</v>
       </c>
       <c r="B244" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C244" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -7628,10 +7645,10 @@
         <v>19040</v>
       </c>
       <c r="B245" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C245" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -7639,10 +7656,10 @@
         <v>19050</v>
       </c>
       <c r="B246" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C246" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -7650,10 +7667,10 @@
         <v>19060</v>
       </c>
       <c r="B247" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C247" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -7661,10 +7678,10 @@
         <v>19070</v>
       </c>
       <c r="B248" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C248" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -7672,10 +7689,10 @@
         <v>19100</v>
       </c>
       <c r="B249" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C249" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -7683,10 +7700,10 @@
         <v>19110</v>
       </c>
       <c r="B250" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C250" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -7694,10 +7711,10 @@
         <v>19200</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C251" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -7705,10 +7722,10 @@
         <v>19210</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C252" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -7716,10 +7733,10 @@
         <v>19220</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C253" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -7727,10 +7744,10 @@
         <v>19230</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C254" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -7738,10 +7755,10 @@
         <v>19240</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C255" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -7749,10 +7766,10 @@
         <v>19250</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C256" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -7760,10 +7777,10 @@
         <v>19260</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C257" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -7771,10 +7788,10 @@
         <v>19270</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C258" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -7782,10 +7799,10 @@
         <v>19280</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C259" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -7793,10 +7810,10 @@
         <v>19300</v>
       </c>
       <c r="B260" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C260" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="261" ht="26" spans="1:3">
@@ -7804,10 +7821,10 @@
         <v>19310</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C261" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -7815,10 +7832,10 @@
         <v>19320</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C262" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -7826,10 +7843,10 @@
         <v>19330</v>
       </c>
       <c r="B263" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C263" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -7837,10 +7854,10 @@
         <v>19340</v>
       </c>
       <c r="B264" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C264" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -7848,10 +7865,10 @@
         <v>19350</v>
       </c>
       <c r="B265" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C265" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -7859,10 +7876,10 @@
         <v>19360</v>
       </c>
       <c r="B266" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C266" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -7870,10 +7887,10 @@
         <v>19400</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C267" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -7881,10 +7898,10 @@
         <v>19401</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C268" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -7892,10 +7909,10 @@
         <v>19410</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C269" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -7903,10 +7920,10 @@
         <v>19420</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C270" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -7914,10 +7931,10 @@
         <v>19500</v>
       </c>
       <c r="B271" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C271" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -7925,10 +7942,10 @@
         <v>19510</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C272" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -7936,10 +7953,10 @@
         <v>19520</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C273" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -7947,10 +7964,10 @@
         <v>19600</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C274" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -7958,10 +7975,10 @@
         <v>19601</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C275" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -7969,10 +7986,10 @@
         <v>19602</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C276" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -7980,10 +7997,10 @@
         <v>19603</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C277" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -7991,10 +8008,10 @@
         <v>19604</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C278" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="279" ht="15" spans="1:7">
@@ -8002,13 +8019,13 @@
         <v>19611</v>
       </c>
       <c r="B279" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C279" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D279" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G279" s="1"/>
     </row>
@@ -8017,10 +8034,10 @@
         <v>19612</v>
       </c>
       <c r="B280" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C280" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G280" s="1"/>
     </row>
@@ -8029,10 +8046,10 @@
         <v>19613</v>
       </c>
       <c r="B281" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C281" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G281" s="1"/>
     </row>
@@ -8041,10 +8058,10 @@
         <v>19614</v>
       </c>
       <c r="B282" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C282" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G282" s="1"/>
     </row>
@@ -8053,10 +8070,10 @@
         <v>19615</v>
       </c>
       <c r="B283" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C283" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G283" s="1"/>
     </row>
@@ -8065,10 +8082,10 @@
         <v>19616</v>
       </c>
       <c r="B284" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C284" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G284" s="1"/>
     </row>
@@ -8077,10 +8094,10 @@
         <v>19617</v>
       </c>
       <c r="B285" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C285" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G285" s="1"/>
     </row>
@@ -8089,10 +8106,10 @@
         <v>19618</v>
       </c>
       <c r="B286" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C286" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G286" s="1"/>
     </row>
@@ -8101,10 +8118,10 @@
         <v>19619</v>
       </c>
       <c r="B287" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C287" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G287" s="1"/>
     </row>
@@ -8113,13 +8130,13 @@
         <v>19631</v>
       </c>
       <c r="B288" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C288" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D288" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -8127,10 +8144,10 @@
         <v>19632</v>
       </c>
       <c r="B289" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C289" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -8138,10 +8155,10 @@
         <v>19633</v>
       </c>
       <c r="B290" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C290" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -8149,10 +8166,10 @@
         <v>19634</v>
       </c>
       <c r="B291" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C291" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -8160,10 +8177,10 @@
         <v>19700</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C292" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -8171,10 +8188,10 @@
         <v>19710</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C293" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -8182,10 +8199,10 @@
         <v>19720</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C294" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -8193,880 +8210,891 @@
         <v>19730</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C295" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
-        <v>19800</v>
-      </c>
-      <c r="B296" t="s">
-        <v>395</v>
+        <v>19740</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="C296" t="s">
-        <v>396</v>
+        <v>103</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
-        <v>19810</v>
+        <v>19800</v>
       </c>
       <c r="B297" t="s">
         <v>397</v>
       </c>
       <c r="C297" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
       <c r="A298">
+        <v>19810</v>
+      </c>
+      <c r="B298" t="s">
+        <v>399</v>
+      </c>
+      <c r="C298" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299">
         <v>20010</v>
-      </c>
-      <c r="B298" t="s">
-        <v>398</v>
-      </c>
-      <c r="C298" t="s">
-        <v>102</v>
-      </c>
-      <c r="D298" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
-      <c r="A299">
-        <v>20020</v>
       </c>
       <c r="B299" t="s">
         <v>400</v>
       </c>
       <c r="C299" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="D299" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300">
-        <v>20030</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>401</v>
+        <v>20020</v>
+      </c>
+      <c r="B300" t="s">
+        <v>402</v>
       </c>
       <c r="C300" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301">
-        <v>20040</v>
-      </c>
-      <c r="B301" t="s">
-        <v>402</v>
+        <v>20030</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="C301" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302">
-        <v>20050</v>
+        <v>20040</v>
       </c>
       <c r="B302" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C302" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>20100</v>
+        <v>20050</v>
       </c>
       <c r="B303" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C303" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304">
-        <v>20110</v>
+        <v>20100</v>
       </c>
       <c r="B304" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C304" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305">
-        <v>20120</v>
+        <v>20110</v>
       </c>
       <c r="B305" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C305" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306">
-        <v>20200</v>
+        <v>20120</v>
       </c>
       <c r="B306" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C306" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307">
-        <v>20201</v>
+        <v>20200</v>
       </c>
       <c r="B307" t="s">
-        <v>322</v>
+        <v>409</v>
       </c>
       <c r="C307" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308">
-        <v>20210</v>
+        <v>20201</v>
       </c>
       <c r="B308" t="s">
-        <v>408</v>
+        <v>323</v>
       </c>
       <c r="C308" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309">
-        <v>20220</v>
+        <v>20210</v>
       </c>
       <c r="B309" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C309" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310">
-        <v>20230</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>410</v>
+        <v>20220</v>
+      </c>
+      <c r="B310" t="s">
+        <v>411</v>
       </c>
       <c r="C310" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311">
-        <v>20240</v>
+        <v>20230</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C311" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312">
-        <v>20250</v>
+        <v>20240</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C312" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313">
-        <v>20260</v>
-      </c>
-      <c r="B313" t="s">
-        <v>413</v>
+        <v>20250</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="C313" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314">
-        <v>20270</v>
+        <v>20260</v>
       </c>
       <c r="B314" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C314" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315">
-        <v>20280</v>
+        <v>20270</v>
       </c>
       <c r="B315" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C315" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316">
-        <v>20290</v>
+        <v>20280</v>
       </c>
       <c r="B316" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C316" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317">
-        <v>20300</v>
+        <v>20290</v>
       </c>
       <c r="B317" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C317" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318">
-        <v>20310</v>
+        <v>20300</v>
       </c>
       <c r="B318" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C318" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319">
-        <v>20320</v>
+        <v>20310</v>
       </c>
       <c r="B319" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C319" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320">
-        <v>20330</v>
+        <v>20320</v>
       </c>
       <c r="B320" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C320" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321">
-        <v>20340</v>
+        <v>20330</v>
       </c>
       <c r="B321" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C321" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322">
-        <v>20350</v>
+        <v>20340</v>
       </c>
       <c r="B322" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C322" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323">
-        <v>23010</v>
+        <v>20350</v>
       </c>
       <c r="B323" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C323" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324">
-        <v>23020</v>
+        <v>23010</v>
       </c>
       <c r="B324" t="s">
-        <v>106</v>
+        <v>425</v>
       </c>
       <c r="C324" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325">
-        <v>23030</v>
+        <v>23020</v>
       </c>
       <c r="B325" t="s">
-        <v>424</v>
+        <v>107</v>
       </c>
       <c r="C325" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326">
-        <v>23031</v>
+        <v>23030</v>
       </c>
       <c r="B326" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C326" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327">
-        <v>23032</v>
+        <v>23031</v>
       </c>
       <c r="B327" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C327" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328">
-        <v>23040</v>
+        <v>23032</v>
       </c>
       <c r="B328" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C328" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329">
-        <v>24010</v>
+        <v>23040</v>
       </c>
       <c r="B329" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C329" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330">
-        <v>24020</v>
+        <v>24010</v>
       </c>
       <c r="B330" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C330" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331">
-        <v>24030</v>
+        <v>24020</v>
       </c>
       <c r="B331" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C331" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332">
-        <v>24040</v>
+        <v>24030</v>
       </c>
       <c r="B332" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C332" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333">
-        <v>24110</v>
+        <v>24040</v>
       </c>
       <c r="B333" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C333" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334">
-        <v>24111</v>
+        <v>24110</v>
       </c>
       <c r="B334" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C334" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335">
-        <v>24112</v>
+        <v>24111</v>
       </c>
       <c r="B335" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C335" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336">
-        <v>24113</v>
+        <v>24112</v>
       </c>
       <c r="B336" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C336" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337">
-        <v>24114</v>
+        <v>24113</v>
       </c>
       <c r="B337" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C337" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338">
-        <v>24115</v>
+        <v>24114</v>
       </c>
       <c r="B338" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C338" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339">
-        <v>24116</v>
+        <v>24115</v>
       </c>
       <c r="B339" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C339" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340">
-        <v>24117</v>
+        <v>24116</v>
       </c>
       <c r="B340" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C340" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341">
-        <v>24118</v>
+        <v>24117</v>
       </c>
       <c r="B341" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C341" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342">
-        <v>24119</v>
+        <v>24118</v>
       </c>
       <c r="B342" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C342" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343">
-        <v>24120</v>
+        <v>24119</v>
       </c>
       <c r="B343" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C343" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344">
-        <v>24121</v>
+        <v>24120</v>
       </c>
       <c r="B344" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C344" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345">
-        <v>24122</v>
+        <v>24121</v>
       </c>
       <c r="B345" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C345" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346">
-        <v>30000</v>
+        <v>24122</v>
       </c>
       <c r="B346" t="s">
-        <v>337</v>
+        <v>446</v>
       </c>
       <c r="C346" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347">
-        <v>30010</v>
+        <v>30000</v>
       </c>
       <c r="B347" t="s">
-        <v>445</v>
+        <v>338</v>
       </c>
       <c r="C347" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348">
-        <v>30020</v>
+        <v>30010</v>
       </c>
       <c r="B348" t="s">
-        <v>104</v>
+        <v>447</v>
       </c>
       <c r="C348" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349">
-        <v>30030</v>
+        <v>30020</v>
       </c>
       <c r="B349" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C349" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350">
-        <v>30040</v>
+        <v>30030</v>
       </c>
       <c r="B350" t="s">
-        <v>446</v>
+        <v>128</v>
       </c>
       <c r="C350" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351">
-        <v>31010</v>
+        <v>30040</v>
       </c>
       <c r="B351" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C351" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352">
+        <v>31010</v>
+      </c>
+      <c r="B352" t="s">
+        <v>449</v>
+      </c>
+      <c r="C352" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353">
         <v>31020</v>
       </c>
-      <c r="B352" t="s">
-        <v>448</v>
-      </c>
-      <c r="C352" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4">
-      <c r="A353">
+      <c r="B353" t="s">
+        <v>450</v>
+      </c>
+      <c r="C353" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354">
         <v>102000</v>
       </c>
-      <c r="B353" t="s">
-        <v>449</v>
-      </c>
-      <c r="C353" t="s">
-        <v>102</v>
-      </c>
-      <c r="D353" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3">
-      <c r="A354">
-        <v>102010</v>
-      </c>
       <c r="B354" t="s">
-        <v>344</v>
+        <v>451</v>
       </c>
       <c r="C354" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="D354" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355">
-        <v>102020</v>
+        <v>102010</v>
       </c>
       <c r="B355" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="C355" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356">
+        <v>102020</v>
+      </c>
+      <c r="B356" t="s">
+        <v>378</v>
+      </c>
+      <c r="C356" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357">
         <v>102030</v>
       </c>
-      <c r="B356" t="s">
-        <v>340</v>
-      </c>
-      <c r="C356" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4">
-      <c r="A357">
+      <c r="B357" t="s">
+        <v>341</v>
+      </c>
+      <c r="C357" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358">
         <v>113000</v>
-      </c>
-      <c r="B357" t="s">
-        <v>451</v>
-      </c>
-      <c r="C357" t="s">
-        <v>102</v>
-      </c>
-      <c r="D357" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
-      <c r="A358">
-        <v>113010</v>
       </c>
       <c r="B358" t="s">
         <v>453</v>
       </c>
       <c r="C358" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="D358" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359">
-        <v>113020</v>
+        <v>113010</v>
       </c>
       <c r="B359" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C359" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360">
-        <v>113030</v>
+        <v>113020</v>
       </c>
       <c r="B360" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C360" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361">
+        <v>113030</v>
+      </c>
+      <c r="B361" t="s">
+        <v>457</v>
+      </c>
+      <c r="C361" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362">
         <v>113040</v>
       </c>
-      <c r="B361" t="s">
-        <v>456</v>
-      </c>
-      <c r="C361" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4">
-      <c r="A362">
+      <c r="B362" t="s">
+        <v>458</v>
+      </c>
+      <c r="C362" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363">
         <v>121010</v>
-      </c>
-      <c r="B362" t="s">
-        <v>457</v>
-      </c>
-      <c r="C362" t="s">
-        <v>102</v>
-      </c>
-      <c r="D362" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3">
-      <c r="A363">
-        <v>121011</v>
       </c>
       <c r="B363" t="s">
         <v>459</v>
       </c>
       <c r="C363" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="D363" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364">
-        <v>121012</v>
+        <v>121011</v>
       </c>
       <c r="B364" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C364" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365">
-        <v>121013</v>
+        <v>121012</v>
       </c>
       <c r="B365" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C365" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366">
-        <v>121014</v>
+        <v>121013</v>
       </c>
       <c r="B366" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C366" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367">
-        <v>121015</v>
+        <v>121014</v>
       </c>
       <c r="B367" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C367" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368">
-        <v>121016</v>
+        <v>121015</v>
       </c>
       <c r="B368" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C368" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369">
-        <v>121017</v>
+        <v>121016</v>
       </c>
       <c r="B369" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C369" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370">
-        <v>121018</v>
+        <v>121017</v>
       </c>
       <c r="B370" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C370" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371">
-        <v>121019</v>
+        <v>121018</v>
       </c>
       <c r="B371" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C371" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372">
-        <v>121020</v>
+        <v>121019</v>
       </c>
       <c r="B372" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C372" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373">
+        <v>121020</v>
+      </c>
+      <c r="B373" t="s">
+        <v>470</v>
+      </c>
+      <c r="C373" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374">
         <v>121030</v>
       </c>
-      <c r="B373" t="s">
-        <v>469</v>
-      </c>
-      <c r="C373" t="s">
-        <v>102</v>
+      <c r="B374" t="s">
+        <v>471</v>
+      </c>
+      <c r="C374" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/System.xlsx
+++ b/Assets/Data/System.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="711"/>
+    <workbookView windowWidth="19200" windowHeight="7070" tabRatio="711" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TacticsComand" sheetId="1" r:id="rId1"/>
@@ -763,7 +763,7 @@
     <t xml:space="preserve"> - 全てのアルケミストに命令を終えた時に命令終了コマンドを呼ぶか変更します</t>
   </si>
   <si>
-    <t>Battle Wait</t>
+    <t>バトルターンスキップ</t>
   </si>
   <si>
     <t xml:space="preserve"> - バトルで行動順番待ち時間を表示するかスキップする変更します</t>
@@ -1450,9 +1450,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1470,14 +1470,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1490,9 +1490,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1506,25 +1559,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1547,67 +1591,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1622,13 +1622,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1640,13 +1640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1658,25 +1652,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1706,13 +1688,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1724,7 +1712,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1736,19 +1742,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1766,43 +1772,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1833,11 +1833,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1853,6 +1866,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1874,42 +1905,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1921,145 +1921,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2426,7 +2426,7 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2642,7 +2642,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2892,16 +2892,16 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>6860</v>
+        <v>6830</v>
       </c>
       <c r="G8">
-        <v>6850</v>
+        <v>6840</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -4841,8 +4841,8 @@
   <sheetPr/>
   <dimension ref="A1:G374"/>
   <sheetViews>
-    <sheetView topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="B297" sqref="B297"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
